--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -950,7 +950,7 @@
         <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
         <v>1.17</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1067,13 +1067,13 @@
         <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>41</v>
       </c>
       <c r="BC3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BD3" t="n">
         <v>160</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="J4" t="n">
         <v>2.5</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1168,7 +1168,7 @@
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
@@ -1192,7 +1192,7 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1204,7 +1204,7 @@
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
         <v>34</v>
@@ -1252,7 +1252,7 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
         <v>201</v>
@@ -1296,7 +1296,7 @@
         <v>1.8</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
         <v>4.75</v>
@@ -1314,7 +1314,7 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
@@ -1392,7 +1392,7 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>9</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1526,7 +1526,7 @@
         <v>6</v>
       </c>
       <c r="X6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9</v>
@@ -1574,7 +1574,7 @@
         <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>10</v>
@@ -1583,7 +1583,7 @@
         <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>67</v>
@@ -1616,7 +1616,7 @@
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>351</v>
@@ -1875,10 +1875,10 @@
         <v>2.1</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
         <v>1.62</v>
@@ -1905,7 +1905,7 @@
         <v>29</v>
       </c>
       <c r="AC8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1926,7 +1926,7 @@
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
@@ -1941,7 +1941,7 @@
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1956,13 +1956,13 @@
         <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
         <v>7.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW8" t="n">
         <v>501</v>
@@ -1986,7 +1986,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2030,7 +2030,7 @@
         <v>4.2</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.25</v>
@@ -2039,10 +2039,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
         <v>1.25</v>
@@ -2120,7 +2120,7 @@
         <v>34</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>9.5</v>
@@ -2165,7 +2165,7 @@
         <v>81</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD9" t="n">
         <v>151</v>
@@ -2203,16 +2203,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
@@ -2263,7 +2263,7 @@
         <v>26</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
@@ -2403,10 +2403,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2436,7 +2436,7 @@
         <v>9.5</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>12</v>
@@ -2463,13 +2463,13 @@
         <v>51</v>
       </c>
       <c r="AG11" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
         <v>9.5</v>
@@ -2493,7 +2493,7 @@
         <v>29</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR11" t="n">
         <v>81</v>
@@ -2585,10 +2585,10 @@
         <v>5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1.53</v>
@@ -2761,28 +2761,28 @@
         <v>2.38</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="S13" t="n">
         <v>1.44</v>
@@ -2815,7 +2815,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2836,7 +2836,7 @@
         <v>23</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>51</v>
@@ -2872,16 +2872,16 @@
         <v>8.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX13" t="n">
         <v>6.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
         <v>34</v>
@@ -2896,7 +2896,7 @@
         <v>301</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
@@ -2931,16 +2931,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
@@ -2982,7 +2982,7 @@
         <v>6.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>8.5</v>
@@ -3024,7 +3024,7 @@
         <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
@@ -3054,7 +3054,7 @@
         <v>8.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
         <v>126</v>
@@ -3072,7 +3072,7 @@
         <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
         <v>251</v>
@@ -3295,13 +3295,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H16" t="n">
         <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
@@ -3310,22 +3310,22 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
         <v>2</v>
@@ -3349,19 +3349,19 @@
         <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z16" t="n">
         <v>41</v>
       </c>
       <c r="AA16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB16" t="n">
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3379,16 +3379,16 @@
         <v>8.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
       </c>
       <c r="AL16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM16" t="n">
         <v>23</v>
@@ -3424,7 +3424,7 @@
         <v>501</v>
       </c>
       <c r="AX16" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AY16" t="n">
         <v>11</v>
@@ -3433,7 +3433,7 @@
         <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
         <v>51</v>
@@ -3480,13 +3480,13 @@
         <v>2.05</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J17" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="K17" t="n">
         <v>2</v>
@@ -3495,10 +3495,10 @@
         <v>4.33</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -3522,7 +3522,7 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3546,22 +3546,22 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
         <v>401</v>
       </c>
       <c r="AH17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ17" t="n">
         <v>13</v>
@@ -3668,7 +3668,7 @@
         <v>17</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -3704,7 +3704,7 @@
         <v>2.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
         <v>9.5</v>
@@ -3883,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
         <v>2.2</v>
@@ -4023,19 +4023,19 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
@@ -4068,13 +4068,13 @@
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
@@ -4113,7 +4113,7 @@
         <v>12</v>
       </c>
       <c r="AK20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>29</v>
@@ -4122,7 +4122,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
         <v>13</v>
@@ -4131,7 +4131,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>81</v>
@@ -4143,7 +4143,7 @@
         <v>2.38</v>
       </c>
       <c r="AU20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
@@ -4155,7 +4155,7 @@
         <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
         <v>34</v>
@@ -4393,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>1.91</v>
@@ -4429,10 +4429,10 @@
         <v>2.25</v>
       </c>
       <c r="U22" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
         <v>6</v>
@@ -4459,7 +4459,7 @@
         <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
         <v>67</v>
@@ -4468,7 +4468,7 @@
         <v>501</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4495,7 +4495,7 @@
         <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>81</v>
@@ -4516,7 +4516,7 @@
         <v>126</v>
       </c>
       <c r="AX22" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4569,16 +4569,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H23" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>1.91</v>
@@ -4593,31 +4593,31 @@
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="S23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.57</v>
       </c>
-      <c r="T23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X23" t="n">
         <v>9</v>
@@ -4629,19 +4629,19 @@
         <v>21</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>41</v>
       </c>
       <c r="AC23" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>81</v>
@@ -4650,7 +4650,7 @@
         <v>501</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>15</v>
@@ -4665,7 +4665,7 @@
         <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
         <v>4</v>
@@ -4683,28 +4683,28 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW23" t="n">
         <v>126</v>
       </c>
       <c r="AX23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
         <v>81</v>
@@ -4713,7 +4713,7 @@
         <v>126</v>
       </c>
       <c r="BC23" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BD23" t="n">
         <v>126</v>
@@ -4751,10 +4751,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
         <v>3.3</v>
@@ -4769,16 +4769,16 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q24" t="n">
         <v>2.5</v>
@@ -4793,13 +4793,13 @@
         <v>2.25</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X24" t="n">
         <v>10</v>
@@ -4823,7 +4823,7 @@
         <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
         <v>67</v>
@@ -4832,13 +4832,13 @@
         <v>501</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>34</v>
@@ -4865,7 +4865,7 @@
         <v>81</v>
       </c>
       <c r="AS24" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
         <v>2.25</v>
@@ -4895,10 +4895,10 @@
         <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25">
@@ -4951,10 +4951,10 @@
         <v>2.88</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O25" t="n">
         <v>1.5</v>
@@ -5297,22 +5297,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.38</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="I27" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.17</v>
@@ -5333,10 +5333,10 @@
         <v>1.36</v>
       </c>
       <c r="S27" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="T27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>2.5</v>
@@ -5345,22 +5345,22 @@
         <v>1.5</v>
       </c>
       <c r="W27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X27" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y27" t="n">
         <v>11</v>
       </c>
       <c r="Z27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC27" t="n">
         <v>5</v>
@@ -5378,10 +5378,10 @@
         <v>101</v>
       </c>
       <c r="AH27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ27" t="n">
         <v>15</v>
@@ -5399,7 +5399,7 @@
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP27" t="n">
         <v>34</v>
@@ -5414,7 +5414,7 @@
         <v>351</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AU27" t="n">
         <v>10</v>
@@ -5424,16 +5424,16 @@
       </c>
       <c r="AW27" t="inlineStr"/>
       <c r="AX27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY27" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
@@ -5475,16 +5475,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H28" t="n">
         <v>3.8</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
@@ -5517,10 +5517,10 @@
         <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V28" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W28" t="n">
         <v>13</v>
@@ -5553,7 +5553,7 @@
         <v>34</v>
       </c>
       <c r="AG28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH28" t="n">
         <v>11</v>
@@ -5565,7 +5565,7 @@
         <v>9.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>17</v>
@@ -5583,7 +5583,7 @@
         <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
         <v>51</v>
@@ -5604,7 +5604,7 @@
         <v>351</v>
       </c>
       <c r="AX28" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY28" t="n">
         <v>12</v>
@@ -5699,7 +5699,7 @@
         <v>2.75</v>
       </c>
       <c r="U29" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V29" t="n">
         <v>2.05</v>
@@ -5839,13 +5839,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H30" t="n">
         <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J30" t="n">
         <v>2.6</v>
@@ -5854,13 +5854,13 @@
         <v>2.2</v>
       </c>
       <c r="L30" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M30" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O30" t="n">
         <v>1.3</v>
@@ -5881,10 +5881,10 @@
         <v>2.75</v>
       </c>
       <c r="U30" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V30" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W30" t="n">
         <v>7</v>
@@ -5908,7 +5908,7 @@
         <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
         <v>15</v>
@@ -5923,7 +5923,7 @@
         <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ30" t="n">
         <v>13</v>
@@ -5932,7 +5932,7 @@
         <v>41</v>
       </c>
       <c r="AL30" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM30" t="n">
         <v>41</v>
@@ -5968,7 +5968,7 @@
         <v>501</v>
       </c>
       <c r="AX30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY30" t="n">
         <v>21</v>
@@ -6063,7 +6063,7 @@
         <v>3.25</v>
       </c>
       <c r="U31" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V31" t="n">
         <v>2.2</v>
@@ -6388,19 +6388,19 @@
         <v>2.9</v>
       </c>
       <c r="H33" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I33" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="J33" t="n">
         <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L33" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M33" t="n">
         <v>1.02</v>
@@ -6409,16 +6409,16 @@
         <v>9.550000000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q33" t="n">
         <v>1.87</v>
       </c>
       <c r="R33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S33" t="n">
         <v>1.39</v>
@@ -6439,7 +6439,7 @@
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z33" t="n">
         <v>35</v>
@@ -6451,49 +6451,49 @@
         <v>32</v>
       </c>
       <c r="AC33" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE33" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AF33" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG33" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH33" t="n">
         <v>8.25</v>
       </c>
       <c r="AI33" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>9</v>
       </c>
       <c r="AK33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM33" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN33" t="n">
         <v>4.8</v>
       </c>
       <c r="AO33" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AP33" t="n">
         <v>23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AR33" t="n">
         <v>110</v>
@@ -6502,10 +6502,10 @@
         <v>300</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="AU33" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV33" t="n">
         <v>60</v>
@@ -6515,13 +6515,13 @@
         <v>4.2</v>
       </c>
       <c r="AY33" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AZ33" t="n">
         <v>19.5</v>
       </c>
       <c r="BA33" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BB33" t="n">
         <v>80</v>
@@ -7469,22 +7469,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I39" t="n">
         <v>5.5</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K39" t="n">
         <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7505,16 +7505,16 @@
         <v>2.15</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U39" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V39" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W39" t="n">
         <v>8</v>
@@ -7535,10 +7535,10 @@
         <v>23</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD39" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE39" t="n">
         <v>17</v>
@@ -7553,7 +7553,7 @@
         <v>17</v>
       </c>
       <c r="AI39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ39" t="n">
         <v>19</v>
@@ -7583,13 +7583,13 @@
         <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU39" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV39" t="n">
         <v>51</v>
@@ -7651,13 +7651,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J40" t="n">
         <v>2.88</v>
@@ -7666,7 +7666,7 @@
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M40" t="n">
         <v>1.04</v>
@@ -7702,10 +7702,10 @@
         <v>9</v>
       </c>
       <c r="X40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z40" t="n">
         <v>21</v>
@@ -7714,7 +7714,7 @@
         <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
         <v>12</v>
@@ -7735,13 +7735,13 @@
         <v>11</v>
       </c>
       <c r="AI40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ40" t="n">
         <v>11</v>
       </c>
       <c r="AK40" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL40" t="n">
         <v>23</v>
@@ -7750,7 +7750,7 @@
         <v>29</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO40" t="n">
         <v>12</v>
@@ -7833,151 +7833,155 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="J41" t="n">
         <v>2</v>
       </c>
       <c r="K41" t="n">
-        <v>2.27</v>
+        <v>2.38</v>
       </c>
       <c r="L41" t="n">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N41" t="n">
+        <v>12</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD41" t="n">
         <v>8</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T41" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V41" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W41" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="X41" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AE41" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF41" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG41" t="n">
-        <v>700</v>
+        <v>251</v>
       </c>
       <c r="AH41" t="n">
         <v>17</v>
       </c>
       <c r="AI41" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AJ41" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AK41" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AL41" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AM41" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO41" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP41" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AQ41" t="n">
         <v>21</v>
       </c>
       <c r="AR41" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AS41" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.85</v>
+        <v>3.25</v>
       </c>
       <c r="AU41" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AV41" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW41" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>81</v>
+      </c>
       <c r="AX41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY41" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA41" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BB41" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC41" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD41" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8011,22 +8015,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H42" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I42" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K42" t="n">
         <v>2.05</v>
       </c>
       <c r="L42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.07</v>
@@ -8041,10 +8045,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S42" t="n">
         <v>1.44</v>
@@ -8062,7 +8066,7 @@
         <v>7</v>
       </c>
       <c r="X42" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y42" t="n">
         <v>9.5</v>
@@ -8071,10 +8075,10 @@
         <v>21</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC42" t="n">
         <v>8.5</v>
@@ -8092,10 +8096,10 @@
         <v>301</v>
       </c>
       <c r="AH42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ42" t="n">
         <v>12</v>
@@ -8104,19 +8108,19 @@
         <v>34</v>
       </c>
       <c r="AL42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM42" t="n">
         <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO42" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ42" t="n">
         <v>41</v>
@@ -8147,13 +8151,13 @@
         <v>29</v>
       </c>
       <c r="BA42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC42" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD42" t="inlineStr"/>
     </row>
@@ -8189,16 +8193,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="H43" t="n">
         <v>5</v>
       </c>
       <c r="I43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K43" t="n">
         <v>2.63</v>
@@ -8210,25 +8214,25 @@
         <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R43" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S43" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U43" t="n">
         <v>1.83</v>
@@ -8237,10 +8241,10 @@
         <v>1.83</v>
       </c>
       <c r="W43" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
@@ -8255,7 +8259,7 @@
         <v>23</v>
       </c>
       <c r="AC43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD43" t="n">
         <v>9.5</v>
@@ -8267,10 +8271,10 @@
         <v>51</v>
       </c>
       <c r="AG43" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI43" t="n">
         <v>41</v>
@@ -8294,19 +8298,19 @@
         <v>6</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ43" t="n">
         <v>15</v>
       </c>
       <c r="AR43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS43" t="n">
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU43" t="n">
         <v>9</v>
@@ -8316,7 +8320,7 @@
       </c>
       <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY43" t="n">
         <v>41</v>
@@ -8348,7 +8352,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8373,7 +8377,7 @@
         <v>3.4</v>
       </c>
       <c r="I44" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J44" t="n">
         <v>3.1</v>
@@ -8391,10 +8395,10 @@
         <v>12</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q44" t="n">
         <v>1.8</v>
@@ -8415,7 +8419,7 @@
         <v>2.2</v>
       </c>
       <c r="W44" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X44" t="n">
         <v>13</v>
@@ -8439,7 +8443,7 @@
         <v>6.5</v>
       </c>
       <c r="AE44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF44" t="n">
         <v>41</v>
@@ -8454,7 +8458,7 @@
         <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK44" t="n">
         <v>29</v>
@@ -8463,7 +8467,7 @@
         <v>21</v>
       </c>
       <c r="AM44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN44" t="n">
         <v>4.5</v>
@@ -8481,7 +8485,7 @@
         <v>51</v>
       </c>
       <c r="AS44" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT44" t="n">
         <v>3</v>
@@ -8502,7 +8506,7 @@
         <v>15</v>
       </c>
       <c r="AZ44" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA44" t="n">
         <v>51</v>
@@ -8759,10 +8763,10 @@
         <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="R46" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="S46" t="n">
         <v>1.4</v>
@@ -9093,22 +9097,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H48" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M48" t="n">
         <v>1.07</v>
@@ -9117,16 +9121,16 @@
         <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P48" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R48" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S48" t="n">
         <v>1.5</v>
@@ -9144,16 +9148,16 @@
         <v>6.5</v>
       </c>
       <c r="X48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA48" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB48" t="n">
         <v>34</v>
@@ -9162,7 +9166,7 @@
         <v>8</v>
       </c>
       <c r="AD48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE48" t="n">
         <v>17</v>
@@ -9171,22 +9175,22 @@
         <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ48" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK48" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL48" t="n">
         <v>34</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>29</v>
       </c>
       <c r="AM48" t="n">
         <v>41</v>
@@ -9195,10 +9199,10 @@
         <v>4</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
         <v>41</v>
@@ -9222,7 +9226,7 @@
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY48" t="n">
         <v>21</v>
@@ -9299,16 +9303,16 @@
         <v>13</v>
       </c>
       <c r="O49" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P49" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9639,13 +9643,13 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>3.1</v>
       </c>
       <c r="I51" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J51" t="n">
         <v>4</v>
@@ -9663,16 +9667,16 @@
         <v>7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q51" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R51" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="n">
         <v>1.57</v>
@@ -9819,16 +9823,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H52" t="n">
         <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="J52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="K52" t="n">
         <v>2.3</v>
@@ -9837,22 +9841,22 @@
         <v>1.91</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P52" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S52" t="n">
         <v>1.4</v>
@@ -9861,31 +9865,31 @@
         <v>2.75</v>
       </c>
       <c r="U52" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W52" t="n">
         <v>15</v>
       </c>
       <c r="X52" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB52" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD52" t="n">
         <v>9.5</v>
@@ -9894,14 +9898,14 @@
         <v>26</v>
       </c>
       <c r="AF52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG52" t="inlineStr"/>
       <c r="AH52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI52" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AJ52" t="n">
         <v>9</v>
@@ -9916,19 +9920,19 @@
         <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
       </c>
       <c r="AP52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ52" t="n">
         <v>201</v>
       </c>
       <c r="AR52" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AS52" t="n">
         <v>301</v>
@@ -9940,13 +9944,13 @@
         <v>10</v>
       </c>
       <c r="AV52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW52" t="n">
         <v>81</v>
       </c>
       <c r="AX52" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AY52" t="n">
         <v>6.5</v>
@@ -9955,13 +9959,13 @@
         <v>21</v>
       </c>
       <c r="BA52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB52" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC52" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD52" t="n">
         <v>81</v>
@@ -10017,10 +10021,10 @@
         <v>11</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>1.33</v>
@@ -10029,10 +10033,10 @@
         <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R53" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10197,22 +10201,22 @@
         <v>7.5</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R54" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S54" t="n">
         <v>1.4</v>
@@ -10418,7 +10422,7 @@
         <v>9</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>17</v>
@@ -10433,7 +10437,7 @@
         <v>7</v>
       </c>
       <c r="AE55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF55" t="n">
         <v>81</v>
@@ -10490,7 +10494,7 @@
         <v>51</v>
       </c>
       <c r="AX55" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY55" t="n">
         <v>34</v>
@@ -10907,19 +10911,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H58" t="n">
         <v>3.4</v>
       </c>
       <c r="I58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L58" t="n">
         <v>3.75</v>
@@ -10928,13 +10932,13 @@
         <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P58" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q58" t="n">
         <v>2.2</v>
@@ -10943,10 +10947,10 @@
         <v>1.65</v>
       </c>
       <c r="S58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U58" t="n">
         <v>1.91</v>
@@ -10973,7 +10977,7 @@
         <v>34</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD58" t="n">
         <v>6.5</v>
@@ -10988,7 +10992,7 @@
         <v>351</v>
       </c>
       <c r="AH58" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI58" t="n">
         <v>15</v>
@@ -11000,10 +11004,10 @@
         <v>34</v>
       </c>
       <c r="AL58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM58" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN58" t="n">
         <v>4.33</v>
@@ -11024,13 +11028,13 @@
         <v>201</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU58" t="n">
         <v>8.5</v>
       </c>
       <c r="AV58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW58" t="n">
         <v>126</v>
@@ -11045,13 +11049,13 @@
         <v>29</v>
       </c>
       <c r="BA58" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB58" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC58" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD58" t="n">
         <v>126</v>
@@ -11457,10 +11461,10 @@
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J61" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
@@ -11481,10 +11485,10 @@
         <v>3.25</v>
       </c>
       <c r="Q61" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R61" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S61" t="n">
         <v>1.44</v>
@@ -11535,7 +11539,7 @@
         <v>7.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ61" t="n">
         <v>10</v>
@@ -12351,13 +12355,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="H66" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J66" t="n">
         <v>2.2</v>
@@ -12366,7 +12370,7 @@
         <v>2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M66" t="n">
         <v>1.05</v>
@@ -12399,10 +12403,10 @@
         <v>1.95</v>
       </c>
       <c r="W66" t="n">
+        <v>7</v>
+      </c>
+      <c r="X66" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X66" t="n">
-        <v>8</v>
       </c>
       <c r="Y66" t="n">
         <v>8.5</v>
@@ -12420,7 +12424,7 @@
         <v>11</v>
       </c>
       <c r="AD66" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE66" t="n">
         <v>15</v>
@@ -12453,7 +12457,7 @@
         <v>3.6</v>
       </c>
       <c r="AO66" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP66" t="n">
         <v>19</v>
@@ -12462,7 +12466,7 @@
         <v>26</v>
       </c>
       <c r="AR66" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS66" t="n">
         <v>126</v>
@@ -12471,7 +12475,7 @@
         <v>3</v>
       </c>
       <c r="AU66" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV66" t="n">
         <v>51</v>
@@ -12480,10 +12484,10 @@
         <v>81</v>
       </c>
       <c r="AX66" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY66" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ66" t="n">
         <v>34</v>
@@ -12492,10 +12496,10 @@
         <v>101</v>
       </c>
       <c r="BB66" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC66" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD66" t="n">
         <v>81</v>
@@ -13797,22 +13801,22 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H74" t="n">
         <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J74" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K74" t="n">
         <v>2.2</v>
       </c>
       <c r="L74" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M74" t="n">
         <v>1.05</v>
@@ -13827,10 +13831,10 @@
         <v>3.75</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R74" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S74" t="n">
         <v>1.4</v>
@@ -13854,7 +13858,7 @@
         <v>10</v>
       </c>
       <c r="Z74" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA74" t="n">
         <v>21</v>
@@ -13887,13 +13891,13 @@
         <v>10</v>
       </c>
       <c r="AK74" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL74" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM74" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN74" t="n">
         <v>4.75</v>
@@ -13926,10 +13930,10 @@
         <v>126</v>
       </c>
       <c r="AX74" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY74" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ74" t="n">
         <v>23</v>
@@ -13982,10 +13986,10 @@
         <v>1.22</v>
       </c>
       <c r="H75" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="I75" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="J75" t="n">
         <v>1.62</v>
@@ -13994,7 +13998,7 @@
         <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -14033,7 +14037,7 @@
         <v>8</v>
       </c>
       <c r="Y75" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z75" t="n">
         <v>8.5</v>
@@ -14066,16 +14070,16 @@
         <v>51</v>
       </c>
       <c r="AJ75" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK75" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL75" t="n">
         <v>51</v>
       </c>
       <c r="AM75" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN75" t="n">
         <v>3.5</v>
@@ -14087,7 +14091,7 @@
         <v>15</v>
       </c>
       <c r="AQ75" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR75" t="n">
         <v>29</v>
@@ -14161,13 +14165,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H76" t="n">
         <v>3.6</v>
       </c>
       <c r="I76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
         <v>2.75</v>
@@ -14209,7 +14213,7 @@
         <v>2.25</v>
       </c>
       <c r="W76" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X76" t="n">
         <v>12</v>
@@ -14221,10 +14225,10 @@
         <v>21</v>
       </c>
       <c r="AA76" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB76" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC76" t="n">
         <v>13</v>
@@ -14248,7 +14252,7 @@
         <v>17</v>
       </c>
       <c r="AJ76" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK76" t="n">
         <v>34</v>
@@ -14257,7 +14261,7 @@
         <v>23</v>
       </c>
       <c r="AM76" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN76" t="n">
         <v>4.33</v>
@@ -14275,7 +14279,7 @@
         <v>51</v>
       </c>
       <c r="AS76" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT76" t="n">
         <v>3.25</v>
@@ -14343,22 +14347,22 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H77" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I77" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J77" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K77" t="n">
         <v>2.4</v>
       </c>
       <c r="L77" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M77" t="n">
         <v>1.04</v>
@@ -14373,10 +14377,10 @@
         <v>4</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R77" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S77" t="n">
         <v>1.33</v>
@@ -14385,28 +14389,28 @@
         <v>3.25</v>
       </c>
       <c r="U77" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V77" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W77" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y77" t="n">
         <v>8.5</v>
       </c>
       <c r="Z77" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA77" t="n">
         <v>12</v>
       </c>
       <c r="AB77" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC77" t="n">
         <v>12</v>
@@ -14415,13 +14419,13 @@
         <v>8.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AF77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH77" t="n">
         <v>19</v>
@@ -14430,10 +14434,10 @@
         <v>41</v>
       </c>
       <c r="AJ77" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK77" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="n">
         <v>51</v>
@@ -14442,50 +14446,50 @@
         <v>51</v>
       </c>
       <c r="AN77" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO77" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP77" t="n">
         <v>19</v>
       </c>
       <c r="AQ77" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR77" t="n">
         <v>41</v>
       </c>
       <c r="AS77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT77" t="n">
         <v>3.25</v>
       </c>
       <c r="AU77" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV77" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW77" t="inlineStr"/>
       <c r="AX77" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY77" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ77" t="n">
         <v>41</v>
       </c>
       <c r="BA77" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB77" t="n">
         <v>151</v>
       </c>
       <c r="BC77" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD77" t="inlineStr"/>
     </row>
@@ -14705,16 +14709,16 @@
         <v>5.75</v>
       </c>
       <c r="I79" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J79" t="n">
         <v>1.67</v>
       </c>
       <c r="K79" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L79" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M79" t="n">
         <v>1.04</v>
@@ -14729,16 +14733,16 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R79" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S79" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T79" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U79" t="n">
         <v>2.38</v>
@@ -14747,13 +14751,13 @@
         <v>1.53</v>
       </c>
       <c r="W79" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X79" t="n">
         <v>5.5</v>
       </c>
       <c r="Y79" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z79" t="n">
         <v>7</v>
@@ -14780,7 +14784,7 @@
         <v>301</v>
       </c>
       <c r="AH79" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI79" t="n">
         <v>51</v>
@@ -14807,7 +14811,7 @@
         <v>19</v>
       </c>
       <c r="AQ79" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AR79" t="n">
         <v>41</v>
@@ -14816,7 +14820,7 @@
         <v>151</v>
       </c>
       <c r="AT79" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU79" t="n">
         <v>11</v>
@@ -14826,7 +14830,7 @@
       </c>
       <c r="AW79" t="inlineStr"/>
       <c r="AX79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY79" t="n">
         <v>51</v>
@@ -14835,10 +14839,10 @@
         <v>51</v>
       </c>
       <c r="BA79" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB79" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC79" t="n">
         <v>301</v>
@@ -15057,22 +15061,22 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.4</v>
+        <v>2.32</v>
       </c>
       <c r="H81" t="n">
         <v>2.55</v>
       </c>
       <c r="I81" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J81" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="K81" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="L81" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="M81" t="n">
         <v>1.14</v>
@@ -15087,7 +15091,7 @@
         <v>2.35</v>
       </c>
       <c r="Q81" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="R81" t="n">
         <v>1.45</v>
@@ -15096,28 +15100,28 @@
         <v>1.57</v>
       </c>
       <c r="T81" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U81" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W81" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X81" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="Y81" t="n">
         <v>9.25</v>
       </c>
       <c r="Z81" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA81" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB81" t="n">
         <v>40</v>
@@ -15138,56 +15142,56 @@
         <v>101</v>
       </c>
       <c r="AH81" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI81" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ81" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK81" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL81" t="n">
         <v>45</v>
       </c>
       <c r="AM81" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AN81" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AO81" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP81" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ81" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR81" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS81" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT81" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AU81" t="n">
         <v>6.8</v>
       </c>
       <c r="AV81" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW81" t="inlineStr"/>
       <c r="AX81" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AY81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ81" t="n">
         <v>30</v>
@@ -15235,79 +15239,79 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="I82" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="J82" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L82" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="M82" t="n">
         <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P82" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="Q82" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R82" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S82" t="n">
         <v>1.45</v>
       </c>
       <c r="T82" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="U82" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V82" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W82" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X82" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Y82" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AA82" t="n">
         <v>60</v>
       </c>
       <c r="AB82" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AC82" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE82" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF82" t="n">
         <v>110</v>
@@ -15316,28 +15320,28 @@
         <v>101</v>
       </c>
       <c r="AH82" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AJ82" t="n">
         <v>8.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL82" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM82" t="n">
         <v>35</v>
       </c>
       <c r="AN82" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP82" t="n">
         <v>37</v>
@@ -15352,26 +15356,26 @@
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="AU82" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV82" t="n">
         <v>80</v>
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AY82" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AZ82" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="BA82" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BB82" t="n">
         <v>70</v>
@@ -15609,10 +15613,10 @@
         <v>2.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N84" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -15717,7 +15721,7 @@
         <v>67</v>
       </c>
       <c r="AW84" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX84" t="n">
         <v>3.75</v>
@@ -15773,7 +15777,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="H85" t="n">
         <v>4.35</v>
@@ -15782,21 +15786,25 @@
         <v>1.39</v>
       </c>
       <c r="J85" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="K85" t="n">
         <v>2.37</v>
       </c>
       <c r="L85" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
+        <v>1.87</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N85" t="n">
+        <v>11.8</v>
+      </c>
       <c r="O85" t="n">
         <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="Q85" t="n">
         <v>1.6</v>
@@ -15826,7 +15834,7 @@
         <v>16.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AA85" t="n">
         <v>50</v>
@@ -15838,7 +15846,7 @@
         <v>13</v>
       </c>
       <c r="AD85" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -15859,19 +15867,19 @@
         <v>7.1</v>
       </c>
       <c r="AK85" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AL85" t="n">
         <v>9.25</v>
       </c>
       <c r="AM85" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AN85" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AO85" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP85" t="n">
         <v>37</v>
@@ -15886,10 +15894,10 @@
         <v>500</v>
       </c>
       <c r="AT85" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AU85" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AV85" t="n">
         <v>75</v>
@@ -15902,7 +15910,7 @@
         <v>6.3</v>
       </c>
       <c r="AZ85" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="BA85" t="n">
         <v>17.5</v>
@@ -16699,16 +16707,16 @@
         <v>15</v>
       </c>
       <c r="O90" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P90" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R90" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S90" t="n">
         <v>1.3</v>
@@ -16881,16 +16889,16 @@
         <v>9</v>
       </c>
       <c r="O91" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P91" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R91" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17035,13 +17043,13 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H92" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I92" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="J92" t="n">
         <v>6</v>
@@ -17053,10 +17061,10 @@
         <v>2.2</v>
       </c>
       <c r="M92" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N92" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -17101,7 +17109,7 @@
         <v>51</v>
       </c>
       <c r="AC92" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD92" t="n">
         <v>7</v>
@@ -17134,7 +17142,7 @@
         <v>29</v>
       </c>
       <c r="AN92" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO92" t="n">
         <v>34</v>
@@ -17165,7 +17173,7 @@
         <v>3.4</v>
       </c>
       <c r="AY92" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ92" t="n">
         <v>21</v>
@@ -17412,7 +17420,7 @@
         <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O94" t="n">
         <v>1.22</v>
@@ -17433,10 +17441,10 @@
         <v>3.25</v>
       </c>
       <c r="U94" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V94" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W94" t="n">
         <v>8</v>
@@ -17469,7 +17477,7 @@
         <v>41</v>
       </c>
       <c r="AG94" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH94" t="n">
         <v>15</v>
@@ -17590,19 +17598,19 @@
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O95" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P95" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R95" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S95" t="n">
         <v>1.29</v>
@@ -17747,13 +17755,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H96" t="n">
         <v>3.9</v>
       </c>
       <c r="I96" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J96" t="n">
         <v>2.2</v>
@@ -17798,7 +17806,7 @@
         <v>8</v>
       </c>
       <c r="X96" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y96" t="n">
         <v>8.5</v>
@@ -17828,7 +17836,7 @@
         <v>201</v>
       </c>
       <c r="AH96" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI96" t="n">
         <v>29</v>
@@ -17855,7 +17863,7 @@
         <v>17</v>
       </c>
       <c r="AQ96" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR96" t="n">
         <v>41</v>
@@ -17925,19 +17933,19 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H97" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I97" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J97" t="n">
         <v>3</v>
       </c>
       <c r="K97" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L97" t="n">
         <v>3.1</v>
@@ -17946,34 +17954,34 @@
         <v>1.03</v>
       </c>
       <c r="N97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O97" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P97" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q97" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R97" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S97" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U97" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V97" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X97" t="n">
         <v>15</v>
@@ -17988,13 +17996,13 @@
         <v>19</v>
       </c>
       <c r="AB97" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD97" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE97" t="n">
         <v>11</v>
@@ -18006,10 +18014,10 @@
         <v>101</v>
       </c>
       <c r="AH97" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI97" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ97" t="n">
         <v>10</v>
@@ -18042,7 +18050,7 @@
         <v>101</v>
       </c>
       <c r="AT97" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU97" t="n">
         <v>7</v>
@@ -18051,7 +18059,7 @@
         <v>41</v>
       </c>
       <c r="AW97" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AX97" t="n">
         <v>5</v>
@@ -18846,13 +18854,13 @@
         <v>1.91</v>
       </c>
       <c r="L102" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M102" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N102" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O102" t="n">
         <v>1.5</v>
@@ -18879,7 +18887,7 @@
         <v>1.62</v>
       </c>
       <c r="W102" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X102" t="n">
         <v>9</v>
@@ -18888,7 +18896,7 @@
         <v>10</v>
       </c>
       <c r="Z102" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA102" t="n">
         <v>21</v>
@@ -18897,7 +18905,7 @@
         <v>41</v>
       </c>
       <c r="AC102" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD102" t="n">
         <v>6</v>
@@ -18906,7 +18914,7 @@
         <v>19</v>
       </c>
       <c r="AF102" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG102" t="n">
         <v>101</v>
@@ -18918,13 +18926,13 @@
         <v>17</v>
       </c>
       <c r="AJ102" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK102" t="n">
         <v>41</v>
       </c>
       <c r="AL102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM102" t="n">
         <v>51</v>
@@ -18961,10 +18969,10 @@
         <v>5.5</v>
       </c>
       <c r="AY102" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ102" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA102" t="n">
         <v>81</v>
@@ -19009,13 +19017,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="H103" t="n">
         <v>3.7</v>
       </c>
       <c r="I103" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="J103" t="n">
         <v>6</v>
@@ -19039,10 +19047,10 @@
         <v>3.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R103" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S103" t="n">
         <v>1.4</v>
@@ -19051,16 +19059,16 @@
         <v>2.75</v>
       </c>
       <c r="U103" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V103" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W103" t="n">
         <v>15</v>
       </c>
       <c r="X103" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y103" t="n">
         <v>19</v>
@@ -19084,7 +19092,7 @@
         <v>19</v>
       </c>
       <c r="AF103" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG103" t="n">
         <v>351</v>
@@ -19132,14 +19140,14 @@
         <v>9</v>
       </c>
       <c r="AV103" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW103" t="inlineStr"/>
       <c r="AX103" t="n">
         <v>3.4</v>
       </c>
       <c r="AY103" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ103" t="n">
         <v>21</v>
@@ -19187,40 +19195,40 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>3.7</v>
       </c>
       <c r="I104" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="J104" t="n">
         <v>2.6</v>
       </c>
       <c r="K104" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L104" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M104" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O104" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q104" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R104" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S104" t="n">
         <v>1.33</v>
@@ -19229,31 +19237,31 @@
         <v>3.25</v>
       </c>
       <c r="U104" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V104" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W104" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z104" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA104" t="n">
         <v>15</v>
       </c>
       <c r="AB104" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC104" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD104" t="n">
         <v>7.5</v>
@@ -19277,19 +19285,19 @@
         <v>12</v>
       </c>
       <c r="AK104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM104" t="n">
         <v>29</v>
       </c>
       <c r="AN104" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO104" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP104" t="n">
         <v>19</v>
@@ -19301,7 +19309,7 @@
         <v>51</v>
       </c>
       <c r="AS104" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT104" t="n">
         <v>3.25</v>
@@ -19310,7 +19318,7 @@
         <v>7.5</v>
       </c>
       <c r="AV104" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW104" t="n">
         <v>126</v>
@@ -19322,13 +19330,13 @@
         <v>19</v>
       </c>
       <c r="AZ104" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA104" t="n">
         <v>51</v>
       </c>
       <c r="BB104" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC104" t="n">
         <v>151</v>
@@ -19447,7 +19455,7 @@
         <v>67</v>
       </c>
       <c r="AG105" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH105" t="n">
         <v>10</v>
@@ -19907,7 +19915,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H108" t="n">
         <v>4</v>
@@ -19925,10 +19933,10 @@
         <v>6.5</v>
       </c>
       <c r="M108" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O108" t="n">
         <v>1.3</v>
@@ -19937,10 +19945,10 @@
         <v>3.4</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R108" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S108" t="n">
         <v>1.4</v>
@@ -19970,13 +19978,13 @@
         <v>13</v>
       </c>
       <c r="AB108" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC108" t="n">
         <v>9.5</v>
       </c>
       <c r="AD108" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE108" t="n">
         <v>21</v>
@@ -19994,7 +20002,7 @@
         <v>34</v>
       </c>
       <c r="AJ108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK108" t="n">
         <v>67</v>
@@ -20009,7 +20017,7 @@
         <v>3.4</v>
       </c>
       <c r="AO108" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP108" t="n">
         <v>21</v>
@@ -20089,13 +20097,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I109" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J109" t="n">
         <v>3.1</v>
@@ -20107,10 +20115,10 @@
         <v>3.75</v>
       </c>
       <c r="M109" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O109" t="n">
         <v>1.36</v>
@@ -20143,16 +20151,16 @@
         <v>11</v>
       </c>
       <c r="Y109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA109" t="n">
         <v>21</v>
       </c>
       <c r="AB109" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC109" t="n">
         <v>8</v>
@@ -20170,10 +20178,10 @@
         <v>251</v>
       </c>
       <c r="AH109" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI109" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ109" t="n">
         <v>12</v>
@@ -20182,7 +20190,7 @@
         <v>34</v>
       </c>
       <c r="AL109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM109" t="n">
         <v>41</v>
@@ -20221,7 +20229,7 @@
         <v>5</v>
       </c>
       <c r="AY109" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ109" t="n">
         <v>29</v>
@@ -20462,7 +20470,7 @@
         <v>2.45</v>
       </c>
       <c r="J111" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K111" t="n">
         <v>2.2</v>
@@ -20489,22 +20497,22 @@
         <v>1.93</v>
       </c>
       <c r="S111" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T111" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U111" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V111" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W111" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X111" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y111" t="n">
         <v>10</v>
@@ -20519,7 +20527,7 @@
         <v>29</v>
       </c>
       <c r="AC111" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD111" t="n">
         <v>6.5</v>
@@ -20531,13 +20539,13 @@
         <v>41</v>
       </c>
       <c r="AG111" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH111" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI111" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ111" t="n">
         <v>10</v>
@@ -20549,7 +20557,7 @@
         <v>19</v>
       </c>
       <c r="AM111" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN111" t="n">
         <v>4.75</v>
@@ -20570,7 +20578,7 @@
         <v>151</v>
       </c>
       <c r="AT111" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU111" t="n">
         <v>7.5</v>
@@ -20588,13 +20596,13 @@
         <v>13</v>
       </c>
       <c r="AZ111" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA111" t="n">
         <v>41</v>
       </c>
       <c r="BB111" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC111" t="n">
         <v>151</v>
@@ -20835,10 +20843,10 @@
         <v>6</v>
       </c>
       <c r="M113" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O113" t="n">
         <v>1.25</v>
@@ -21545,22 +21553,22 @@
         </is>
       </c>
       <c r="G117" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K117" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L117" t="n">
         <v>3</v>
-      </c>
-      <c r="H117" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I117" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J117" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K117" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L117" t="n">
-        <v>2.88</v>
       </c>
       <c r="M117" t="n">
         <v>1.03</v>
@@ -21581,10 +21589,10 @@
         <v>1.8</v>
       </c>
       <c r="S117" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U117" t="n">
         <v>1.8</v>
@@ -21593,19 +21601,19 @@
         <v>1.91</v>
       </c>
       <c r="W117" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X117" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y117" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z117" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB117" t="n">
         <v>34</v>
@@ -21626,28 +21634,28 @@
         <v>800</v>
       </c>
       <c r="AH117" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI117" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ117" t="n">
         <v>10</v>
       </c>
-      <c r="AJ117" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK117" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AL117" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM117" t="n">
         <v>29</v>
       </c>
       <c r="AN117" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP117" t="n">
         <v>26</v>
@@ -21656,13 +21664,13 @@
         <v>51</v>
       </c>
       <c r="AR117" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS117" t="n">
         <v>151</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU117" t="n">
         <v>8</v>
@@ -21674,10 +21682,10 @@
         <v>81</v>
       </c>
       <c r="AX117" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY117" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ117" t="n">
         <v>23</v>
@@ -21686,7 +21694,7 @@
         <v>41</v>
       </c>
       <c r="BB117" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC117" t="n">
         <v>151</v>
@@ -21730,10 +21738,10 @@
         <v>1.22</v>
       </c>
       <c r="H118" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I118" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="J118" t="n">
         <v>1.62</v>
@@ -21742,7 +21750,7 @@
         <v>2.63</v>
       </c>
       <c r="L118" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M118" t="n">
         <v>1.02</v>
@@ -21763,10 +21771,10 @@
         <v>2.5</v>
       </c>
       <c r="S118" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T118" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U118" t="n">
         <v>2.1</v>
@@ -21811,13 +21819,13 @@
         <v>23</v>
       </c>
       <c r="AI118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ118" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK118" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL118" t="n">
         <v>67</v>
@@ -21844,7 +21852,7 @@
         <v>126</v>
       </c>
       <c r="AT118" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU118" t="n">
         <v>10</v>
@@ -21859,7 +21867,7 @@
         <v>11</v>
       </c>
       <c r="AY118" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ118" t="n">
         <v>41</v>
@@ -21909,58 +21917,58 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="H119" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I119" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="J119" t="n">
-        <v>2.42</v>
+        <v>2.37</v>
       </c>
       <c r="K119" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L119" t="n">
         <v>4.8</v>
       </c>
       <c r="M119" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N119" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="O119" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P119" t="n">
-        <v>2.67</v>
+        <v>2.77</v>
       </c>
       <c r="Q119" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R119" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S119" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T119" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="U119" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V119" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="W119" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="X119" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y119" t="n">
         <v>8.5</v>
@@ -21969,31 +21977,31 @@
         <v>14.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AB119" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC119" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AD119" t="n">
         <v>6.4</v>
       </c>
       <c r="AE119" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF119" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG119" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH119" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI119" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ119" t="n">
         <v>15</v>
@@ -22011,40 +22019,40 @@
         <v>3.55</v>
       </c>
       <c r="AO119" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP119" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ119" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR119" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS119" t="n">
         <v>300</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="AU119" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV119" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW119" t="n">
         <v>51</v>
       </c>
       <c r="AX119" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="AY119" t="n">
         <v>26</v>
       </c>
       <c r="AZ119" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA119" t="n">
         <v>175</v>
@@ -22273,127 +22281,127 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="H121" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I121" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J121" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K121" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="L121" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="M121" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O121" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="P121" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R121" t="n">
-        <v>1.9</v>
+        <v>2.02</v>
       </c>
       <c r="S121" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="T121" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="U121" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="V121" t="n">
-        <v>2.12</v>
+        <v>2.2</v>
       </c>
       <c r="W121" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="X121" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y121" t="n">
         <v>10</v>
       </c>
       <c r="Z121" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA121" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB121" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC121" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD121" t="n">
-        <v>6.4</v>
+        <v>6.7</v>
       </c>
       <c r="AE121" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AI121" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AF121" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG121" t="n">
-        <v>350</v>
-      </c>
-      <c r="AH121" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI121" t="n">
-        <v>12</v>
       </c>
       <c r="AJ121" t="n">
         <v>9</v>
       </c>
       <c r="AK121" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM121" t="n">
         <v>25</v>
       </c>
-      <c r="AL121" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM121" t="n">
-        <v>26</v>
-      </c>
       <c r="AN121" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="AO121" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ121" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AR121" t="n">
         <v>90</v>
       </c>
       <c r="AS121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT121" t="n">
-        <v>2.75</v>
+        <v>2.87</v>
       </c>
       <c r="AU121" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV121" t="n">
         <v>55</v>
@@ -22405,19 +22413,19 @@
         <v>4.4</v>
       </c>
       <c r="AY121" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AZ121" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA121" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB121" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC121" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD121" t="n">
         <v>51</v>
@@ -22455,22 +22463,22 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="H122" t="n">
         <v>4.75</v>
       </c>
       <c r="I122" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="J122" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K122" t="n">
         <v>3</v>
       </c>
       <c r="L122" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="M122" t="n">
         <v>1.01</v>
@@ -22485,10 +22493,10 @@
         <v>11</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="R122" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="S122" t="n">
         <v>1.14</v>
@@ -22497,10 +22505,10 @@
         <v>5.5</v>
       </c>
       <c r="U122" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V122" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W122" t="n">
         <v>34</v>
@@ -22515,7 +22523,7 @@
         <v>51</v>
       </c>
       <c r="AA122" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB122" t="n">
         <v>23</v>
@@ -22530,28 +22538,28 @@
         <v>13</v>
       </c>
       <c r="AF122" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG122" t="n">
         <v>51</v>
       </c>
       <c r="AH122" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ122" t="n">
         <v>10</v>
       </c>
       <c r="AK122" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL122" t="n">
         <v>11</v>
       </c>
       <c r="AM122" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AN122" t="n">
         <v>8</v>
@@ -22569,7 +22577,7 @@
         <v>51</v>
       </c>
       <c r="AS122" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT122" t="n">
         <v>5.5</v>
@@ -22581,10 +22589,10 @@
         <v>29</v>
       </c>
       <c r="AW122" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX122" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY122" t="n">
         <v>7.5</v>
@@ -22596,7 +22604,7 @@
         <v>17</v>
       </c>
       <c r="BB122" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BC122" t="n">
         <v>51</v>
@@ -23181,7 +23189,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>3.2</v>
@@ -23241,7 +23249,7 @@
         <v>23</v>
       </c>
       <c r="AA126" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB126" t="n">
         <v>29</v>
@@ -23250,7 +23258,7 @@
         <v>9.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE126" t="n">
         <v>15</v>
@@ -23310,7 +23318,7 @@
         <v>51</v>
       </c>
       <c r="AX126" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY126" t="n">
         <v>17</v>
@@ -23381,22 +23389,22 @@
         <v>4</v>
       </c>
       <c r="M127" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N127" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O127" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P127" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R127" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S127" t="n">
         <v>1.4</v>
@@ -23545,16 +23553,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>3.25</v>
       </c>
       <c r="I128" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J128" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K128" t="n">
         <v>2.1</v>
@@ -23599,10 +23607,10 @@
         <v>12</v>
       </c>
       <c r="Y128" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z128" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA128" t="n">
         <v>21</v>
@@ -23617,13 +23625,13 @@
         <v>6.5</v>
       </c>
       <c r="AE128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF128" t="n">
         <v>51</v>
       </c>
       <c r="AG128" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH128" t="n">
         <v>9</v>
@@ -23632,13 +23640,13 @@
         <v>13</v>
       </c>
       <c r="AJ128" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK128" t="n">
         <v>29</v>
       </c>
       <c r="AL128" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM128" t="n">
         <v>29</v>
@@ -23647,13 +23655,13 @@
         <v>4.5</v>
       </c>
       <c r="AO128" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP128" t="n">
         <v>23</v>
       </c>
       <c r="AQ128" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR128" t="n">
         <v>67</v>
@@ -23730,10 +23738,10 @@
         <v>2.25</v>
       </c>
       <c r="H129" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I129" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J129" t="n">
         <v>2.88</v>
@@ -23742,7 +23750,7 @@
         <v>2.25</v>
       </c>
       <c r="L129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M129" t="n">
         <v>1.04</v>
@@ -23757,10 +23765,10 @@
         <v>4</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R129" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S129" t="n">
         <v>1.33</v>
@@ -23793,10 +23801,10 @@
         <v>23</v>
       </c>
       <c r="AC129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD129" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE129" t="n">
         <v>12</v>
@@ -23817,13 +23825,13 @@
         <v>11</v>
       </c>
       <c r="AK129" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM129" t="n">
         <v>29</v>
-      </c>
-      <c r="AL129" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM129" t="n">
-        <v>26</v>
       </c>
       <c r="AN129" t="n">
         <v>4.5</v>
@@ -23850,7 +23858,7 @@
         <v>7.5</v>
       </c>
       <c r="AV129" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW129" t="inlineStr"/>
       <c r="AX129" t="n">
@@ -23860,7 +23868,7 @@
         <v>15</v>
       </c>
       <c r="AZ129" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA129" t="n">
         <v>51</v>
@@ -23869,7 +23877,7 @@
         <v>67</v>
       </c>
       <c r="BC129" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD129" t="inlineStr"/>
     </row>
@@ -24087,34 +24095,34 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H131" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I131" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J131" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K131" t="n">
         <v>2.05</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M131" t="n">
         <v>1.07</v>
       </c>
       <c r="N131" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P131" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q131" t="n">
         <v>2.1</v>
@@ -24147,7 +24155,7 @@
         <v>19</v>
       </c>
       <c r="AA131" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB131" t="n">
         <v>29</v>
@@ -24168,7 +24176,7 @@
         <v>301</v>
       </c>
       <c r="AH131" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI131" t="n">
         <v>17</v>
@@ -24335,7 +24343,7 @@
         <v>41</v>
       </c>
       <c r="AC132" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD132" t="n">
         <v>6</v>
@@ -24467,10 +24475,10 @@
         <v>3.4</v>
       </c>
       <c r="M133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
         <v>1.33</v>
@@ -24479,10 +24487,10 @@
         <v>3.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S133" t="n">
         <v>1.44</v>
@@ -24811,28 +24819,28 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H135" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I135" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="J135" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K135" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L135" t="n">
         <v>6</v>
       </c>
       <c r="M135" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N135" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O135" t="n">
         <v>1.29</v>
@@ -24895,10 +24903,10 @@
         <v>15</v>
       </c>
       <c r="AI135" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK135" t="n">
         <v>67</v>
@@ -24910,7 +24918,7 @@
         <v>51</v>
       </c>
       <c r="AN135" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO135" t="n">
         <v>8</v>
@@ -24919,7 +24927,7 @@
         <v>21</v>
       </c>
       <c r="AQ135" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR135" t="n">
         <v>51</v>
@@ -24940,7 +24948,7 @@
         <v>151</v>
       </c>
       <c r="AX135" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY135" t="n">
         <v>34</v>
@@ -24993,61 +25001,155 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="H136" t="n">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="I136" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr"/>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="inlineStr"/>
-      <c r="T136" t="inlineStr"/>
-      <c r="U136" t="inlineStr"/>
-      <c r="V136" t="inlineStr"/>
-      <c r="W136" t="inlineStr"/>
-      <c r="X136" t="inlineStr"/>
-      <c r="Y136" t="inlineStr"/>
-      <c r="Z136" t="inlineStr"/>
-      <c r="AA136" t="inlineStr"/>
-      <c r="AB136" t="inlineStr"/>
-      <c r="AC136" t="inlineStr"/>
-      <c r="AD136" t="inlineStr"/>
-      <c r="AE136" t="inlineStr"/>
-      <c r="AF136" t="inlineStr"/>
-      <c r="AG136" t="inlineStr"/>
-      <c r="AH136" t="inlineStr"/>
-      <c r="AI136" t="inlineStr"/>
-      <c r="AJ136" t="inlineStr"/>
-      <c r="AK136" t="inlineStr"/>
-      <c r="AL136" t="inlineStr"/>
-      <c r="AM136" t="inlineStr"/>
-      <c r="AN136" t="inlineStr"/>
-      <c r="AO136" t="inlineStr"/>
-      <c r="AP136" t="inlineStr"/>
-      <c r="AQ136" t="inlineStr"/>
-      <c r="AR136" t="inlineStr"/>
-      <c r="AS136" t="inlineStr"/>
-      <c r="AT136" t="inlineStr"/>
-      <c r="AU136" t="inlineStr"/>
-      <c r="AV136" t="inlineStr"/>
-      <c r="AW136" t="inlineStr"/>
-      <c r="AX136" t="inlineStr"/>
-      <c r="AY136" t="inlineStr"/>
-      <c r="AZ136" t="inlineStr"/>
-      <c r="BA136" t="inlineStr"/>
-      <c r="BB136" t="inlineStr"/>
-      <c r="BC136" t="inlineStr"/>
-      <c r="BD136" t="inlineStr"/>
+        <v>5.75</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L136" t="n">
+        <v>6</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N136" t="n">
+        <v>13</v>
+      </c>
+      <c r="O136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P136" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R136" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S136" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V136" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X136" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -25081,95 +25183,97 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="H137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I137" t="n">
         <v>3.3</v>
       </c>
-      <c r="I137" t="n">
-        <v>3.27</v>
-      </c>
       <c r="J137" t="n">
-        <v>2.83</v>
+        <v>2.88</v>
       </c>
       <c r="K137" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>4.04</v>
+        <v>4</v>
       </c>
       <c r="M137" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="O137" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P137" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R137" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T137" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="U137" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="V137" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W137" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X137" t="n">
         <v>9.5</v>
       </c>
       <c r="Y137" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Z137" t="n">
         <v>19</v>
       </c>
       <c r="AA137" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC137" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD137" t="n">
         <v>6.5</v>
       </c>
       <c r="AE137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF137" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG137" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>351</v>
+      </c>
       <c r="AH137" t="n">
         <v>9</v>
       </c>
       <c r="AI137" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ137" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK137" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AL137" t="n">
         <v>29</v>
@@ -25178,52 +25282,52 @@
         <v>41</v>
       </c>
       <c r="AN137" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AO137" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AP137" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ137" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="AR137" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AS137" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT137" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="AU137" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AV137" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="AW137" t="n">
         <v>126</v>
       </c>
       <c r="AX137" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY137" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ137" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA137" t="n">
         <v>67</v>
       </c>
       <c r="BB137" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC137" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BD137" t="n">
         <v>126</v>
@@ -25473,10 +25577,10 @@
         <v>4.5</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R139" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S139" t="n">
         <v>1.3</v>
@@ -25649,16 +25753,16 @@
         <v>17</v>
       </c>
       <c r="O140" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P140" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R140" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S140" t="n">
         <v>1.29</v>
@@ -26345,55 +26449,55 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L144" t="n">
         <v>3.45</v>
       </c>
-      <c r="I144" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="K144" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="L144" t="n">
-        <v>3.4</v>
-      </c>
       <c r="M144" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N144" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="O144" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P144" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="R144" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="S144" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T144" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U144" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V144" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W144" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X144" t="n">
         <v>11.75</v>
@@ -26402,19 +26506,19 @@
         <v>9</v>
       </c>
       <c r="Z144" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA144" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC144" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AD144" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE144" t="n">
         <v>13</v>
@@ -26429,40 +26533,40 @@
         <v>9.75</v>
       </c>
       <c r="AI144" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AJ144" t="n">
         <v>10.25</v>
       </c>
       <c r="AK144" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL144" t="n">
         <v>23</v>
       </c>
       <c r="AM144" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN144" t="n">
         <v>4.25</v>
       </c>
       <c r="AO144" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP144" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ144" t="n">
         <v>50</v>
       </c>
       <c r="AR144" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS144" t="n">
         <v>250</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU144" t="n">
         <v>7</v>
@@ -26475,16 +26579,16 @@
         <v>4.8</v>
       </c>
       <c r="AY144" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ144" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA144" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB144" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BC144" t="n">
         <v>300</v>
@@ -26731,10 +26835,10 @@
         <v>4</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R146" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S146" t="n">
         <v>1.36</v>
@@ -26883,28 +26987,28 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J147" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K147" t="n">
         <v>2.1</v>
       </c>
       <c r="L147" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O147" t="n">
         <v>1.36</v>
@@ -26940,7 +27044,7 @@
         <v>9</v>
       </c>
       <c r="Z147" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA147" t="n">
         <v>17</v>
@@ -26997,7 +27101,7 @@
         <v>51</v>
       </c>
       <c r="AS147" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT147" t="n">
         <v>2.63</v>
@@ -27006,7 +27110,7 @@
         <v>8.5</v>
       </c>
       <c r="AV147" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW147" t="n">
         <v>276</v>
@@ -27450,7 +27554,7 @@
         <v>1.07</v>
       </c>
       <c r="N150" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O150" t="n">
         <v>1.36</v>
@@ -27489,7 +27593,7 @@
         <v>21</v>
       </c>
       <c r="AA150" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB150" t="n">
         <v>34</v>
@@ -27552,7 +27656,7 @@
         <v>8.5</v>
       </c>
       <c r="AV150" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW150" t="n">
         <v>126</v>
@@ -27570,7 +27674,7 @@
         <v>67</v>
       </c>
       <c r="BB150" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC150" t="n">
         <v>251</v>
@@ -27611,22 +27715,22 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H151" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I151" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="J151" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K151" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L151" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M151" t="n">
         <v>1.06</v>
@@ -27653,25 +27757,25 @@
         <v>2.75</v>
       </c>
       <c r="U151" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V151" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X151" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y151" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB151" t="n">
         <v>34</v>
@@ -27680,7 +27784,7 @@
         <v>10</v>
       </c>
       <c r="AD151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE151" t="n">
         <v>15</v>
@@ -27689,19 +27793,19 @@
         <v>51</v>
       </c>
       <c r="AG151" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH151" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI151" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ151" t="n">
         <v>9</v>
       </c>
       <c r="AK151" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL151" t="n">
         <v>17</v>
@@ -27713,13 +27817,13 @@
         <v>5.5</v>
       </c>
       <c r="AO151" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP151" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ151" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR151" t="n">
         <v>81</v>
@@ -27740,16 +27844,16 @@
         <v>126</v>
       </c>
       <c r="AX151" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY151" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ151" t="n">
         <v>21</v>
       </c>
       <c r="BA151" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB151" t="n">
         <v>51</v>
@@ -27823,22 +27927,22 @@
         <v>3.4</v>
       </c>
       <c r="Q152" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V152" t="n">
         <v>2</v>
-      </c>
-      <c r="R152" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S152" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T152" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U152" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V152" t="n">
-        <v>1.91</v>
       </c>
       <c r="W152" t="n">
         <v>8.5</v>
@@ -27871,7 +27975,7 @@
         <v>51</v>
       </c>
       <c r="AG152" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH152" t="n">
         <v>8.5</v>
@@ -27910,7 +28014,7 @@
         <v>151</v>
       </c>
       <c r="AT152" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU152" t="n">
         <v>8</v>
@@ -28157,112 +28261,112 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.65</v>
+        <v>4.25</v>
       </c>
       <c r="H154" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I154" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="J154" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="K154" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L154" t="n">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="M154" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N154" t="n">
-        <v>8.550000000000001</v>
+        <v>7.13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="P154" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="Q154" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="R154" t="n">
-        <v>1.57</v>
+        <v>1.47</v>
       </c>
       <c r="S154" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T154" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="U154" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="V154" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="W154" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="X154" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="Y154" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Z154" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA154" t="n">
         <v>55</v>
       </c>
       <c r="AB154" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AC154" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AD154" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE154" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF154" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG154" t="n">
         <v>900</v>
       </c>
       <c r="AH154" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="AI154" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="AJ154" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK154" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL154" t="n">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="AM154" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN154" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="AO154" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AP154" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AQ154" t="n">
         <v>175</v>
@@ -28274,34 +28378,34 @@
         <v>500</v>
       </c>
       <c r="AT154" t="n">
-        <v>2.4</v>
+        <v>2.22</v>
       </c>
       <c r="AU154" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AV154" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AW154" t="n">
         <v>81</v>
       </c>
       <c r="AX154" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AY154" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="AZ154" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BA154" t="n">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="BB154" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BC154" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BD154" t="n">
         <v>81</v>
@@ -28707,13 +28811,13 @@
         <v>3.6</v>
       </c>
       <c r="I157" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J157" t="n">
         <v>2.6</v>
       </c>
       <c r="K157" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L157" t="n">
         <v>4.33</v>
@@ -28725,70 +28829,70 @@
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R157" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S157" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U157" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V157" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W157" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X157" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y157" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z157" t="n">
         <v>17</v>
       </c>
       <c r="AA157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB157" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD157" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE157" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF157" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG157" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AH157" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI157" t="n">
         <v>19</v>
       </c>
       <c r="AJ157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK157" t="n">
         <v>41</v>
@@ -28797,7 +28901,7 @@
         <v>29</v>
       </c>
       <c r="AM157" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN157" t="n">
         <v>4</v>
@@ -28818,7 +28922,7 @@
         <v>151</v>
       </c>
       <c r="AT157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU157" t="n">
         <v>8</v>
@@ -28842,7 +28946,7 @@
         <v>67</v>
       </c>
       <c r="BB157" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC157" t="n">
         <v>201</v>
@@ -28913,10 +29017,10 @@
         <v>4.5</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R158" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S158" t="n">
         <v>1.3</v>
@@ -29030,7 +29134,7 @@
         <v>151</v>
       </c>
       <c r="BD158" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="159">
@@ -29095,10 +29199,10 @@
         <v>5.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R159" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S159" t="n">
         <v>1.29</v>
@@ -29212,7 +29316,7 @@
         <v>126</v>
       </c>
       <c r="BD159" t="n">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="160">

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" t="n">
         <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="J2" t="n">
         <v>8</v>
@@ -807,10 +807,10 @@
         <v>151</v>
       </c>
       <c r="AA2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AB2" t="n">
         <v>67</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>51</v>
       </c>
       <c r="AC2" t="n">
         <v>19</v>
@@ -825,19 +825,19 @@
         <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
         <v>11</v>
@@ -876,7 +876,7 @@
         <v>501</v>
       </c>
       <c r="AX2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY2" t="n">
         <v>5.5</v>
@@ -891,7 +891,7 @@
         <v>34</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>160</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="H3" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I3" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="J3" t="n">
         <v>5</v>
@@ -971,10 +971,10 @@
         <v>3.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W3" t="n">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA3" t="n">
         <v>41</v>
@@ -998,7 +998,7 @@
         <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1016,7 +1016,7 @@
         <v>10</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK3" t="n">
         <v>15</v>
@@ -1067,7 +1067,7 @@
         <v>15</v>
       </c>
       <c r="BA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB3" t="n">
         <v>41</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2.01</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1237,7 +1237,7 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX4" t="n">
         <v>6</v>
@@ -1314,13 +1314,13 @@
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1839,13 +1839,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
         <v>3.5</v>
@@ -1881,10 +1881,10 @@
         <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>12</v>
@@ -1965,7 +1965,7 @@
         <v>41</v>
       </c>
       <c r="AW8" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX8" t="n">
         <v>4.5</v>
@@ -2403,10 +2403,10 @@
         <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
@@ -2749,22 +2749,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.06</v>
@@ -2779,16 +2779,16 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
         <v>1.95</v>
@@ -2815,7 +2815,7 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2827,13 +2827,13 @@
         <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ13" t="n">
         <v>17</v>
@@ -2866,7 +2866,7 @@
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
         <v>8.5</v>
@@ -2893,7 +2893,7 @@
         <v>126</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>151</v>
@@ -3325,10 +3325,10 @@
         <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3337,13 +3337,13 @@
         <v>3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
         <v>19</v>
@@ -3373,13 +3373,13 @@
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
         <v>8.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ16" t="n">
         <v>9</v>
@@ -3424,7 +3424,7 @@
         <v>501</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY16" t="n">
         <v>11</v>
@@ -3439,7 +3439,7 @@
         <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD16" t="n">
         <v>151</v>
@@ -3477,13 +3477,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J17" t="n">
         <v>2.75</v>
@@ -3492,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -3534,7 +3534,7 @@
         <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA17" t="n">
         <v>19</v>
@@ -3582,7 +3582,7 @@
         <v>12</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
         <v>41</v>
@@ -3609,7 +3609,7 @@
         <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
         <v>34</v>
@@ -4235,10 +4235,10 @@
         <v>3.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R21" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
         <v>1.36</v>
@@ -4534,7 +4534,7 @@
         <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23">
@@ -5315,10 +5315,10 @@
         <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.67</v>
@@ -5327,16 +5327,16 @@
         <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U27" t="n">
         <v>2.5</v>
@@ -6021,13 +6021,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
         <v>2.5</v>
@@ -6069,7 +6069,7 @@
         <v>2.2</v>
       </c>
       <c r="W31" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
@@ -6081,7 +6081,7 @@
         <v>17</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB31" t="n">
         <v>21</v>
@@ -6102,7 +6102,7 @@
         <v>151</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
         <v>21</v>
@@ -6114,7 +6114,7 @@
         <v>41</v>
       </c>
       <c r="AL31" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM31" t="n">
         <v>29</v>
@@ -6123,13 +6123,13 @@
         <v>4</v>
       </c>
       <c r="AO31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP31" t="n">
         <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR31" t="n">
         <v>41</v>
@@ -6153,16 +6153,16 @@
         <v>6</v>
       </c>
       <c r="AY31" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
         <v>23</v>
       </c>
       <c r="BA31" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB31" t="n">
         <v>67</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>81</v>
       </c>
       <c r="BC31" t="n">
         <v>151</v>
@@ -6203,46 +6203,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H32" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I32" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L32" t="n">
         <v>4.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
       </c>
       <c r="M32" t="n">
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P32" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R32" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="T32" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="U32" t="n">
         <v>1.8</v>
@@ -6251,28 +6251,28 @@
         <v>1.91</v>
       </c>
       <c r="W32" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="X32" t="n">
         <v>7.7</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z32" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AA32" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="n">
         <v>25</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="AE32" t="n">
         <v>16</v>
@@ -6281,7 +6281,7 @@
         <v>70</v>
       </c>
       <c r="AG32" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH32" t="n">
         <v>14</v>
@@ -6299,31 +6299,31 @@
         <v>45</v>
       </c>
       <c r="AM32" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO32" t="n">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="AP32" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AQ32" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AR32" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS32" t="n">
         <v>250</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="AU32" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV32" t="n">
         <v>70</v>
@@ -6332,7 +6332,7 @@
         <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AY32" t="n">
         <v>27</v>
@@ -6341,13 +6341,13 @@
         <v>32</v>
       </c>
       <c r="BA32" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB32" t="n">
         <v>200</v>
       </c>
       <c r="BC32" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6572,19 +6572,19 @@
         <v>2.82</v>
       </c>
       <c r="J34" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K34" t="n">
         <v>1.95</v>
       </c>
       <c r="L34" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="O34" t="n">
         <v>1.42</v>
@@ -6596,13 +6596,13 @@
         <v>2.2</v>
       </c>
       <c r="R34" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S34" t="n">
         <v>1.47</v>
       </c>
       <c r="T34" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="U34" t="n">
         <v>1.9</v>
@@ -6611,22 +6611,22 @@
         <v>1.72</v>
       </c>
       <c r="W34" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X34" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z34" t="n">
         <v>26</v>
       </c>
       <c r="AA34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AC34" t="n">
         <v>7.3</v>
@@ -6644,22 +6644,22 @@
         <v>900</v>
       </c>
       <c r="AH34" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI34" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK34" t="n">
         <v>35</v>
       </c>
       <c r="AL34" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AM34" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AN34" t="n">
         <v>4.2</v>
@@ -6668,10 +6668,10 @@
         <v>13.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ34" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR34" t="n">
         <v>110</v>
@@ -6693,19 +6693,19 @@
         <v>4.55</v>
       </c>
       <c r="AY34" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ34" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA34" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BB34" t="n">
         <v>120</v>
       </c>
       <c r="BC34" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD34" t="inlineStr"/>
     </row>
@@ -6765,16 +6765,16 @@
         <v>19</v>
       </c>
       <c r="O35" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R35" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="n">
         <v>1.25</v>
@@ -7299,7 +7299,7 @@
         <v>2.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L38" t="n">
         <v>4.75</v>
@@ -7338,7 +7338,7 @@
         <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y38" t="n">
         <v>8.5</v>
@@ -7386,7 +7386,7 @@
         <v>34</v>
       </c>
       <c r="AN38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO38" t="n">
         <v>8.5</v>
@@ -7425,7 +7425,7 @@
         <v>26</v>
       </c>
       <c r="BA38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="n">
         <v>81</v>
@@ -7672,7 +7672,7 @@
         <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -7833,40 +7833,40 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I41" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J41" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K41" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M41" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R41" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S41" t="n">
         <v>1.33</v>
@@ -7875,55 +7875,55 @@
         <v>3.25</v>
       </c>
       <c r="U41" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z41" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>10</v>
       </c>
       <c r="AA41" t="n">
         <v>12</v>
       </c>
       <c r="AB41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK41" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AL41" t="n">
         <v>51</v>
@@ -7932,16 +7932,16 @@
         <v>51</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO41" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP41" t="n">
         <v>19</v>
       </c>
       <c r="AQ41" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
@@ -7953,7 +7953,7 @@
         <v>3.25</v>
       </c>
       <c r="AU41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
         <v>51</v>
@@ -7962,22 +7962,22 @@
         <v>81</v>
       </c>
       <c r="AX41" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY41" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ41" t="n">
         <v>41</v>
       </c>
       <c r="BA41" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB41" t="n">
         <v>151</v>
       </c>
       <c r="BC41" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD41" t="n">
         <v>81</v>
@@ -8036,7 +8036,7 @@
         <v>1.07</v>
       </c>
       <c r="N42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O42" t="n">
         <v>1.36</v>
@@ -8045,10 +8045,10 @@
         <v>3</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R42" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S42" t="n">
         <v>1.44</v>
@@ -8569,16 +8569,16 @@
         <v>4.75</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q45" t="n">
         <v>1.98</v>
@@ -8617,10 +8617,10 @@
         <v>26</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE45" t="n">
         <v>15</v>
@@ -8632,16 +8632,16 @@
         <v>251</v>
       </c>
       <c r="AH45" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ45" t="n">
         <v>15</v>
       </c>
       <c r="AK45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
         <v>34</v>
@@ -8739,7 +8739,7 @@
         <v>4.1</v>
       </c>
       <c r="I46" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J46" t="n">
         <v>2.2</v>
@@ -8754,7 +8754,7 @@
         <v>1.06</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
         <v>1.33</v>
@@ -8763,16 +8763,16 @@
         <v>3.4</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R46" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U46" t="n">
         <v>2.05</v>
@@ -8799,10 +8799,10 @@
         <v>29</v>
       </c>
       <c r="AC46" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
         <v>21</v>
@@ -8820,7 +8820,7 @@
         <v>29</v>
       </c>
       <c r="AJ46" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK46" t="n">
         <v>67</v>
@@ -8850,7 +8850,7 @@
         <v>151</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU46" t="n">
         <v>9</v>
@@ -8862,7 +8862,7 @@
         <v>126</v>
       </c>
       <c r="AX46" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY46" t="n">
         <v>34</v>
@@ -8930,31 +8930,31 @@
         <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M47" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="R47" t="n">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="S47" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U47" t="n">
         <v>2.1</v>
@@ -8978,10 +8978,10 @@
         <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC47" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
         <v>8</v>
@@ -8990,7 +8990,7 @@
         <v>21</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG47" t="n">
         <v>501</v>
@@ -9029,10 +9029,10 @@
         <v>51</v>
       </c>
       <c r="AS47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU47" t="n">
         <v>9.5</v>
@@ -9044,10 +9044,10 @@
         <v>126</v>
       </c>
       <c r="AX47" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY47" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ47" t="n">
         <v>41</v>
@@ -9056,7 +9056,7 @@
         <v>151</v>
       </c>
       <c r="BB47" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC47" t="n">
         <v>401</v>
@@ -9103,10 +9103,10 @@
         <v>3.3</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J48" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K48" t="n">
         <v>2.05</v>
@@ -9115,10 +9115,10 @@
         <v>4.33</v>
       </c>
       <c r="M48" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O48" t="n">
         <v>1.36</v>
@@ -9154,7 +9154,7 @@
         <v>9</v>
       </c>
       <c r="Z48" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA48" t="n">
         <v>19</v>
@@ -9178,7 +9178,7 @@
         <v>351</v>
       </c>
       <c r="AH48" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI48" t="n">
         <v>17</v>
@@ -9235,7 +9235,7 @@
         <v>34</v>
       </c>
       <c r="BA48" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB48" t="n">
         <v>101</v>
@@ -9279,40 +9279,40 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H49" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="I49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J49" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L49" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="M49" t="n">
         <v>1.04</v>
       </c>
       <c r="N49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O49" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R49" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S49" t="n">
         <v>1.36</v>
@@ -9321,22 +9321,22 @@
         <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V49" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W49" t="n">
         <v>7</v>
       </c>
       <c r="X49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y49" t="n">
         <v>9</v>
       </c>
       <c r="Z49" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA49" t="n">
         <v>12</v>
@@ -9345,13 +9345,13 @@
         <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD49" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF49" t="n">
         <v>67</v>
@@ -9360,34 +9360,34 @@
         <v>351</v>
       </c>
       <c r="AH49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI49" t="n">
         <v>41</v>
       </c>
       <c r="AJ49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK49" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN49" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO49" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
       </c>
       <c r="AQ49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR49" t="n">
         <v>41</v>
@@ -9399,28 +9399,28 @@
         <v>3</v>
       </c>
       <c r="AU49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV49" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW49" t="n">
         <v>81</v>
       </c>
       <c r="AX49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ49" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA49" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB49" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC49" t="n">
         <v>351</v>
@@ -9823,19 +9823,19 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="H52" t="n">
         <v>4.75</v>
       </c>
       <c r="I52" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="J52" t="n">
         <v>8.5</v>
       </c>
       <c r="K52" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L52" t="n">
         <v>1.91</v>
@@ -9847,16 +9847,16 @@
         <v>11</v>
       </c>
       <c r="O52" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P52" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S52" t="n">
         <v>1.4</v>
@@ -9889,7 +9889,7 @@
         <v>67</v>
       </c>
       <c r="AC52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD52" t="n">
         <v>9.5</v>
@@ -9908,7 +9908,7 @@
         <v>5.5</v>
       </c>
       <c r="AJ52" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK52" t="n">
         <v>8.5</v>
@@ -9920,7 +9920,7 @@
         <v>34</v>
       </c>
       <c r="AN52" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AO52" t="n">
         <v>41</v>
@@ -9950,7 +9950,7 @@
         <v>81</v>
       </c>
       <c r="AX52" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AY52" t="n">
         <v>6.5</v>
@@ -9959,7 +9959,7 @@
         <v>21</v>
       </c>
       <c r="BA52" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BB52" t="n">
         <v>51</v>
@@ -10003,40 +10003,40 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="H53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I53" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J53" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="K53" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L53" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O53" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="n">
         <v>1.4</v>
@@ -10045,98 +10045,98 @@
         <v>2.75</v>
       </c>
       <c r="U53" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="V53" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="W53" t="n">
         <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z53" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA53" t="n">
         <v>15</v>
       </c>
       <c r="AB53" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD53" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AF53" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI53" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK53" t="n">
+        <v>351</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>201</v>
+      </c>
+      <c r="AM53" t="n">
         <v>151</v>
       </c>
-      <c r="AL53" t="n">
-        <v>101</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>101</v>
-      </c>
       <c r="AN53" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AO53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR53" t="n">
         <v>51</v>
       </c>
       <c r="AS53" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT53" t="n">
         <v>2.75</v>
       </c>
       <c r="AU53" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AV53" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AW53" t="n">
         <v>81</v>
       </c>
       <c r="AX53" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AY53" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AZ53" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA53" t="n">
         <v>351</v>
@@ -10183,19 +10183,19 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H54" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I54" t="n">
         <v>8.5</v>
       </c>
       <c r="J54" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K54" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L54" t="n">
         <v>7.5</v>
@@ -10213,22 +10213,22 @@
         <v>3.4</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R54" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S54" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U54" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V54" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W54" t="n">
         <v>6</v>
@@ -10249,13 +10249,13 @@
         <v>34</v>
       </c>
       <c r="AC54" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD54" t="n">
         <v>8</v>
       </c>
       <c r="AE54" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
         <v>81</v>
@@ -10270,7 +10270,7 @@
         <v>41</v>
       </c>
       <c r="AJ54" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK54" t="n">
         <v>101</v>
@@ -10297,16 +10297,16 @@
         <v>51</v>
       </c>
       <c r="AS54" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU54" t="n">
         <v>10</v>
       </c>
       <c r="AV54" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW54" t="n">
         <v>81</v>
@@ -10324,7 +10324,7 @@
         <v>201</v>
       </c>
       <c r="BB54" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC54" t="n">
         <v>351</v>
@@ -10383,10 +10383,10 @@
         <v>6.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.44</v>
@@ -11461,10 +11461,10 @@
         <v>3.2</v>
       </c>
       <c r="I61" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J61" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K61" t="n">
         <v>2.05</v>
@@ -11473,10 +11473,10 @@
         <v>3.2</v>
       </c>
       <c r="M61" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N61" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O61" t="n">
         <v>1.33</v>
@@ -11536,10 +11536,10 @@
         <v>301</v>
       </c>
       <c r="AH61" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI61" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ61" t="n">
         <v>10</v>
@@ -11551,7 +11551,7 @@
         <v>21</v>
       </c>
       <c r="AM61" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN61" t="n">
         <v>4.75</v>
@@ -11590,7 +11590,7 @@
         <v>15</v>
       </c>
       <c r="AZ61" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA61" t="n">
         <v>51</v>
@@ -12730,7 +12730,7 @@
         <v>1.04</v>
       </c>
       <c r="N68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O68" t="n">
         <v>1.22</v>
@@ -12739,10 +12739,10 @@
         <v>4</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R68" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S68" t="n">
         <v>1.33</v>
@@ -13619,16 +13619,16 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H73" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="I73" t="n">
         <v>8.5</v>
       </c>
       <c r="J73" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K73" t="n">
         <v>2.63</v>
@@ -13661,10 +13661,10 @@
         <v>3.5</v>
       </c>
       <c r="U73" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W73" t="n">
         <v>8</v>
@@ -13673,7 +13673,7 @@
         <v>6.5</v>
       </c>
       <c r="Y73" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z73" t="n">
         <v>8</v>
@@ -13700,19 +13700,19 @@
         <v>351</v>
       </c>
       <c r="AH73" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI73" t="n">
         <v>41</v>
       </c>
       <c r="AJ73" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL73" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM73" t="n">
         <v>51</v>
@@ -13721,7 +13721,7 @@
         <v>3.25</v>
       </c>
       <c r="AO73" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP73" t="n">
         <v>17</v>
@@ -13733,7 +13733,7 @@
         <v>41</v>
       </c>
       <c r="AS73" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT73" t="n">
         <v>3.5</v>
@@ -13760,7 +13760,7 @@
         <v>201</v>
       </c>
       <c r="BB73" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC73" t="n">
         <v>301</v>
@@ -13986,10 +13986,10 @@
         <v>1.22</v>
       </c>
       <c r="H75" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="I75" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J75" t="n">
         <v>1.62</v>
@@ -13998,7 +13998,7 @@
         <v>3</v>
       </c>
       <c r="L75" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M75" t="n">
         <v>1.01</v>
@@ -14037,7 +14037,7 @@
         <v>8</v>
       </c>
       <c r="Y75" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z75" t="n">
         <v>8.5</v>
@@ -14070,16 +14070,16 @@
         <v>51</v>
       </c>
       <c r="AJ75" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK75" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL75" t="n">
         <v>51</v>
       </c>
       <c r="AM75" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN75" t="n">
         <v>3.5</v>
@@ -14091,7 +14091,7 @@
         <v>15</v>
       </c>
       <c r="AQ75" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR75" t="n">
         <v>29</v>
@@ -14183,10 +14183,10 @@
         <v>3.6</v>
       </c>
       <c r="M76" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N76" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O76" t="n">
         <v>1.2</v>
@@ -14347,13 +14347,13 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H77" t="n">
         <v>4.33</v>
       </c>
       <c r="I77" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J77" t="n">
         <v>1.95</v>
@@ -14368,7 +14368,7 @@
         <v>1.04</v>
       </c>
       <c r="N77" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O77" t="n">
         <v>1.22</v>
@@ -14395,7 +14395,7 @@
         <v>1.83</v>
       </c>
       <c r="W77" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X77" t="n">
         <v>7</v>
@@ -14419,13 +14419,13 @@
         <v>8.5</v>
       </c>
       <c r="AE77" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF77" t="n">
         <v>51</v>
       </c>
       <c r="AG77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH77" t="n">
         <v>19</v>
@@ -14489,7 +14489,7 @@
         <v>151</v>
       </c>
       <c r="BC77" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD77" t="inlineStr"/>
     </row>
@@ -14525,28 +14525,28 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="H78" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I78" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J78" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K78" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L78" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M78" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N78" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O78" t="n">
         <v>1.25</v>
@@ -14555,16 +14555,16 @@
         <v>3.75</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="R78" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S78" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T78" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U78" t="n">
         <v>1.83</v>
@@ -14573,7 +14573,7 @@
         <v>1.83</v>
       </c>
       <c r="W78" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X78" t="n">
         <v>8</v>
@@ -14582,16 +14582,16 @@
         <v>8.5</v>
       </c>
       <c r="Z78" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA78" t="n">
         <v>13</v>
-      </c>
-      <c r="AA78" t="n">
-        <v>15</v>
       </c>
       <c r="AB78" t="n">
         <v>26</v>
       </c>
       <c r="AC78" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD78" t="n">
         <v>7</v>
@@ -14606,7 +14606,7 @@
         <v>251</v>
       </c>
       <c r="AH78" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI78" t="n">
         <v>26</v>
@@ -14624,25 +14624,25 @@
         <v>41</v>
       </c>
       <c r="AN78" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO78" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP78" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ78" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR78" t="n">
         <v>51</v>
       </c>
       <c r="AS78" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT78" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU78" t="n">
         <v>8.5</v>
@@ -14661,7 +14661,7 @@
         <v>34</v>
       </c>
       <c r="BA78" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB78" t="n">
         <v>101</v>
@@ -14703,16 +14703,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H79" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I79" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J79" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K79" t="n">
         <v>2.6</v>
@@ -14733,10 +14733,10 @@
         <v>4.33</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R79" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S79" t="n">
         <v>1.33</v>
@@ -14745,22 +14745,22 @@
         <v>3.25</v>
       </c>
       <c r="U79" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V79" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W79" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X79" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y79" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z79" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA79" t="n">
         <v>12</v>
@@ -14775,7 +14775,7 @@
         <v>11</v>
       </c>
       <c r="AE79" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF79" t="n">
         <v>81</v>
@@ -14784,22 +14784,22 @@
         <v>301</v>
       </c>
       <c r="AH79" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI79" t="n">
         <v>51</v>
       </c>
       <c r="AJ79" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK79" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL79" t="n">
         <v>81</v>
       </c>
       <c r="AM79" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN79" t="n">
         <v>3.1</v>
@@ -14881,16 +14881,16 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H80" t="n">
         <v>3.4</v>
       </c>
       <c r="I80" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="J80" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K80" t="n">
         <v>2.25</v>
@@ -14932,7 +14932,7 @@
         <v>10</v>
       </c>
       <c r="X80" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y80" t="n">
         <v>10</v>
@@ -14962,7 +14962,7 @@
         <v>151</v>
       </c>
       <c r="AH80" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI80" t="n">
         <v>15</v>
@@ -14974,7 +14974,7 @@
         <v>26</v>
       </c>
       <c r="AL80" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM80" t="n">
         <v>26</v>
@@ -15013,7 +15013,7 @@
         <v>4.75</v>
       </c>
       <c r="AY80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ80" t="n">
         <v>21</v>
@@ -15061,10 +15061,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="H81" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I81" t="n">
         <v>3.9</v>
@@ -15082,7 +15082,7 @@
         <v>1.14</v>
       </c>
       <c r="N81" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="O81" t="n">
         <v>1.53</v>
@@ -15097,10 +15097,10 @@
         <v>1.45</v>
       </c>
       <c r="S81" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="T81" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="U81" t="n">
         <v>2</v>
@@ -15115,7 +15115,7 @@
         <v>10.25</v>
       </c>
       <c r="Y81" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z81" t="n">
         <v>25</v>
@@ -15124,16 +15124,16 @@
         <v>23</v>
       </c>
       <c r="AB81" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC81" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD81" t="n">
         <v>5.1</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF81" t="n">
         <v>90</v>
@@ -15163,7 +15163,7 @@
         <v>4.05</v>
       </c>
       <c r="AO81" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP81" t="n">
         <v>22</v>
@@ -15239,28 +15239,28 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H82" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I82" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="J82" t="n">
         <v>5.2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L82" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="M82" t="n">
         <v>1.09</v>
       </c>
       <c r="N82" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="O82" t="n">
         <v>1.42</v>
@@ -15275,46 +15275,46 @@
         <v>1.6</v>
       </c>
       <c r="S82" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="T82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="U82" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="V82" t="n">
         <v>1.7</v>
       </c>
       <c r="W82" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X82" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Y82" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z82" t="n">
         <v>100</v>
       </c>
       <c r="AA82" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB82" t="n">
         <v>60</v>
       </c>
-      <c r="AB82" t="n">
-        <v>65</v>
-      </c>
       <c r="AC82" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AD82" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE82" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AF82" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG82" t="n">
         <v>101</v>
@@ -15323,13 +15323,13 @@
         <v>5.5</v>
       </c>
       <c r="AI82" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AJ82" t="n">
         <v>8.5</v>
       </c>
       <c r="AK82" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AL82" t="n">
         <v>16</v>
@@ -15341,10 +15341,10 @@
         <v>6.5</v>
       </c>
       <c r="AO82" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AP82" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AQ82" t="n">
         <v>200</v>
@@ -15356,29 +15356,29 @@
         <v>500</v>
       </c>
       <c r="AT82" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AU82" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AV82" t="n">
         <v>80</v>
       </c>
       <c r="AW82" t="inlineStr"/>
       <c r="AX82" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AY82" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AZ82" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA82" t="n">
         <v>32</v>
       </c>
       <c r="BB82" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BC82" t="n">
         <v>300</v>
@@ -15595,13 +15595,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H84" t="n">
         <v>3.9</v>
       </c>
       <c r="I84" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J84" t="n">
         <v>5</v>
@@ -15613,10 +15613,10 @@
         <v>2.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.36</v>
@@ -15661,10 +15661,10 @@
         <v>41</v>
       </c>
       <c r="AC84" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD84" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE84" t="n">
         <v>19</v>
@@ -15688,7 +15688,7 @@
         <v>15</v>
       </c>
       <c r="AL84" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM84" t="n">
         <v>29</v>
@@ -15730,7 +15730,7 @@
         <v>10</v>
       </c>
       <c r="AZ84" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA84" t="n">
         <v>34</v>
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="H85" t="n">
         <v>4.35</v>
@@ -15786,25 +15786,21 @@
         <v>1.39</v>
       </c>
       <c r="J85" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="K85" t="n">
         <v>2.37</v>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="M85" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N85" t="n">
-        <v>11.8</v>
-      </c>
+        <v>1.85</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="n">
         <v>1.17</v>
       </c>
       <c r="P85" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="Q85" t="n">
         <v>1.6</v>
@@ -15813,16 +15809,16 @@
         <v>2.07</v>
       </c>
       <c r="S85" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T85" t="n">
-        <v>3.2</v>
+        <v>3.26</v>
       </c>
       <c r="U85" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V85" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="W85" t="n">
         <v>15</v>
@@ -15834,7 +15830,7 @@
         <v>16.5</v>
       </c>
       <c r="Z85" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AA85" t="n">
         <v>50</v>
@@ -15846,7 +15842,7 @@
         <v>13</v>
       </c>
       <c r="AD85" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AE85" t="n">
         <v>15</v>
@@ -15867,19 +15863,19 @@
         <v>7.1</v>
       </c>
       <c r="AK85" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AL85" t="n">
         <v>9.25</v>
       </c>
       <c r="AM85" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN85" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AO85" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP85" t="n">
         <v>37</v>
@@ -15894,10 +15890,10 @@
         <v>500</v>
       </c>
       <c r="AT85" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AU85" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV85" t="n">
         <v>75</v>
@@ -15910,7 +15906,7 @@
         <v>6.3</v>
       </c>
       <c r="AZ85" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="BA85" t="n">
         <v>17.5</v>
@@ -16137,13 +16133,13 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H87" t="n">
         <v>3.6</v>
       </c>
       <c r="I87" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="J87" t="n">
         <v>4</v>
@@ -16152,7 +16148,7 @@
         <v>2.3</v>
       </c>
       <c r="L87" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M87" t="n">
         <v>1.04</v>
@@ -16179,10 +16175,10 @@
         <v>3.25</v>
       </c>
       <c r="U87" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V87" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W87" t="n">
         <v>13</v>
@@ -16209,7 +16205,7 @@
         <v>7</v>
       </c>
       <c r="AE87" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF87" t="n">
         <v>41</v>
@@ -16218,13 +16214,13 @@
         <v>151</v>
       </c>
       <c r="AH87" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI87" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ87" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK87" t="n">
         <v>17</v>
@@ -16236,7 +16232,7 @@
         <v>21</v>
       </c>
       <c r="AN87" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO87" t="n">
         <v>19</v>
@@ -16266,7 +16262,7 @@
         <v>81</v>
       </c>
       <c r="AX87" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AY87" t="n">
         <v>10</v>
@@ -16501,28 +16497,28 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="H89" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I89" t="n">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="J89" t="n">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="K89" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="M89" t="n">
         <v>1.03</v>
       </c>
       <c r="N89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O89" t="n">
         <v>1.18</v>
@@ -16531,10 +16527,10 @@
         <v>4.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R89" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S89" t="n">
         <v>1.3</v>
@@ -16543,73 +16539,73 @@
         <v>3.4</v>
       </c>
       <c r="U89" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W89" t="n">
+        <v>9</v>
+      </c>
+      <c r="X89" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X89" t="n">
-        <v>11</v>
       </c>
       <c r="Y89" t="n">
         <v>8.5</v>
       </c>
       <c r="Z89" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA89" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB89" t="n">
         <v>21</v>
       </c>
       <c r="AC89" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE89" t="n">
         <v>15</v>
       </c>
-      <c r="AD89" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE89" t="n">
-        <v>13</v>
-      </c>
       <c r="AF89" t="n">
         <v>41</v>
       </c>
       <c r="AG89" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH89" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI89" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AJ89" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK89" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL89" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM89" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN89" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO89" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AP89" t="n">
         <v>17</v>
       </c>
       <c r="AQ89" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR89" t="n">
         <v>41</v>
@@ -16630,22 +16626,22 @@
         <v>351</v>
       </c>
       <c r="AX89" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY89" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ89" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA89" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB89" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC89" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD89" t="n">
         <v>81</v>
@@ -16883,10 +16879,10 @@
         <v>2.3</v>
       </c>
       <c r="M91" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N91" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O91" t="n">
         <v>1.4</v>
@@ -16895,10 +16891,10 @@
         <v>2.75</v>
       </c>
       <c r="Q91" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R91" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S91" t="n">
         <v>1.44</v>
@@ -17061,10 +17057,10 @@
         <v>2.2</v>
       </c>
       <c r="M92" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N92" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O92" t="n">
         <v>1.33</v>
@@ -17420,7 +17416,7 @@
         <v>1.04</v>
       </c>
       <c r="N94" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O94" t="n">
         <v>1.22</v>
@@ -17429,10 +17425,10 @@
         <v>4</v>
       </c>
       <c r="Q94" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R94" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S94" t="n">
         <v>1.33</v>
@@ -17773,22 +17769,22 @@
         <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O96" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P96" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R96" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S96" t="n">
         <v>1.33</v>
@@ -19017,61 +19013,61 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H103" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I103" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J103" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K103" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N103" t="n">
+        <v>8</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
         <v>2.1</v>
       </c>
-      <c r="M103" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N103" t="n">
-        <v>10</v>
-      </c>
-      <c r="O103" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P103" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q103" t="n">
-        <v>1.9</v>
-      </c>
       <c r="R103" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="S103" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U103" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="V103" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W103" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X103" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z103" t="n">
         <v>67</v>
@@ -19083,37 +19079,37 @@
         <v>51</v>
       </c>
       <c r="AC103" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AD103" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE103" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG103" t="n">
         <v>351</v>
       </c>
       <c r="AH103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI103" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI103" t="n">
-        <v>7</v>
-      </c>
       <c r="AJ103" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK103" t="n">
         <v>11</v>
       </c>
       <c r="AL103" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM103" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN103" t="n">
         <v>7.5</v>
@@ -19131,35 +19127,35 @@
         <v>151</v>
       </c>
       <c r="AS103" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT103" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU103" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV103" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW103" t="inlineStr"/>
       <c r="AX103" t="n">
         <v>3.4</v>
       </c>
       <c r="AY103" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AZ103" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA103" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BB103" t="n">
         <v>51</v>
       </c>
       <c r="BC103" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD103" t="inlineStr"/>
     </row>
@@ -19395,13 +19391,13 @@
         <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N105" t="n">
         <v>10</v>
       </c>
       <c r="O105" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P105" t="n">
         <v>3.25</v>
@@ -19422,7 +19418,7 @@
         <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="W105" t="n">
         <v>6</v>
@@ -19455,7 +19451,7 @@
         <v>67</v>
       </c>
       <c r="AG105" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH105" t="n">
         <v>10</v>
@@ -19573,13 +19569,13 @@
         <v>6</v>
       </c>
       <c r="M106" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N106" t="n">
         <v>9</v>
       </c>
       <c r="O106" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P106" t="n">
         <v>3.25</v>
@@ -19600,7 +19596,7 @@
         <v>2.1</v>
       </c>
       <c r="V106" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W106" t="n">
         <v>6</v>
@@ -19751,13 +19747,13 @@
         <v>4.33</v>
       </c>
       <c r="M107" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N107" t="n">
         <v>11</v>
       </c>
       <c r="O107" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P107" t="n">
         <v>3.5</v>
@@ -19775,7 +19771,7 @@
         <v>2.75</v>
       </c>
       <c r="U107" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V107" t="n">
         <v>2</v>
@@ -19933,22 +19929,22 @@
         <v>6.5</v>
       </c>
       <c r="M108" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N108" t="n">
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P108" t="n">
         <v>3.4</v>
       </c>
       <c r="Q108" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R108" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S108" t="n">
         <v>1.4</v>
@@ -19960,7 +19956,7 @@
         <v>2.1</v>
       </c>
       <c r="V108" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W108" t="n">
         <v>6</v>
@@ -20115,13 +20111,13 @@
         <v>3.75</v>
       </c>
       <c r="M109" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N109" t="n">
         <v>8</v>
       </c>
       <c r="O109" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P109" t="n">
         <v>3</v>
@@ -20297,13 +20293,13 @@
         <v>4</v>
       </c>
       <c r="M110" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N110" t="n">
         <v>10</v>
       </c>
       <c r="O110" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P110" t="n">
         <v>3.5</v>
@@ -20479,13 +20475,13 @@
         <v>3.1</v>
       </c>
       <c r="M111" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N111" t="n">
         <v>11</v>
       </c>
       <c r="O111" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P111" t="n">
         <v>3.5</v>
@@ -20661,13 +20657,13 @@
         <v>8</v>
       </c>
       <c r="M112" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N112" t="n">
         <v>12</v>
       </c>
       <c r="O112" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -20825,13 +20821,13 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H113" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I113" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J113" t="n">
         <v>2.1</v>
@@ -20843,13 +20839,13 @@
         <v>6</v>
       </c>
       <c r="M113" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N113" t="n">
         <v>11</v>
       </c>
       <c r="O113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P113" t="n">
         <v>3.75</v>
@@ -20873,7 +20869,7 @@
         <v>1.8</v>
       </c>
       <c r="W113" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X113" t="n">
         <v>7</v>
@@ -20891,10 +20887,10 @@
         <v>29</v>
       </c>
       <c r="AC113" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD113" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE113" t="n">
         <v>17</v>
@@ -20903,7 +20899,7 @@
         <v>51</v>
       </c>
       <c r="AG113" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH113" t="n">
         <v>17</v>
@@ -20924,10 +20920,10 @@
         <v>51</v>
       </c>
       <c r="AN113" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO113" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP113" t="n">
         <v>21</v>
@@ -20948,7 +20944,7 @@
         <v>9</v>
       </c>
       <c r="AV113" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW113" t="n">
         <v>81</v>
@@ -21025,13 +21021,13 @@
         <v>7.5</v>
       </c>
       <c r="M114" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N114" t="n">
         <v>13</v>
       </c>
       <c r="O114" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P114" t="n">
         <v>3.75</v>
@@ -21189,31 +21185,31 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H115" t="n">
         <v>2.9</v>
       </c>
       <c r="I115" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J115" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K115" t="n">
         <v>1.91</v>
       </c>
       <c r="L115" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M115" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N115" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O115" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P115" t="n">
         <v>2.5</v>
@@ -21240,7 +21236,7 @@
         <v>6</v>
       </c>
       <c r="X115" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y115" t="n">
         <v>10</v>
@@ -21270,7 +21266,7 @@
         <v>351</v>
       </c>
       <c r="AH115" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI115" t="n">
         <v>15</v>
@@ -21279,7 +21275,7 @@
         <v>13</v>
       </c>
       <c r="AK115" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL115" t="n">
         <v>34</v>
@@ -21288,10 +21284,10 @@
         <v>41</v>
       </c>
       <c r="AN115" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP115" t="n">
         <v>29</v>
@@ -21309,7 +21305,7 @@
         <v>2.25</v>
       </c>
       <c r="AU115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV115" t="n">
         <v>81</v>
@@ -21327,7 +21323,7 @@
         <v>34</v>
       </c>
       <c r="BA115" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB115" t="n">
         <v>126</v>
@@ -21389,13 +21385,13 @@
         <v>4</v>
       </c>
       <c r="M116" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
         <v>8.5</v>
       </c>
       <c r="O116" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P116" t="n">
         <v>3.75</v>
@@ -21571,13 +21567,13 @@
         <v>3</v>
       </c>
       <c r="M117" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N117" t="n">
         <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P117" t="n">
         <v>3.4</v>
@@ -21735,7 +21731,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H118" t="n">
         <v>6.5</v>
@@ -21744,22 +21740,22 @@
         <v>10</v>
       </c>
       <c r="J118" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K118" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L118" t="n">
         <v>9</v>
       </c>
       <c r="M118" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N118" t="n">
         <v>11</v>
       </c>
       <c r="O118" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P118" t="n">
         <v>5</v>
@@ -21783,7 +21779,7 @@
         <v>1.67</v>
       </c>
       <c r="W118" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X118" t="n">
         <v>6.5</v>
@@ -21813,10 +21809,10 @@
         <v>67</v>
       </c>
       <c r="AG118" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH118" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI118" t="n">
         <v>51</v>
@@ -21843,10 +21839,10 @@
         <v>17</v>
       </c>
       <c r="AQ118" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS118" t="n">
         <v>126</v>
@@ -21926,7 +21922,7 @@
         <v>4.35</v>
       </c>
       <c r="J119" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="K119" t="n">
         <v>2.07</v>
@@ -21953,10 +21949,10 @@
         <v>1.65</v>
       </c>
       <c r="S119" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="T119" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="U119" t="n">
         <v>2</v>
@@ -21965,28 +21961,28 @@
         <v>1.72</v>
       </c>
       <c r="W119" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="X119" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="Y119" t="n">
         <v>8.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA119" t="n">
         <v>16</v>
       </c>
       <c r="AB119" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC119" t="n">
         <v>6.3</v>
       </c>
       <c r="AD119" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE119" t="n">
         <v>17.5</v>
@@ -21998,7 +21994,7 @@
         <v>1000</v>
       </c>
       <c r="AH119" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AI119" t="n">
         <v>24</v>
@@ -22013,7 +22009,7 @@
         <v>50</v>
       </c>
       <c r="AM119" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN119" t="n">
         <v>3.55</v>
@@ -22022,25 +22018,25 @@
         <v>9</v>
       </c>
       <c r="AP119" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AQ119" t="n">
         <v>32</v>
       </c>
       <c r="AR119" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AS119" t="n">
         <v>300</v>
       </c>
       <c r="AT119" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="AU119" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AV119" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW119" t="n">
         <v>51</v>
@@ -22055,7 +22051,7 @@
         <v>32</v>
       </c>
       <c r="BA119" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BB119" t="n">
         <v>200</v>
@@ -22463,13 +22459,13 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.33</v>
+        <v>4.1</v>
       </c>
       <c r="H122" t="n">
         <v>4.75</v>
       </c>
       <c r="I122" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="J122" t="n">
         <v>4.33</v>
@@ -22481,13 +22477,13 @@
         <v>1.95</v>
       </c>
       <c r="M122" t="n">
+        <v>34</v>
+      </c>
+      <c r="N122" t="n">
         <v>1.01</v>
       </c>
-      <c r="N122" t="n">
-        <v>34</v>
-      </c>
       <c r="O122" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="P122" t="n">
         <v>11</v>
@@ -22517,7 +22513,7 @@
         <v>41</v>
       </c>
       <c r="Y122" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z122" t="n">
         <v>51</v>
@@ -22535,7 +22531,7 @@
         <v>13</v>
       </c>
       <c r="AE122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF122" t="n">
         <v>23</v>
@@ -22550,7 +22546,7 @@
         <v>17</v>
       </c>
       <c r="AJ122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK122" t="n">
         <v>17</v>
@@ -22559,7 +22555,7 @@
         <v>11</v>
       </c>
       <c r="AM122" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AN122" t="n">
         <v>8</v>
@@ -22595,13 +22591,13 @@
         <v>4.75</v>
       </c>
       <c r="AY122" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ122" t="n">
         <v>11</v>
       </c>
       <c r="BA122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB122" t="n">
         <v>23</v>
@@ -22643,46 +22639,46 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H123" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="I123" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J123" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K123" t="n">
         <v>2.15</v>
       </c>
-      <c r="K123" t="n">
-        <v>2.22</v>
-      </c>
       <c r="L123" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="M123" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O123" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P123" t="n">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="Q123" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="R123" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S123" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T123" t="n">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="U123" t="n">
         <v>1.82</v>
@@ -22691,31 +22687,31 @@
         <v>1.88</v>
       </c>
       <c r="W123" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="X123" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="Y123" t="n">
         <v>8.75</v>
       </c>
       <c r="Z123" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA123" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AB123" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD123" t="n">
-        <v>8.25</v>
+        <v>7.7</v>
       </c>
       <c r="AE123" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF123" t="n">
         <v>80</v>
@@ -22724,46 +22720,46 @@
         <v>700</v>
       </c>
       <c r="AH123" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI123" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AJ123" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK123" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL123" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM123" t="n">
         <v>55</v>
       </c>
       <c r="AN123" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AO123" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AP123" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ123" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AR123" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AS123" t="n">
         <v>250</v>
       </c>
       <c r="AT123" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="AU123" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AV123" t="n">
         <v>75</v>
@@ -22772,13 +22768,13 @@
         <v>51</v>
       </c>
       <c r="AX123" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AY123" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AZ123" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BA123" t="n">
         <v>175</v>
@@ -22837,7 +22833,7 @@
         <v>5.1</v>
       </c>
       <c r="K124" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L124" t="n">
         <v>2.25</v>
@@ -22858,13 +22854,13 @@
         <v>1.91</v>
       </c>
       <c r="R124" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="S124" t="n">
         <v>1.42</v>
       </c>
       <c r="T124" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U124" t="n">
         <v>1.9</v>
@@ -22906,7 +22902,7 @@
         <v>700</v>
       </c>
       <c r="AH124" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AI124" t="n">
         <v>7.4</v>
@@ -22927,7 +22923,7 @@
         <v>6.4</v>
       </c>
       <c r="AO124" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AP124" t="n">
         <v>35</v>
@@ -22936,16 +22932,16 @@
         <v>175</v>
       </c>
       <c r="AR124" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AS124" t="n">
         <v>500</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU124" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV124" t="n">
         <v>80</v>
@@ -22960,13 +22956,13 @@
         <v>8.25</v>
       </c>
       <c r="AZ124" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="BA124" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB124" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC124" t="n">
         <v>300</v>
@@ -23007,115 +23003,115 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="H125" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="I125" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="J125" t="n">
-        <v>6.7</v>
+        <v>6.2</v>
       </c>
       <c r="K125" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L125" t="n">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N125" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="O125" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P125" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="Q125" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R125" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S125" t="n">
         <v>1.4</v>
       </c>
       <c r="T125" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U125" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V125" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W125" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="X125" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Y125" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z125" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AA125" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AB125" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AC125" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD125" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE125" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF125" t="n">
         <v>110</v>
       </c>
       <c r="AG125" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AH125" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AI125" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AJ125" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK125" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AL125" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM125" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN125" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO125" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP125" t="n">
         <v>45</v>
       </c>
-      <c r="AP125" t="n">
-        <v>50</v>
-      </c>
       <c r="AQ125" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AR125" t="n">
         <v>350</v>
@@ -23124,7 +23120,7 @@
         <v>500</v>
       </c>
       <c r="AT125" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU125" t="n">
         <v>8.75</v>
@@ -23136,19 +23132,19 @@
         <v>51</v>
       </c>
       <c r="AX125" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AY125" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="AZ125" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="BA125" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB125" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BC125" t="n">
         <v>300</v>
@@ -23189,7 +23185,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H126" t="n">
         <v>3.2</v>
@@ -23249,7 +23245,7 @@
         <v>23</v>
       </c>
       <c r="AA126" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB126" t="n">
         <v>29</v>
@@ -23258,7 +23254,7 @@
         <v>9.5</v>
       </c>
       <c r="AD126" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE126" t="n">
         <v>15</v>
@@ -23318,7 +23314,7 @@
         <v>51</v>
       </c>
       <c r="AX126" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY126" t="n">
         <v>17</v>
@@ -24116,7 +24112,7 @@
         <v>1.07</v>
       </c>
       <c r="N131" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O131" t="n">
         <v>1.33</v>
@@ -24657,10 +24653,10 @@
         <v>4.5</v>
       </c>
       <c r="M134" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N134" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O134" t="n">
         <v>1.5</v>
@@ -24819,16 +24815,16 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I135" t="n">
-        <v>7</v>
+        <v>6.25</v>
       </c>
       <c r="J135" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K135" t="n">
         <v>2.25</v>
@@ -24861,10 +24857,10 @@
         <v>2.75</v>
       </c>
       <c r="U135" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V135" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W135" t="n">
         <v>6.5</v>
@@ -24897,7 +24893,7 @@
         <v>51</v>
       </c>
       <c r="AG135" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH135" t="n">
         <v>15</v>
@@ -24906,7 +24902,7 @@
         <v>34</v>
       </c>
       <c r="AJ135" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK135" t="n">
         <v>67</v>
@@ -24927,7 +24923,7 @@
         <v>21</v>
       </c>
       <c r="AQ135" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR135" t="n">
         <v>51</v>
@@ -24948,7 +24944,7 @@
         <v>151</v>
       </c>
       <c r="AX135" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY135" t="n">
         <v>34</v>
@@ -25043,10 +25039,10 @@
         <v>3.25</v>
       </c>
       <c r="U136" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V136" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W136" t="n">
         <v>7.5</v>
@@ -25183,40 +25179,40 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H137" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I137" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="J137" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K137" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L137" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M137" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O137" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R137" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S137" t="n">
         <v>1.5</v>
@@ -25225,34 +25221,34 @@
         <v>2.5</v>
       </c>
       <c r="U137" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V137" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W137" t="n">
         <v>7</v>
       </c>
       <c r="X137" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y137" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z137" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB137" t="n">
         <v>34</v>
       </c>
       <c r="AC137" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD137" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE137" t="n">
         <v>17</v>
@@ -25264,37 +25260,37 @@
         <v>351</v>
       </c>
       <c r="AH137" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI137" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ137" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK137" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL137" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM137" t="n">
         <v>41</v>
       </c>
       <c r="AN137" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO137" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP137" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ137" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR137" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS137" t="n">
         <v>201</v>
@@ -25312,19 +25308,19 @@
         <v>126</v>
       </c>
       <c r="AX137" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY137" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ137" t="n">
         <v>29</v>
       </c>
       <c r="BA137" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB137" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC137" t="n">
         <v>251</v>
@@ -25407,7 +25403,7 @@
         <v>2.75</v>
       </c>
       <c r="U138" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V138" t="n">
         <v>2</v>
@@ -25753,10 +25749,10 @@
         <v>17</v>
       </c>
       <c r="O140" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P140" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q140" t="n">
         <v>1.53</v>
@@ -26805,19 +26801,19 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H146" t="n">
         <v>3.4</v>
       </c>
       <c r="I146" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J146" t="n">
         <v>3.4</v>
       </c>
       <c r="K146" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L146" t="n">
         <v>3</v>
@@ -26826,7 +26822,7 @@
         <v>1.04</v>
       </c>
       <c r="N146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O146" t="n">
         <v>1.22</v>
@@ -26835,10 +26831,10 @@
         <v>4</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R146" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S146" t="n">
         <v>1.36</v>
@@ -26877,7 +26873,7 @@
         <v>6.5</v>
       </c>
       <c r="AE146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF146" t="n">
         <v>41</v>
@@ -26886,7 +26882,7 @@
         <v>151</v>
       </c>
       <c r="AH146" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI146" t="n">
         <v>13</v>
@@ -26901,7 +26897,7 @@
         <v>19</v>
       </c>
       <c r="AM146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN146" t="n">
         <v>5</v>
@@ -26910,7 +26906,7 @@
         <v>15</v>
       </c>
       <c r="AP146" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ146" t="n">
         <v>51</v>
@@ -26987,22 +26983,22 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="H147" t="n">
         <v>3.5</v>
       </c>
       <c r="I147" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="J147" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L147" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M147" t="n">
         <v>1.07</v>
@@ -27044,7 +27040,7 @@
         <v>9</v>
       </c>
       <c r="Z147" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA147" t="n">
         <v>17</v>
@@ -27056,7 +27052,7 @@
         <v>9</v>
       </c>
       <c r="AD147" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE147" t="n">
         <v>17</v>
@@ -27068,7 +27064,7 @@
         <v>351</v>
       </c>
       <c r="AH147" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI147" t="n">
         <v>19</v>
@@ -27116,7 +27112,7 @@
         <v>276</v>
       </c>
       <c r="AX147" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY147" t="n">
         <v>23</v>
@@ -27199,10 +27195,10 @@
         <v>3.75</v>
       </c>
       <c r="Q148" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R148" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S148" t="n">
         <v>1.4</v>
@@ -27351,28 +27347,28 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H149" t="n">
         <v>4.33</v>
       </c>
       <c r="I149" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J149" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K149" t="n">
         <v>2.4</v>
       </c>
       <c r="L149" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M149" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O149" t="n">
         <v>1.2</v>
@@ -27402,7 +27398,7 @@
         <v>8</v>
       </c>
       <c r="X149" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y149" t="n">
         <v>8.5</v>
@@ -27438,7 +27434,7 @@
         <v>34</v>
       </c>
       <c r="AJ149" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK149" t="n">
         <v>67</v>
@@ -27450,7 +27446,7 @@
         <v>41</v>
       </c>
       <c r="AN149" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO149" t="n">
         <v>7.5</v>
@@ -27465,7 +27461,7 @@
         <v>41</v>
       </c>
       <c r="AS149" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT149" t="n">
         <v>3.4</v>
@@ -27492,7 +27488,7 @@
         <v>101</v>
       </c>
       <c r="BB149" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC149" t="n">
         <v>201</v>
@@ -27733,10 +27729,10 @@
         <v>2.63</v>
       </c>
       <c r="M151" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N151" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O151" t="n">
         <v>1.29</v>
@@ -28273,10 +28269,10 @@
         <v>4.8</v>
       </c>
       <c r="K154" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L154" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="M154" t="n">
         <v>1.1</v>
@@ -28288,10 +28284,10 @@
         <v>1.47</v>
       </c>
       <c r="P154" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q154" t="n">
         <v>2.35</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>2.32</v>
       </c>
       <c r="R154" t="n">
         <v>1.47</v>
@@ -28300,7 +28296,7 @@
         <v>1.5</v>
       </c>
       <c r="T154" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="U154" t="n">
         <v>2.15</v>
@@ -28318,7 +28314,7 @@
         <v>15.5</v>
       </c>
       <c r="Z154" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA154" t="n">
         <v>55</v>
@@ -28327,13 +28323,13 @@
         <v>75</v>
       </c>
       <c r="AC154" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AD154" t="n">
         <v>6.5</v>
       </c>
       <c r="AE154" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF154" t="n">
         <v>150</v>
@@ -28354,7 +28350,7 @@
         <v>14.5</v>
       </c>
       <c r="AL154" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM154" t="n">
         <v>45</v>
@@ -28381,7 +28377,7 @@
         <v>2.22</v>
       </c>
       <c r="AU154" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV154" t="n">
         <v>110</v>
@@ -28393,10 +28389,10 @@
         <v>3.45</v>
       </c>
       <c r="AY154" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AZ154" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA154" t="n">
         <v>37</v>
@@ -28405,7 +28401,7 @@
         <v>90</v>
       </c>
       <c r="BC154" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BD154" t="n">
         <v>81</v>
@@ -28443,46 +28439,46 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I155" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J155" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="K155" t="n">
         <v>2.07</v>
       </c>
       <c r="L155" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="M155" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N155" t="n">
-        <v>9.050000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O155" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="P155" t="n">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="Q155" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R155" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S155" t="n">
         <v>1.42</v>
       </c>
       <c r="T155" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="U155" t="n">
         <v>1.88</v>
@@ -28491,28 +28487,28 @@
         <v>1.72</v>
       </c>
       <c r="W155" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X155" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y155" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z155" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AA155" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AB155" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC155" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD155" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE155" t="n">
         <v>17</v>
@@ -28524,64 +28520,64 @@
         <v>900</v>
       </c>
       <c r="AH155" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AI155" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ155" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK155" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AL155" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM155" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN155" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO155" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AP155" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AQ155" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR155" t="n">
         <v>150</v>
       </c>
       <c r="AS155" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT155" t="n">
         <v>2.42</v>
       </c>
       <c r="AU155" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AV155" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AW155" t="n">
         <v>81</v>
       </c>
       <c r="AX155" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AY155" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AZ155" t="n">
         <v>21</v>
       </c>
       <c r="BA155" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="BB155" t="n">
         <v>80</v>
@@ -28628,43 +28624,43 @@
         <v>1.45</v>
       </c>
       <c r="H156" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I156" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K156" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L156" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="M156" t="n">
         <v>1.08</v>
       </c>
       <c r="N156" t="n">
-        <v>7.85</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="O156" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P156" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="Q156" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R156" t="n">
         <v>1.53</v>
       </c>
       <c r="S156" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="T156" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="U156" t="n">
         <v>2.4</v>
@@ -28673,7 +28669,7 @@
         <v>1.44</v>
       </c>
       <c r="W156" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="X156" t="n">
         <v>5.4</v>
@@ -28691,23 +28687,23 @@
         <v>45</v>
       </c>
       <c r="AC156" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AD156" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE156" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AF156" t="n">
         <v>200</v>
       </c>
       <c r="AG156" t="inlineStr"/>
       <c r="AH156" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AI156" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ156" t="n">
         <v>27</v>
@@ -28725,25 +28721,25 @@
         <v>3</v>
       </c>
       <c r="AO156" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AP156" t="n">
         <v>22</v>
       </c>
       <c r="AQ156" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR156" t="n">
         <v>70</v>
       </c>
       <c r="AS156" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT156" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="AU156" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV156" t="n">
         <v>120</v>
@@ -28829,16 +28825,16 @@
         <v>11</v>
       </c>
       <c r="O157" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P157" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q157" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R157" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S157" t="n">
         <v>1.4</v>
@@ -29199,16 +29195,16 @@
         <v>5.5</v>
       </c>
       <c r="Q159" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R159" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S159" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T159" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U159" t="n">
         <v>1.53</v>
@@ -29241,19 +29237,19 @@
         <v>8</v>
       </c>
       <c r="AE159" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF159" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG159" t="n">
         <v>126</v>
       </c>
       <c r="AH159" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI159" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ159" t="n">
         <v>15</v>
@@ -29286,7 +29282,7 @@
         <v>81</v>
       </c>
       <c r="AT159" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU159" t="n">
         <v>7.5</v>
@@ -29301,7 +29297,7 @@
         <v>6.5</v>
       </c>
       <c r="AY159" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ159" t="n">
         <v>23</v>
@@ -29316,7 +29312,7 @@
         <v>126</v>
       </c>
       <c r="BD159" t="n">
-        <v>176</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160">
@@ -29369,7 +29365,7 @@
         <v>5.5</v>
       </c>
       <c r="M160" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N160" t="n">
         <v>5.6</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -762,7 +762,7 @@
         <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
         <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -980,10 +980,10 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
         <v>23</v>
@@ -1010,10 +1010,10 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>11</v>
@@ -1028,22 +1028,22 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
       </c>
       <c r="AS3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT3" t="n">
         <v>2.63</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
@@ -1314,7 +1314,7 @@
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.3</v>
@@ -1326,7 +1326,7 @@
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1344,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1362,7 +1362,7 @@
         <v>9.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1389,7 +1389,7 @@
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4.5</v>
@@ -1437,7 +1437,7 @@
         <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
@@ -1499,16 +1499,16 @@
         <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,31 +1517,31 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X6" t="n">
         <v>7.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
         <v>7</v>
@@ -1550,16 +1550,16 @@
         <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
         <v>15</v>
@@ -1577,25 +1577,25 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT6" t="n">
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1607,10 +1607,10 @@
         <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -977,22 +977,22 @@
         <v>1.91</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>21</v>
-      </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC3" t="n">
         <v>9</v>
@@ -1010,37 +1010,37 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ3" t="n">
         <v>51</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1058,10 +1058,10 @@
         <v>51</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>26</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD6"/>
+  <dimension ref="A1:BD5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>2.88</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
         <v>2.25</v>
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -813,7 +813,7 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
         <v>7.5</v>
@@ -822,7 +822,7 @@
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK2" t="n">
         <v>21</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.1</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -944,13 +944,13 @@
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -986,10 +986,10 @@
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,10 +1010,10 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
@@ -1028,7 +1028,7 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1129,10 +1129,10 @@
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1165,25 +1165,25 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1213,16 +1213,16 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
@@ -1243,7 +1243,7 @@
         <v>5</v>
       </c>
       <c r="AY4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ4" t="n">
         <v>26</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,16 +1311,16 @@
         <v>3.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
@@ -1344,7 +1344,7 @@
         <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
@@ -1356,10 +1356,10 @@
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1398,7 +1398,7 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>51</v>
@@ -1407,7 +1407,7 @@
         <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1422,7 +1422,7 @@
         <v>51</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY5" t="n">
         <v>15</v>
@@ -1441,188 +1441,6 @@
       </c>
       <c r="BD5" t="n">
         <v>51</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>jLyWZRR1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>00:30</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Los Angeles FC</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Seattle Sounders</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="H6" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W6" t="n">
-        <v>6</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -747,61 +747,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.25</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
+        <v>13</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W2" t="n">
+        <v>10</v>
+      </c>
+      <c r="X2" t="n">
         <v>15</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12</v>
-      </c>
-      <c r="X2" t="n">
-        <v>17</v>
-      </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>29</v>
@@ -810,25 +810,25 @@
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>13</v>
@@ -837,13 +837,13 @@
         <v>9.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL2" t="n">
         <v>17</v>
       </c>
       <c r="AM2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -858,31 +858,31 @@
         <v>51</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
         <v>4.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
@@ -891,10 +891,10 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -971,10 +971,10 @@
         <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V3" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -983,13 +983,13 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,16 +1010,16 @@
         <v>251</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -1028,10 +1028,10 @@
         <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
         <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
         <v>3.75</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>1.9</v>
       </c>
       <c r="R4" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1159,34 +1159,34 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z4" t="n">
         <v>21</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
         <v>201</v>
@@ -1195,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ4" t="n">
         <v>12</v>
@@ -1213,16 +1213,16 @@
         <v>4.33</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
         <v>41</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
         <v>151</v>
@@ -1231,7 +1231,7 @@
         <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1255,7 +1255,7 @@
         <v>81</v>
       </c>
       <c r="BC4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="J2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
@@ -768,7 +768,7 @@
         <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -777,22 +777,22 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>10</v>
@@ -810,13 +810,13 @@
         <v>21</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -831,7 +831,7 @@
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.5</v>
@@ -840,10 +840,10 @@
         <v>23</v>
       </c>
       <c r="AL2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN2" t="n">
         <v>5</v>
@@ -852,7 +852,7 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>51</v>
@@ -861,16 +861,16 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>501</v>
@@ -891,7 +891,7 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>126</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -953,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -977,16 +977,16 @@
         <v>1.83</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>8</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -1031,7 +1031,7 @@
         <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J5" t="n">
         <v>3.4</v>
@@ -1308,7 +1308,7 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
@@ -1317,16 +1317,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1359,7 +1359,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1377,7 +1377,7 @@
         <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ5" t="n">
         <v>10</v>
@@ -1389,10 +1389,10 @@
         <v>21</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO5" t="n">
         <v>15</v>
@@ -1428,7 +1428,7 @@
         <v>15</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA5" t="n">
         <v>51</v>
@@ -1437,7 +1437,7 @@
         <v>67</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -753,7 +753,7 @@
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J2" t="n">
         <v>3.4</v>
@@ -765,10 +765,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
         <v>1.25</v>
@@ -831,7 +831,7 @@
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
         <v>9.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
@@ -947,10 +947,10 @@
         <v>3.25</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.36</v>
@@ -983,10 +983,10 @@
         <v>13</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>23</v>
@@ -995,10 +995,10 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI3" t="n">
         <v>12</v>
@@ -1019,7 +1019,7 @@
         <v>10</v>
       </c>
       <c r="AK3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
         <v>21</v>
@@ -1031,7 +1031,7 @@
         <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
         <v>26</v>
@@ -1070,7 +1070,7 @@
         <v>51</v>
       </c>
       <c r="BB3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC3" t="n">
         <v>201</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>2.88</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1195,19 +1195,19 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>4.33</v>
@@ -1252,7 +1252,7 @@
         <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC4" t="n">
         <v>151</v>
@@ -1311,16 +1311,16 @@
         <v>3.25</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
         <v>2.1</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -777,10 +777,10 @@
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD5"/>
+  <dimension ref="A1:BB2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,49 +676,39 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_3-3_HT</t>
+          <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
       <c r="AX1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_0-1_HT</t>
+          <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
       <c r="AY1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_0-2_HT</t>
+          <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
       <c r="AZ1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_1-2_HT</t>
+          <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
       <c r="BA1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_0-3_HT</t>
+          <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
       <c r="BB1" s="1" t="inlineStr">
         <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_4-4_HT</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EuGmryfn</t>
+          <t>fTQuyTvK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,89 +718,89 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRALIA - A-LEAGUE</t>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Seoul E-Land</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>Jeonnam</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L2" t="n">
         <v>3.6</v>
       </c>
-      <c r="I2" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3</v>
-      </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -819,7 +809,7 @@
         <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
         <v>41</v>
@@ -828,43 +818,43 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AK2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL2" t="n">
         <v>23</v>
       </c>
-      <c r="AL2" t="n">
-        <v>19</v>
-      </c>
       <c r="AM2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
         <v>51</v>
       </c>
-      <c r="AR2" t="n">
-        <v>67</v>
-      </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>
@@ -873,574 +863,22 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>4.5</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC2" t="n">
         <v>151</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>n7RlBys2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Daegu</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Incheon</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N3" t="n">
-        <v>9</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W3" t="n">
-        <v>8</v>
-      </c>
-      <c r="X3" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2F9yZvZ8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Daejeon</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jeju Utd</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>11</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>EuEsDcCk</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>02:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Gwangju FC</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Jeonbuk</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
         <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -752,7 +752,7 @@
         <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -779,10 +779,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>
@@ -824,7 +824,7 @@
         <v>17</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
@@ -836,7 +836,7 @@
         <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
@@ -866,7 +866,7 @@
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
         <v>23</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -740,7 +740,7 @@
         <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
         <v>3.1</v>
@@ -755,22 +755,22 @@
         <v>3.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -779,10 +779,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -743,16 +743,16 @@
         <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
@@ -767,16 +767,16 @@
         <v>3.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
         <v>1.62</v>
@@ -794,13 +794,13 @@
         <v>9.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
         <v>12</v>
@@ -818,19 +818,19 @@
         <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>29</v>
@@ -839,7 +839,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>21</v>
@@ -854,7 +854,7 @@
         <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU2" t="n">
         <v>7.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BB2"/>
+  <dimension ref="A1:BD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -704,11 +704,21 @@
           <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_4-4_HT</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>fTQuyTvK</t>
+          <t>Ukw2Lkbe</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -718,168 +728,352 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Stripfing</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.18</v>
       </c>
       <c r="K2" t="n">
         <v>2.2</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>175</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>fTQuyTvK</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>04:30</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SOUTH KOREA - K LEAGUE 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Seoul E-Land</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Jeonnam</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N3" t="n">
         <v>11</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O3" t="n">
         <v>1.25</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P3" t="n">
         <v>3.75</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q3" t="n">
         <v>1.83</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R3" t="n">
         <v>1.98</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S3" t="n">
         <v>1.36</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T3" t="n">
         <v>3</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U3" t="n">
         <v>1.62</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V3" t="n">
         <v>2.2</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W3" t="n">
         <v>9.5</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X3" t="n">
         <v>12</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y3" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z3" t="n">
         <v>23</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA3" t="n">
         <v>19</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB3" t="n">
         <v>26</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC3" t="n">
         <v>12</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD3" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE3" t="n">
         <v>12</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF3" t="n">
         <v>41</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG3" t="n">
         <v>151</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH3" t="n">
         <v>11</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ3" t="n">
         <v>11</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK3" t="n">
         <v>29</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL3" t="n">
         <v>21</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM3" t="n">
         <v>29</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN3" t="n">
         <v>4.5</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO3" t="n">
         <v>13</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ3" t="n">
         <v>41</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR3" t="n">
         <v>51</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS3" t="n">
         <v>126</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT3" t="n">
         <v>3</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU3" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV3" t="n">
         <v>51</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW3" t="n">
         <v>5</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX3" t="n">
         <v>15</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY3" t="n">
         <v>23</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ3" t="n">
         <v>51</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB3" t="n">
         <v>151</v>
       </c>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>fTQuyTvK</t>
+          <t>Ie7b5PQ8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,169 +910,171 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 2</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Seoul E-Land</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Jeonnam</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K3" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
-        <v>3</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.2</v>
-      </c>
       <c r="L3" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N3" t="n">
+        <v>34</v>
+      </c>
+      <c r="O3" t="n">
         <v>1.05</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>11</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.75</v>
-      </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>4.33</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="W3" t="n">
-        <v>9.5</v>
+        <v>34</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB3" t="n">
         <v>23</v>
       </c>
-      <c r="AA3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>26</v>
-      </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL3" t="n">
         <v>11</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AM3" t="n">
         <v>15</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL3" t="n">
+      <c r="AN3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO3" t="n">
         <v>21</v>
       </c>
-      <c r="AM3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>13</v>
-      </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
       </c>
       <c r="AS3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC3" t="n">
         <v>126</v>
       </c>
-      <c r="AT3" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD3"/>
+  <dimension ref="A1:BD4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>zNz4qPE7</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,172 +910,354 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>4.1</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
+        <v>6</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R3" t="n">
         <v>1.53</v>
       </c>
-      <c r="J3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="S3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W3" t="n">
+        <v>5</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>34</v>
       </c>
-      <c r="O3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="P3" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V3" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W3" t="n">
+      <c r="AR3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX3" t="n">
         <v>34</v>
       </c>
-      <c r="X3" t="n">
+      <c r="AY3" t="n">
         <v>41</v>
       </c>
-      <c r="Y3" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>15</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>11</v>
-      </c>
       <c r="AZ3" t="n">
-        <v>19</v>
+        <v>151</v>
       </c>
       <c r="BA3" t="n">
-        <v>26</v>
+        <v>201</v>
       </c>
       <c r="BB3" t="n">
         <v>51</v>
       </c>
       <c r="BC3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ie7b5PQ8</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Geylang</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N4" t="n">
+        <v>34</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="P4" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="T4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W4" t="n">
+        <v>34</v>
+      </c>
+      <c r="X4" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC4" t="n">
         <v>126</v>
       </c>
-      <c r="BD3" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD4"/>
+  <dimension ref="A1:BD7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>vaVGVu14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,172 +1092,710 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
         <v>4.1</v>
       </c>
-      <c r="H4" t="n">
-        <v>4.5</v>
-      </c>
       <c r="I4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>2.32</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X4" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ie7b5PQ8</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>07:00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Hougang</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Geylang</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
         <v>1.01</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N5" t="n">
         <v>34</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>1.05</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>11</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>1.2</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>4.33</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>1.14</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>5.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U5" t="n">
         <v>1.29</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V5" t="n">
         <v>3.5</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W5" t="n">
         <v>34</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X5" t="n">
         <v>41</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y5" t="n">
         <v>17</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z5" t="n">
         <v>51</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA5" t="n">
         <v>29</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB5" t="n">
         <v>23</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC5" t="n">
         <v>34</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD5" t="n">
         <v>13</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE5" t="n">
         <v>12</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF5" t="n">
         <v>23</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG5" t="n">
         <v>51</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH5" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI5" t="n">
         <v>17</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ5" t="n">
         <v>10</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK5" t="n">
         <v>17</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL5" t="n">
         <v>11</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM5" t="n">
         <v>15</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN5" t="n">
         <v>8</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO5" t="n">
         <v>21</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP5" t="n">
         <v>19</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ5" t="n">
         <v>51</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS5" t="n">
         <v>67</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT5" t="n">
         <v>5.5</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU5" t="n">
         <v>7</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV5" t="n">
         <v>29</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW5" t="n">
         <v>4.75</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX5" t="n">
         <v>8</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY5" t="n">
         <v>11</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ5" t="n">
         <v>19</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA5" t="n">
         <v>26</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB5" t="n">
         <v>51</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC5" t="n">
         <v>126</v>
       </c>
-      <c r="BD4" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>xppFPDhg</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>3</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N6" t="n">
+        <v>13</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>11</v>
+      </c>
+      <c r="X6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7</v>
+      </c>
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>126</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD7"/>
+  <dimension ref="A1:BD10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,58 +747,58 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="J2" t="n">
         <v>2.18</v>
       </c>
       <c r="K2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L2" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="M2" t="n">
         <v>1.05</v>
       </c>
       <c r="N2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="Q2" t="n">
         <v>1.78</v>
       </c>
       <c r="R2" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T2" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V2" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W2" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="Y2" t="n">
         <v>8</v>
@@ -813,10 +813,10 @@
         <v>25</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE2" t="n">
         <v>16</v>
@@ -831,10 +831,10 @@
         <v>13.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>80</v>
@@ -843,7 +843,7 @@
         <v>45</v>
       </c>
       <c r="AM2" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN2" t="n">
         <v>3.5</v>
@@ -852,10 +852,10 @@
         <v>7.9</v>
       </c>
       <c r="AP2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR2" t="n">
         <v>55</v>
@@ -864,7 +864,7 @@
         <v>250</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="AU2" t="n">
         <v>7.6</v>
@@ -873,22 +873,22 @@
         <v>70</v>
       </c>
       <c r="AW2" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AX2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY2" t="n">
         <v>32</v>
       </c>
       <c r="AZ2" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA2" t="n">
         <v>175</v>
       </c>
-      <c r="BA2" t="n">
-        <v>200</v>
-      </c>
       <c r="BB2" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BC2" t="n">
         <v>81</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
@@ -959,10 +959,10 @@
         <v>2.63</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
         <v>1.53</v>
@@ -971,10 +971,10 @@
         <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W3" t="n">
         <v>5</v>
@@ -983,7 +983,7 @@
         <v>6.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>12</v>
@@ -995,10 +995,10 @@
         <v>41</v>
       </c>
       <c r="AC3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>21</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1436,7 +1436,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1446,355 +1446,893 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>2.25</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>2.32</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L6" t="n">
-        <v>2.88</v>
+        <v>4.1</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="R6" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U6" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X6" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>15.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AI6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX6" t="n">
         <v>21</v>
       </c>
-      <c r="AL6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>12</v>
-      </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ6" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB6" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>301</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>I3VePdSH</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>xppFPDhg</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W8" t="n">
+        <v>11</v>
+      </c>
+      <c r="X8" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>d2jjMXa3</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>24/11/2024</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>07:30</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>TURKEY - 1. LIG</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Erzurumspor</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Karagumruk</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H7" t="n">
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.3</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
         <v>3.25</v>
       </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="Q9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
         <v>10</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7</v>
-      </c>
-      <c r="X7" t="n">
+      <c r="Y9" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z7" t="n">
+      <c r="Z9" t="n">
         <v>21</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA9" t="n">
         <v>19</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
         <v>34</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AL9" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2yBJ1dI0</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7.85</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="X10" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU10" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>126</v>
+      <c r="AV10" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>400</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD10"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,22 +935,22 @@
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.44</v>
@@ -1025,7 +1025,7 @@
         <v>51</v>
       </c>
       <c r="AM3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN3" t="n">
         <v>3.4</v>
@@ -1037,7 +1037,7 @@
         <v>26</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>67</v>
@@ -1256,7 +1256,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>zcJ7zVM8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,177 +1266,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>4.1</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.05</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W5" t="n">
+        <v>8</v>
+      </c>
+      <c r="X5" t="n">
         <v>11</v>
       </c>
-      <c r="Q5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T5" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="V5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="W5" t="n">
-        <v>34</v>
-      </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF5" t="n">
         <v>41</v>
       </c>
-      <c r="Y5" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>23</v>
-      </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>8</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP5" t="n">
         <v>21</v>
       </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX5" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AY5" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA5" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD5" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>Am7TYGgR</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1451,170 +1453,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="S6" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="V6" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
         <v>10</v>
       </c>
-      <c r="Y6" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA6" t="n">
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO6" t="n">
         <v>13</v>
       </c>
-      <c r="AB6" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI6" t="n">
+      <c r="AP6" t="n">
         <v>23</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR6" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>6.8</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY6" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>pM9zOdlg</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1629,170 +1635,174 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.65</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>7.4</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>4.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="R7" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="T7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>1.83</v>
       </c>
       <c r="V7" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W7" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AA7" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.75</v>
+        <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>9.25</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AF7" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>600</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>21</v>
       </c>
-      <c r="AI7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>23</v>
       </c>
-      <c r="AK7" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AR7" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>Ie7b5PQ8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1802,179 +1812,177 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.88</v>
+        <v>1.95</v>
       </c>
       <c r="M8" t="n">
+        <v>41</v>
+      </c>
+      <c r="N8" t="n">
+        <v>41</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.04</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>13</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
       <c r="Q8" t="n">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="R8" t="n">
-        <v>2.05</v>
+        <v>4.5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.36</v>
+        <v>1.13</v>
       </c>
       <c r="T8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="W8" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Z8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
       <c r="AD8" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AG8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO8" t="n">
         <v>21</v>
       </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
         <v>51</v>
       </c>
       <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
         <v>67</v>
       </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BB8" t="n">
         <v>51</v>
       </c>
-      <c r="AW8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB8" t="n">
+      <c r="BC8" t="n">
         <v>126</v>
       </c>
-      <c r="BC8" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>301</v>
-      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1984,354 +1992,892 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="S9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.1</v>
       </c>
-      <c r="J9" t="n">
-        <v>3</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="U9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W9" t="n">
         <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX9" t="n">
         <v>21</v>
       </c>
-      <c r="AA9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>19</v>
-      </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BB9" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>I3VePdSH</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>300</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>xppFPDhg</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W11" t="n">
+        <v>11</v>
+      </c>
+      <c r="X11" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W12" t="n">
+        <v>7</v>
+      </c>
+      <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>2yBJ1dI0</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>24/11/2024</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Obolon</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Kryvbas</t>
         </is>
       </c>
-      <c r="G10" t="n">
+      <c r="G13" t="n">
         <v>4.5</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>1.75</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J13" t="n">
         <v>5</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K13" t="n">
         <v>2.02</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>2.37</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M13" t="n">
         <v>1.08</v>
       </c>
-      <c r="N10" t="n">
+      <c r="N13" t="n">
         <v>7.85</v>
       </c>
-      <c r="O10" t="n">
+      <c r="O13" t="n">
         <v>1.42</v>
       </c>
-      <c r="P10" t="n">
+      <c r="P13" t="n">
         <v>2.47</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q13" t="n">
         <v>2.22</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R13" t="n">
         <v>1.52</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S13" t="n">
         <v>1.47</v>
       </c>
-      <c r="T10" t="n">
+      <c r="T13" t="n">
         <v>2.32</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U13" t="n">
         <v>2.12</v>
       </c>
-      <c r="V10" t="n">
+      <c r="V13" t="n">
         <v>1.57</v>
       </c>
-      <c r="W10" t="n">
+      <c r="W13" t="n">
         <v>9.75</v>
       </c>
-      <c r="X10" t="n">
+      <c r="X13" t="n">
         <v>23</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y13" t="n">
         <v>16</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z13" t="n">
         <v>80</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA13" t="n">
         <v>55</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB13" t="n">
         <v>75</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC13" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AD13" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AE13" t="n">
         <v>21</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF13" t="n">
         <v>150</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG13" t="n">
         <v>900</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH13" t="n">
         <v>5.3</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI13" t="n">
         <v>6.9</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ13" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AK13" t="n">
         <v>13</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AL13" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM13" t="n">
         <v>40</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AN13" t="n">
         <v>6</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AO13" t="n">
         <v>27</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AP13" t="n">
         <v>40</v>
       </c>
-      <c r="AQ10" t="n">
+      <c r="AQ13" t="n">
         <v>175</v>
       </c>
-      <c r="AR10" t="n">
+      <c r="AR13" t="n">
         <v>250</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AS13" t="n">
         <v>500</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AT13" t="n">
         <v>2.3</v>
       </c>
-      <c r="AU10" t="n">
+      <c r="AU13" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV10" t="n">
+      <c r="AV13" t="n">
         <v>100</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AW13" t="n">
         <v>3.35</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AX13" t="n">
         <v>8.75</v>
       </c>
-      <c r="AY10" t="n">
+      <c r="AY13" t="n">
         <v>22</v>
       </c>
-      <c r="AZ10" t="n">
+      <c r="AZ13" t="n">
         <v>32</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BA13" t="n">
         <v>80</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BB13" t="n">
         <v>400</v>
       </c>
-      <c r="BC10" t="n">
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="BD10" t="n">
+      <c r="BD13" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD13"/>
+  <dimension ref="A1:BD15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ukw2Lkbe</t>
+          <t>b1PJHvvh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>08:30</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Genoa</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Stripfing</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="I2" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.18</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.85</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W2" t="n">
         <v>8</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.4</v>
-      </c>
       <c r="X2" t="n">
-        <v>7.9</v>
+        <v>12</v>
       </c>
       <c r="Y2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
         <v>8</v>
       </c>
-      <c r="Z2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>27</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>45</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AV2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX2" t="n">
         <v>17</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AX2" t="n">
+      <c r="AY2" t="n">
         <v>26</v>
       </c>
-      <c r="AY2" t="n">
-        <v>32</v>
-      </c>
       <c r="AZ2" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="BC2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>zNz4qPE7</t>
+          <t>Usgh7ZDD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,179 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Nijmegen</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Utrecht</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.65</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>6.5</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF3" t="n">
         <v>41</v>
       </c>
-      <c r="AC3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE3" t="n">
+      <c r="AG3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP3" t="n">
         <v>21</v>
       </c>
-      <c r="AF3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK3" t="n">
+      <c r="AQ3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA3" t="n">
         <v>67</v>
       </c>
-      <c r="AL3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ3" t="n">
+      <c r="BB3" t="n">
         <v>151</v>
       </c>
-      <c r="BA3" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>51</v>
-      </c>
       <c r="BC3" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>vaVGVu14</t>
+          <t>Ukw2Lkbe</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,171 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>06:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Stripfing</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>1.65</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="J4" t="n">
-        <v>5</v>
+        <v>2.18</v>
       </c>
       <c r="K4" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+        <v>4.85</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8</v>
+      </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.78</v>
+        <v>3.55</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="R4" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>3.26</v>
+        <v>2.87</v>
       </c>
       <c r="U4" t="n">
         <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.99</v>
+        <v>1.93</v>
       </c>
       <c r="W4" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="X4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH4" t="n">
         <v>13.5</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AI4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>45</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>25</v>
       </c>
-      <c r="Y4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>70</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>37</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>175</v>
-      </c>
       <c r="AR4" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="AS4" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="AU4" t="n">
         <v>7.6</v>
       </c>
       <c r="AV4" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.4</v>
+        <v>6.4</v>
       </c>
       <c r="AX4" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AY4" t="n">
-        <v>15.5</v>
+        <v>32</v>
       </c>
       <c r="AZ4" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="BA4" t="n">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="BB4" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zcJ7zVM8</t>
+          <t>zNz4qPE7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.53</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>34</v>
       </c>
-      <c r="AL5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM5" t="n">
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX5" t="n">
         <v>34</v>
       </c>
-      <c r="AN5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="AY5" t="n">
         <v>41</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AZ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB5" t="n">
         <v>51</v>
       </c>
-      <c r="AS5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
+      <c r="BC5" t="n">
         <v>51</v>
       </c>
-      <c r="AW5" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ5" t="n">
+      <c r="BD5" t="n">
         <v>51</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Am7TYGgR</t>
+          <t>vaVGVu14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1448,179 +1456,171 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="W6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="X6" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>37</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW6" t="n">
         <v>3.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>11</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>8</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>15.5</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>81</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pM9zOdlg</t>
+          <t>zcJ7zVM8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,41 +1630,41 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.5</v>
+        <v>2.15</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.05</v>
@@ -1679,37 +1679,37 @@
         <v>3.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S7" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U7" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V7" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>26</v>
@@ -1718,79 +1718,79 @@
         <v>11</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AJ7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
         <v>51</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AY7" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1802,7 +1802,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>Am7TYGgR</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,177 +1812,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="J8" t="n">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.95</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>41</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.18</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>4.5</v>
+        <v>1.85</v>
       </c>
       <c r="S8" t="n">
-        <v>1.13</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>6</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.25</v>
+        <v>1.73</v>
       </c>
       <c r="V8" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
-        <v>34</v>
+        <v>8.5</v>
       </c>
       <c r="X8" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="Y8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
         <v>19</v>
       </c>
-      <c r="Z8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>29</v>
       </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
       <c r="AC8" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AE8" t="n">
         <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>9.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
         <v>13</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AP8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8</v>
       </c>
-      <c r="AO8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
+      <c r="AV8" t="n">
         <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>26</v>
       </c>
       <c r="AW8" t="n">
         <v>5</v>
       </c>
       <c r="AX8" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="AZ8" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BB8" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>pM9zOdlg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1997,170 +1999,174 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4.1</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y9" t="n">
         <v>8.5</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.25</v>
-      </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AD9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>6.8</v>
-      </c>
       <c r="AV9" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>Ie7b5PQ8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2170,175 +2176,177 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.37</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>1.44</v>
       </c>
       <c r="J10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L10" t="n">
         <v>1.83</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N10" t="n">
+        <v>34</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="P10" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T10" t="n">
         <v>6.5</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.15</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.87</v>
+        <v>3.75</v>
       </c>
       <c r="W10" t="n">
-        <v>7.8</v>
+        <v>41</v>
       </c>
       <c r="X10" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AU10" t="n">
         <v>7</v>
       </c>
-      <c r="Y10" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
+      <c r="AV10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA10" t="n">
         <v>21</v>
       </c>
-      <c r="AI10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>300</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>250</v>
-      </c>
       <c r="BB10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC10" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>101</v>
+      </c>
       <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2348,179 +2356,175 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H11" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>3.85</v>
       </c>
       <c r="J11" t="n">
-        <v>3.6</v>
+        <v>2.32</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>2.88</v>
+        <v>4.15</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
       </c>
       <c r="N11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W11" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA11" t="n">
         <v>13</v>
       </c>
-      <c r="O11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W11" t="n">
-        <v>11</v>
-      </c>
-      <c r="X11" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>23</v>
-      </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="AH11" t="n">
-        <v>9.5</v>
+        <v>14</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AX11" t="n">
         <v>21</v>
       </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>12</v>
-      </c>
       <c r="AY11" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>301</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC11" t="inlineStr"/>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>I3VePdSH</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2530,179 +2534,175 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Khonkaen Utd.</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.2</v>
+        <v>1.37</v>
       </c>
       <c r="H12" t="n">
-        <v>3.3</v>
+        <v>4.65</v>
       </c>
       <c r="I12" t="n">
-        <v>3.1</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>1.83</v>
       </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.45</v>
       </c>
       <c r="L12" t="n">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>4.15</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>2.22</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="U12" t="n">
         <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W12" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH12" t="n">
         <v>21</v>
       </c>
-      <c r="AA12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>9</v>
-      </c>
       <c r="AI12" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AJ12" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="AL12" t="n">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="AM12" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>41</v>
+        <v>16.5</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AZ12" t="n">
-        <v>51</v>
+        <v>300</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>250</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>126</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2yBJ1dI0</t>
+          <t>xppFPDhg</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2712,172 +2712,536 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="H13" t="n">
         <v>3.4</v>
       </c>
       <c r="I13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W13" t="n">
+        <v>11</v>
+      </c>
+      <c r="X13" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N14" t="n">
+        <v>10</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W14" t="n">
+        <v>7</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2yBJ1dI0</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
         <v>1.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J15" t="n">
         <v>5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K15" t="n">
         <v>2.02</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L15" t="n">
         <v>2.37</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M15" t="n">
         <v>1.08</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N15" t="n">
         <v>7.85</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O15" t="n">
         <v>1.42</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P15" t="n">
         <v>2.47</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="Q15" t="n">
         <v>2.22</v>
       </c>
-      <c r="R13" t="n">
+      <c r="R15" t="n">
         <v>1.52</v>
       </c>
-      <c r="S13" t="n">
+      <c r="S15" t="n">
         <v>1.47</v>
       </c>
-      <c r="T13" t="n">
+      <c r="T15" t="n">
         <v>2.32</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U15" t="n">
         <v>2.12</v>
       </c>
-      <c r="V13" t="n">
+      <c r="V15" t="n">
         <v>1.57</v>
       </c>
-      <c r="W13" t="n">
+      <c r="W15" t="n">
         <v>9.75</v>
       </c>
-      <c r="X13" t="n">
+      <c r="X15" t="n">
         <v>23</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Y15" t="n">
         <v>16</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="Z15" t="n">
         <v>80</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA15" t="n">
         <v>55</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB15" t="n">
         <v>75</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC15" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD15" t="n">
         <v>6.8</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE15" t="n">
         <v>21</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF15" t="n">
         <v>150</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG15" t="n">
         <v>900</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH15" t="n">
         <v>5.3</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI15" t="n">
         <v>6.9</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ15" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK15" t="n">
         <v>13</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL15" t="n">
         <v>16.5</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM15" t="n">
         <v>40</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN15" t="n">
         <v>6</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO15" t="n">
         <v>27</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AP15" t="n">
         <v>40</v>
       </c>
-      <c r="AQ13" t="n">
+      <c r="AQ15" t="n">
         <v>175</v>
       </c>
-      <c r="AR13" t="n">
+      <c r="AR15" t="n">
         <v>250</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AS15" t="n">
         <v>500</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AT15" t="n">
         <v>2.3</v>
       </c>
-      <c r="AU13" t="n">
+      <c r="AU15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AV13" t="n">
+      <c r="AV15" t="n">
         <v>100</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AW15" t="n">
         <v>3.35</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AX15" t="n">
         <v>8.75</v>
       </c>
-      <c r="AY13" t="n">
+      <c r="AY15" t="n">
         <v>22</v>
       </c>
-      <c r="AZ13" t="n">
+      <c r="AZ15" t="n">
         <v>32</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BA15" t="n">
         <v>80</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BB15" t="n">
         <v>400</v>
       </c>
-      <c r="BC13" t="n">
+      <c r="BC15" t="n">
         <v>81</v>
       </c>
-      <c r="BD13" t="n">
+      <c r="BD15" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD15"/>
+  <dimension ref="A1:BD17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="n">
         <v>3.3</v>
@@ -1311,10 +1311,10 @@
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1344,13 +1344,13 @@
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1380,7 +1380,7 @@
         <v>26</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1392,7 +1392,7 @@
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO5" t="n">
         <v>9.5</v>
@@ -1428,7 +1428,7 @@
         <v>41</v>
       </c>
       <c r="AZ5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA5" t="n">
         <v>201</v>
@@ -2231,7 +2231,7 @@
         <v>5.5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="T10" t="n">
         <v>6.5</v>
@@ -2702,7 +2702,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>AwSmRIc5</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2712,179 +2712,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.1</v>
+        <v>2.27</v>
       </c>
       <c r="H13" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>2.2</v>
+        <v>2.92</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>2.92</v>
       </c>
       <c r="K13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W13" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="X13" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="Y13" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AB13" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>7.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE13" t="n">
         <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="AH13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AJ13" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AK13" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP13" t="n">
         <v>21</v>
       </c>
-      <c r="AL13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AR13" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW13" t="n">
-        <v>4.33</v>
+        <v>4.9</v>
       </c>
       <c r="AX13" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD13" t="n">
-        <v>301</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
+      <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>6qpMCJrC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2894,354 +2890,714 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Pathum United</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>1.57</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S14" t="n">
         <v>1.33</v>
       </c>
-      <c r="P14" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>3.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V14" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="AA14" t="n">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>450</v>
       </c>
       <c r="AH14" t="n">
-        <v>9</v>
+        <v>7.7</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>7.9</v>
       </c>
       <c r="AJ14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL14" t="n">
         <v>12</v>
       </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>6.8</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AP14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>23</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>51</v>
-      </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="BB14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>126</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>xppFPDhg</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>3</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>11</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>10</v>
+      </c>
+      <c r="X15" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>2yBJ1dI0</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>24/11/2024</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Obolon</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Kryvbas</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L15" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="G17" t="n">
+        <v>4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X17" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>250</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AX17" t="n">
         <v>9.75</v>
       </c>
-      <c r="X15" t="n">
+      <c r="AY17" t="n">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM15" t="n">
+      <c r="AZ17" t="n">
         <v>40</v>
       </c>
-      <c r="AN15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>40</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>32</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>80</v>
-      </c>
-      <c r="BB15" t="n">
+      <c r="BA17" t="n">
+        <v>90</v>
+      </c>
+      <c r="BB17" t="n">
         <v>400</v>
       </c>
-      <c r="BC15" t="n">
+      <c r="BC17" t="n">
         <v>81</v>
       </c>
-      <c r="BD15" t="n">
+      <c r="BD17" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD17"/>
+  <dimension ref="A1:BD18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,7 +750,7 @@
         <v>2.45</v>
       </c>
       <c r="H2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
         <v>3</v>
@@ -765,10 +765,10 @@
         <v>3.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="R2" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -789,10 +789,10 @@
         <v>2.63</v>
       </c>
       <c r="U2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W2" t="n">
         <v>8</v>
@@ -813,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>251</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ukw2Lkbe</t>
+          <t>zNz4qPE7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06:30</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AUSTRIA - 2. LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>A. Lustenau</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Stripfing</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.18</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
+        <v>2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U4" t="n">
         <v>2.25</v>
       </c>
-      <c r="L4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.78</v>
-      </c>
       <c r="V4" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
-        <v>7.4</v>
+        <v>5</v>
       </c>
       <c r="X4" t="n">
-        <v>7.9</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA4" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AI4" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AL4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AM4" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
         <v>3.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>7.9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.87</v>
+        <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AV4" t="n">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="BA4" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BB4" t="n">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD4" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>zNz4qPE7</t>
+          <t>QR97kY5b</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="K5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R5" t="n">
         <v>2</v>
       </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA5" t="n">
         <v>13</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
       </c>
-      <c r="AB5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
-      </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1386,61 +1386,61 @@
         <v>67</v>
       </c>
       <c r="AL5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
         <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
       </c>
       <c r="AW5" t="n">
         <v>7</v>
       </c>
       <c r="AX5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY5" t="n">
         <v>34</v>
       </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA5" t="n">
         <v>126</v>
       </c>
-      <c r="BA5" t="n">
-        <v>201</v>
-      </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
@@ -1475,30 +1475,34 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="H6" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="K6" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+        <v>1.82</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11.5</v>
+      </c>
       <c r="O6" t="n">
         <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>3.78</v>
+        <v>3.8</v>
       </c>
       <c r="Q6" t="n">
         <v>1.6</v>
@@ -1513,100 +1517,100 @@
         <v>3.26</v>
       </c>
       <c r="U6" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.99</v>
+        <v>1.9</v>
       </c>
       <c r="W6" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="X6" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AA6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO6" t="n">
         <v>37</v>
       </c>
-      <c r="AB6" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AP6" t="n">
+        <v>40</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR6" t="n">
         <v>300</v>
       </c>
-      <c r="AH6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>175</v>
-      </c>
       <c r="AS6" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT6" t="n">
         <v>3.1</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.6</v>
+        <v>8.25</v>
       </c>
       <c r="AV6" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AX6" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AY6" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="BA6" t="n">
         <v>45</v>
@@ -1620,7 +1624,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>zcJ7zVM8</t>
+          <t>lGDLOvyB</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1630,95 +1634,95 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.15</v>
+        <v>1.65</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>13</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T7" t="n">
         <v>3.25</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N7" t="n">
-        <v>11</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.75</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W7" t="n">
         <v>8</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1727,82 +1731,78 @@
         <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>17</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>12</v>
-      </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>26</v>
       </c>
-      <c r="AM7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>41</v>
       </c>
-      <c r="AR7" t="n">
-        <v>51</v>
-      </c>
       <c r="AS7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Am7TYGgR</t>
+          <t>zcJ7zVM8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,59 +1812,59 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
         <v>3.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1873,31 +1873,31 @@
         <v>2.75</v>
       </c>
       <c r="U8" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1912,37 +1912,37 @@
         <v>201</v>
       </c>
       <c r="AH8" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM8" t="n">
         <v>34</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
       </c>
       <c r="AR8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
         <v>151</v>
@@ -1951,7 +1951,7 @@
         <v>2.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
@@ -1969,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB8" t="n">
         <v>151</v>
@@ -1984,7 +1984,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pM9zOdlg</t>
+          <t>Am7TYGgR</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1999,162 +1999,162 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L9" t="n">
         <v>3.5</v>
       </c>
-      <c r="I9" t="n">
-        <v>6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V9" t="n">
+        <v>2</v>
+      </c>
+      <c r="W9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AK9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO9" t="n">
         <v>13</v>
       </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
+      <c r="AP9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR9" t="n">
         <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
       </c>
       <c r="AS9" t="n">
         <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX9" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AZ9" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
         <v>81</v>
@@ -2166,7 +2166,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>pM9zOdlg</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,177 +2176,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>4.5</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="I10" t="n">
-        <v>1.44</v>
+        <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="K10" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="L10" t="n">
-        <v>1.83</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="O10" t="n">
-        <v>1.03</v>
+        <v>1.22</v>
       </c>
       <c r="P10" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.14</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
-        <v>1.11</v>
+        <v>1.36</v>
       </c>
       <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.5</v>
       </c>
-      <c r="U10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="W10" t="n">
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI10" t="n">
         <v>41</v>
       </c>
-      <c r="X10" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AJ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="n">
         <v>51</v>
       </c>
-      <c r="AA10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG10" t="n">
+      <c r="AM10" t="n">
         <v>51</v>
       </c>
-      <c r="AH10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>13</v>
-      </c>
       <c r="AN10" t="n">
-        <v>8.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>67</v>
       </c>
-      <c r="AT10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>26</v>
-      </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>7.5</v>
+        <v>41</v>
       </c>
       <c r="AY10" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>Ie7b5PQ8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2356,175 +2358,177 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SINGAPORE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Hougang</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Geylang</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="I11" t="n">
-        <v>3.85</v>
+        <v>1.44</v>
       </c>
       <c r="J11" t="n">
-        <v>2.32</v>
+        <v>4.33</v>
       </c>
       <c r="K11" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="L11" t="n">
-        <v>4.15</v>
+        <v>1.83</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N11" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="O11" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="P11" t="n">
-        <v>4.05</v>
+        <v>15</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.62</v>
+        <v>1.14</v>
       </c>
       <c r="R11" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="S11" t="n">
-        <v>1.32</v>
+        <v>1.11</v>
       </c>
       <c r="T11" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="V11" t="n">
-        <v>2.22</v>
+        <v>3.75</v>
       </c>
       <c r="W11" t="n">
-        <v>9.25</v>
+        <v>41</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.25</v>
+        <v>19</v>
       </c>
       <c r="Z11" t="n">
-        <v>15.5</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM11" t="n">
         <v>13</v>
       </c>
-      <c r="AK11" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>32</v>
-      </c>
       <c r="AN11" t="n">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.75</v>
+        <v>21</v>
       </c>
       <c r="AP11" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>175</v>
+        <v>67</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.1</v>
+        <v>6.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AW11" t="n">
-        <v>5.9</v>
+        <v>5</v>
       </c>
       <c r="AX11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA11" t="n">
         <v>21</v>
       </c>
-      <c r="AY11" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>120</v>
-      </c>
       <c r="BB11" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC11" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>101</v>
+      </c>
       <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2544,157 +2548,157 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.37</v>
+        <v>1.8</v>
       </c>
       <c r="H12" t="n">
-        <v>4.65</v>
+        <v>3.8</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="J12" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>6.5</v>
+        <v>4.15</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.6</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>2.22</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.87</v>
-      </c>
       <c r="W12" t="n">
-        <v>7.8</v>
+        <v>9.25</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
         <v>8.25</v>
       </c>
       <c r="Z12" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>10.75</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AC12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO12" t="n">
         <v>8.75</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>6.2</v>
       </c>
       <c r="AP12" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AS12" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="AV12" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AW12" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="AX12" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="AZ12" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="BA12" t="n">
+        <v>120</v>
+      </c>
+      <c r="BB12" t="n">
         <v>250</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>500</v>
       </c>
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
@@ -2702,7 +2706,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AwSmRIc5</t>
+          <t>I3VePdSH</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2712,7 +2716,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2722,157 +2726,157 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Khonkaen Utd.</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.27</v>
+        <v>1.37</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>4.65</v>
       </c>
       <c r="I13" t="n">
-        <v>2.92</v>
+        <v>7.4</v>
       </c>
       <c r="J13" t="n">
-        <v>2.92</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L13" t="n">
-        <v>3.45</v>
+        <v>6.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W13" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN13" t="n">
         <v>3.3</v>
       </c>
-      <c r="Q13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="X13" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AO13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY13" t="n">
         <v>37</v>
       </c>
-      <c r="AL13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS13" t="n">
+      <c r="AZ13" t="n">
         <v>250</v>
       </c>
-      <c r="AT13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>75</v>
-      </c>
       <c r="BA13" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="BB13" t="n">
-        <v>300</v>
+        <v>450</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2880,7 +2884,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6qpMCJrC</t>
+          <t>AwSmRIc5</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2900,157 +2904,157 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Pathum United</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.1</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
-        <v>4.05</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1.57</v>
+        <v>2.92</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>2.92</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>3.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W14" t="n">
         <v>8.25</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI14" t="n">
         <v>16</v>
       </c>
-      <c r="X14" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="AJ14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR14" t="n">
         <v>90</v>
       </c>
-      <c r="AA14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>175</v>
-      </c>
       <c r="AS14" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
         <v>60</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>7.5</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ14" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="BA14" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
@@ -3058,7 +3062,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>6qpMCJrC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3068,179 +3072,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Pathum United</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>5.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>4.05</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="J15" t="n">
+        <v>5</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W15" t="n">
+        <v>16</v>
+      </c>
+      <c r="X15" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="n">
         <v>3.5</v>
       </c>
-      <c r="K15" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N15" t="n">
-        <v>11</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2</v>
-      </c>
-      <c r="W15" t="n">
-        <v>10</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA15" t="n">
+      <c r="AX15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>23</v>
       </c>
-      <c r="AB15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>41</v>
-      </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>xppFPDhg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3255,129 +3255,129 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.05</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="J16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.75</v>
       </c>
-      <c r="K16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
+        <v>2</v>
+      </c>
+      <c r="W16" t="n">
         <v>10</v>
       </c>
-      <c r="O16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W16" t="n">
-        <v>7</v>
-      </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AK16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3386,218 +3386,400 @@
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA16" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC16" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD16" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>10</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
           <t>2yBJ1dI0</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>24/11/2024</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Obolon</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Kryvbas</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="G18" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K18" t="n">
         <v>1.95</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="L18" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N18" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T18" t="n">
         <v>2.27</v>
       </c>
-      <c r="R17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U17" t="n">
+      <c r="U18" t="n">
         <v>2.07</v>
       </c>
-      <c r="V17" t="n">
+      <c r="V18" t="n">
         <v>1.6</v>
       </c>
-      <c r="W17" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="X17" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>14.5</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="Z18" t="n">
         <v>65</v>
       </c>
-      <c r="AA17" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AA18" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB18" t="n">
         <v>65</v>
       </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF17" t="n">
+      <c r="AC18" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF18" t="n">
         <v>120</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AG18" t="n">
         <v>900</v>
       </c>
-      <c r="AH17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AJ17" t="n">
+      <c r="AH18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>9</v>
       </c>
-      <c r="AK17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM17" t="n">
+      <c r="AK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM18" t="n">
         <v>40</v>
       </c>
-      <c r="AN17" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AN18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO18" t="n">
         <v>24</v>
       </c>
-      <c r="AP17" t="n">
-        <v>37</v>
-      </c>
-      <c r="AQ17" t="n">
+      <c r="AP18" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>150</v>
       </c>
-      <c r="AR17" t="n">
-        <v>250</v>
-      </c>
-      <c r="AS17" t="n">
+      <c r="AR18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS18" t="n">
         <v>500</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AT18" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU17" t="n">
+      <c r="AU18" t="n">
         <v>8.25</v>
       </c>
-      <c r="AV17" t="n">
+      <c r="AV18" t="n">
         <v>100</v>
       </c>
-      <c r="AW17" t="n">
+      <c r="AW18" t="n">
         <v>3.55</v>
       </c>
-      <c r="AX17" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AY17" t="n">
+      <c r="AX18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY18" t="n">
         <v>23</v>
       </c>
-      <c r="AZ17" t="n">
+      <c r="AZ18" t="n">
         <v>40</v>
       </c>
-      <c r="BA17" t="n">
+      <c r="BA18" t="n">
         <v>90</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BB18" t="n">
         <v>400</v>
       </c>
-      <c r="BC17" t="n">
+      <c r="BC18" t="n">
         <v>81</v>
       </c>
-      <c r="BD17" t="n">
+      <c r="BD18" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -762,13 +762,13 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -777,10 +777,10 @@
         <v>3.4</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.07</v>
+        <v>2.06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="S2" t="n">
         <v>1.44</v>
@@ -795,13 +795,13 @@
         <v>2</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X2" t="n">
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
@@ -822,13 +822,13 @@
         <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -980,10 +980,10 @@
         <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z3" t="n">
         <v>21</v>
@@ -992,13 +992,13 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>11</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
@@ -1031,7 +1031,7 @@
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1076,13 +1076,13 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>zNz4qPE7</t>
+          <t>dS7JgyQN</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="H4" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>2.63</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="S4" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>1.7</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>2.05</v>
       </c>
       <c r="W4" t="n">
-        <v>5</v>
+        <v>9.5</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AA4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="n">
         <v>17</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AF4" t="n">
         <v>41</v>
       </c>
-      <c r="AC4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
         <v>21</v>
       </c>
-      <c r="AF4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>11</v>
-      </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AQ4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR4" t="n">
         <v>34</v>
       </c>
-      <c r="AR4" t="n">
-        <v>67</v>
-      </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>81</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.38</v>
+        <v>3.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX4" t="n">
         <v>34</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA4" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB4" t="n">
         <v>151</v>
       </c>
-      <c r="BB4" t="n">
-        <v>51</v>
-      </c>
       <c r="BC4" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD4" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>QR97kY5b</t>
+          <t>K6rcr6X7</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,110 +1274,110 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H5" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
         <v>5.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V5" t="n">
         <v>2</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA5" t="n">
         <v>12</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>19</v>
@@ -1395,31 +1395,31 @@
         <v>3.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR5" t="n">
         <v>41</v>
       </c>
       <c r="AS5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV5" t="n">
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX5" t="n">
         <v>29</v>
@@ -1431,10 +1431,10 @@
         <v>101</v>
       </c>
       <c r="BA5" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC5" t="n">
         <v>81</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>vaVGVu14</t>
+          <t>zNz4qPE7</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,175 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>07:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Beroe</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.6</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.36</v>
+        <v>5.5</v>
       </c>
       <c r="J6" t="n">
-        <v>6.1</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.82</v>
+        <v>6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3.8</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.07</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="T6" t="n">
-        <v>3.26</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.9</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>15.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="AA6" t="n">
-        <v>55</v>
+        <v>17</v>
       </c>
       <c r="AB6" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
-        <v>450</v>
+        <v>101</v>
       </c>
       <c r="AH6" t="n">
-        <v>6.4</v>
+        <v>11</v>
       </c>
       <c r="AI6" t="n">
-        <v>5.8</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>7.2</v>
+        <v>19</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.4</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>9.25</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
-        <v>250</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="AS6" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>6.1</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>16.5</v>
+        <v>126</v>
       </c>
       <c r="BA6" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>lGDLOvyB</t>
+          <t>GKK2oope</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,175 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.65</v>
+        <v>2.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>2.63</v>
       </c>
       <c r="J7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T7" t="n">
         <v>2.25</v>
       </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE7" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AG7" t="n">
-        <v>151</v>
+        <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="AO7" t="n">
-        <v>8.5</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV7" t="n">
+      <c r="AY7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ7" t="n">
         <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>81</v>
       </c>
       <c r="BA7" t="n">
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC7" t="inlineStr"/>
-      <c r="BD7" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zcJ7zVM8</t>
+          <t>QR97kY5b</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1812,167 +1820,167 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.95</v>
       </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO8" t="n">
         <v>8</v>
       </c>
-      <c r="X8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
+      <c r="AP8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR8" t="n">
         <v>41</v>
       </c>
-      <c r="AG8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
       <c r="AS8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA8" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB8" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
         <v>81</v>
@@ -1984,7 +1992,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Am7TYGgR</t>
+          <t>vaVGVu14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,179 +2002,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ESTONIA - MEISTRILIIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Viimsi JK</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Tallinna Kalev</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>5.4</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.88</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="W9" t="n">
+        <v>14</v>
+      </c>
+      <c r="X9" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>350</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT9" t="n">
         <v>3.1</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N9" t="n">
-        <v>10</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA9" t="n">
+      <c r="AU9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AZ9" t="n">
         <v>19</v>
       </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>51</v>
-      </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pM9zOdlg</t>
+          <t>pAcE4MPc</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,167 +2180,167 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="H10" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="J10" t="n">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N10" t="n">
+        <v>13</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>11</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7</v>
-      </c>
-      <c r="X10" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA10" t="n">
+      <c r="AK10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO10" t="n">
         <v>12</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>7</v>
       </c>
       <c r="AP10" t="n">
         <v>19</v>
       </c>
       <c r="AQ10" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV10" t="n">
         <v>41</v>
       </c>
-      <c r="AS10" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV10" t="n">
+      <c r="AW10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA10" t="n">
         <v>67</v>
       </c>
-      <c r="AW10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
       <c r="BB10" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BC10" t="n">
         <v>81</v>
@@ -2348,7 +2352,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Ie7b5PQ8</t>
+          <t>nZgV0vPM</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,177 +2362,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SINGAPORE - PREMIER LEAGUE</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Hougang</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Geylang</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.44</v>
+        <v>1.95</v>
       </c>
       <c r="J11" t="n">
+        <v>4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P11" t="n">
         <v>4.33</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>34</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P11" t="n">
-        <v>15</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="R11" t="n">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="S11" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>6.5</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z11" t="n">
         <v>41</v>
       </c>
-      <c r="X11" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>51</v>
-      </c>
       <c r="AA11" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>17</v>
       </c>
       <c r="AL11" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AN11" t="n">
-        <v>8.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
         <v>51</v>
       </c>
       <c r="AR11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV11" t="n">
         <v>51</v>
       </c>
-      <c r="AS11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>26</v>
-      </c>
       <c r="AW11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX11" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD11" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>AThsuj5j</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2538,92 +2544,92 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>2.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
       </c>
       <c r="P12" t="n">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.62</v>
       </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>2.2</v>
       </c>
-      <c r="S12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.22</v>
-      </c>
       <c r="W12" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
         <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
@@ -2632,81 +2638,85 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AO12" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>15.5</v>
+        <v>19</v>
       </c>
       <c r="AQ12" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="AR12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX12" t="n">
         <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>lGDLOvyB</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2716,167 +2726,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.37</v>
+        <v>1.65</v>
       </c>
       <c r="H13" t="n">
-        <v>4.65</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>7.4</v>
+        <v>5.25</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="K13" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>6.4</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
         <v>7</v>
       </c>
-      <c r="Y13" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AE13" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
         <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX13" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AY13" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BA13" t="n">
-        <v>250</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
@@ -2884,7 +2894,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AwSmRIc5</t>
+          <t>zcJ7zVM8</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2894,65 +2904,65 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="R14" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.7</v>
@@ -2961,108 +2971,112 @@
         <v>2.05</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
         <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
       </c>
       <c r="AF14" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AH14" t="n">
         <v>10</v>
       </c>
       <c r="AI14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6qpMCJrC</t>
+          <t>Am7TYGgR</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3072,175 +3086,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pathum United</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5.1</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
-        <v>4.05</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>1.57</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>2.07</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="Y15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="AA15" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>450</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>7.9</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8</v>
       </c>
-      <c r="AK15" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AV15" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX15" t="n">
-        <v>7.5</v>
+        <v>17</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>pM9zOdlg</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3250,86 +3268,86 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L16" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
+        <v>13</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N16" t="n">
-        <v>11</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q16" t="n">
+      <c r="U16" t="n">
         <v>2</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>1.73</v>
       </c>
-      <c r="V16" t="n">
-        <v>2</v>
-      </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X16" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AA16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
@@ -3338,91 +3356,91 @@
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI16" t="n">
         <v>41</v>
       </c>
-      <c r="AG16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>12</v>
-      </c>
       <c r="AJ16" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="AL16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP16" t="n">
         <v>19</v>
       </c>
-      <c r="AM16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR16" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="AX16" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BA16" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD16" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3432,354 +3450,1248 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="H17" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="J17" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="K17" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>4.33</v>
+        <v>3.95</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>3.25</v>
+        <v>4.05</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="S17" t="n">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
       <c r="T17" t="n">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>2.22</v>
       </c>
       <c r="W17" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="X17" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AA17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AG17" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AL17" t="n">
         <v>29</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN17" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY17" t="n">
         <v>23</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>126</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>I3VePdSH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Ratchaburi</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Khonkaen Utd.</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="I18" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W18" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AwSmRIc5</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Lamphun Warrior</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V19" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W19" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X19" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6qpMCJrC</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima FC</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Pathum United</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H20" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W20" t="n">
+        <v>16</v>
+      </c>
+      <c r="X20" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC20" t="inlineStr"/>
+      <c r="BD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>xppFPDhg</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>d2jjMXa3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>07:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Erzurumspor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7</v>
+      </c>
+      <c r="X22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>2yBJ1dI0</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B23" t="inlineStr">
         <is>
           <t>24/11/2024</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C23" t="inlineStr">
         <is>
           <t>08:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Obolon</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Kryvbas</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H18" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="G23" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K23" t="n">
         <v>1.95</v>
       </c>
-      <c r="L18" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="M18" t="n">
+      <c r="L23" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M23" t="n">
         <v>1.08</v>
       </c>
-      <c r="N18" t="n">
+      <c r="N23" t="n">
         <v>7.75</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O23" t="n">
         <v>1.45</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P23" t="n">
         <v>2.37</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q23" t="n">
         <v>2.32</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R23" t="n">
         <v>1.47</v>
       </c>
-      <c r="S18" t="n">
+      <c r="S23" t="n">
         <v>1.5</v>
       </c>
-      <c r="T18" t="n">
+      <c r="T23" t="n">
         <v>2.27</v>
       </c>
-      <c r="U18" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="U23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.6</v>
       </c>
-      <c r="W18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="W23" t="n">
+        <v>8</v>
+      </c>
+      <c r="X23" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE23" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y18" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AF23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>45</v>
       </c>
-      <c r="AB18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV18" t="n">
+      <c r="BA23" t="n">
         <v>100</v>
       </c>
-      <c r="AW18" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>40</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>90</v>
-      </c>
-      <c r="BB18" t="n">
+      <c r="BB23" t="n">
         <v>400</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BC23" t="n">
         <v>81</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BD23" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,46 +747,46 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="R2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.75</v>
@@ -801,19 +801,19 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>6</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,7 +837,7 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -864,7 +864,7 @@
         <v>151</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU2" t="n">
         <v>8</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -888,7 +888,7 @@
         <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>zNz4qPE7</t>
+          <t>GKK2oope</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1466,31 +1466,31 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Beroe</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.5</v>
+        <v>2.55</v>
       </c>
       <c r="J6" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.11</v>
@@ -1499,43 +1499,43 @@
         <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB6" t="n">
         <v>41</v>
@@ -1544,79 +1544,79 @@
         <v>6.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AI6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR6" t="n">
         <v>101</v>
       </c>
-      <c r="AH6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>67</v>
-      </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY6" t="n">
         <v>34</v>
       </c>
-      <c r="AY6" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>51</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GKK2oope</t>
+          <t>QR97kY5b</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.8</v>
+        <v>1.53</v>
       </c>
       <c r="H7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T7" t="n">
         <v>3</v>
       </c>
-      <c r="I7" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="W7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
         <v>12</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="AA7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC7" t="n">
         <v>12</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
         <v>29</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AJ7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL7" t="n">
         <v>41</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>26</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX7" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY7" t="n">
         <v>34</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD7" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QR97kY5b</t>
+          <t>AuHADdam</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L8" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W8" t="n">
+        <v>15</v>
+      </c>
+      <c r="X8" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y8" t="n">
         <v>12</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
       <c r="Z8" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
       </c>
       <c r="AC8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH8" t="n">
         <v>12</v>
       </c>
-      <c r="AD8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE8" t="n">
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL8" t="n">
         <v>15</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AM8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>51</v>
       </c>
-      <c r="AG8" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AR8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AZ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA8" t="n">
         <v>41</v>
       </c>
-      <c r="AM8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ8" t="n">
+      <c r="BB8" t="n">
         <v>101</v>
       </c>
-      <c r="BA8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>251</v>
-      </c>
       <c r="BC8" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD8" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vaVGVu14</t>
+          <t>vcQvJIyQ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,170 +2002,174 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ESTONIA - MEISTRILIIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Viimsi JK</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallinna Kalev</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>5.4</v>
+        <v>1.47</v>
       </c>
       <c r="H9" t="n">
         <v>4.2</v>
       </c>
       <c r="I9" t="n">
-        <v>1.45</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>5.3</v>
+        <v>2.05</v>
       </c>
       <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>17</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.35</v>
       </c>
-      <c r="L9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.07</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T9" t="n">
-        <v>3.23</v>
+        <v>3.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="V9" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="W9" t="n">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="X9" t="n">
-        <v>27</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG9" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.7</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.4</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW9" t="n">
         <v>7</v>
       </c>
-      <c r="AK9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>30</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>3.35</v>
-      </c>
       <c r="AX9" t="n">
-        <v>6.7</v>
+        <v>26</v>
       </c>
       <c r="AY9" t="n">
-        <v>15.5</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2199,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H10" t="n">
         <v>3.4</v>
       </c>
       <c r="I10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
         <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M10" t="n">
         <v>1.04</v>
@@ -2250,13 +2254,13 @@
         <v>10</v>
       </c>
       <c r="X10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>17</v>
@@ -2289,10 +2293,10 @@
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM10" t="n">
         <v>26</v>
@@ -2304,7 +2308,7 @@
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2387,7 +2391,7 @@
         <v>3.5</v>
       </c>
       <c r="I11" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
@@ -2953,10 +2957,10 @@
         <v>3.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R14" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S14" t="n">
         <v>1.4</v>
@@ -3105,22 +3109,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.06</v>
@@ -3147,31 +3151,31 @@
         <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3183,10 +3187,10 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
         <v>15</v>
@@ -3195,16 +3199,16 @@
         <v>11</v>
       </c>
       <c r="AK15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM15" t="n">
         <v>34</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
@@ -3231,7 +3235,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX15" t="n">
         <v>17</v>
@@ -3243,10 +3247,10 @@
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC15" t="n">
         <v>81</v>
@@ -3317,10 +3321,10 @@
         <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S16" t="n">
         <v>1.36</v>
@@ -3440,7 +3444,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>IsvE5N6D</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,175 +3454,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I17" t="n">
-        <v>3.65</v>
+        <v>4.3</v>
       </c>
       <c r="J17" t="n">
         <v>2.37</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="L17" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>8.75</v>
+        <v>6.4</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.39</v>
       </c>
       <c r="P17" t="n">
-        <v>4.05</v>
+        <v>2.77</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>2.15</v>
       </c>
       <c r="R17" t="n">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="S17" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="T17" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="U17" t="n">
-        <v>1.6</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>9.25</v>
+        <v>5.7</v>
       </c>
       <c r="X17" t="n">
-        <v>10.25</v>
+        <v>7.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA17" t="n">
         <v>16</v>
       </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.75</v>
+        <v>6.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="AE17" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AF17" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AJ17" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL17" t="n">
         <v>50</v>
       </c>
-      <c r="AL17" t="n">
-        <v>29</v>
-      </c>
       <c r="AM17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
         <v>9</v>
       </c>
       <c r="AP17" t="n">
-        <v>15.5</v>
+        <v>20</v>
       </c>
       <c r="AQ17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AR17" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AS17" t="n">
-        <v>175</v>
+        <v>300</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.1</v>
+        <v>2.57</v>
       </c>
       <c r="AU17" t="n">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="AV17" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="AX17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY17" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AZ17" t="n">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="BA17" t="n">
-        <v>110</v>
+        <v>200</v>
       </c>
       <c r="BB17" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>Qo8HeMrJ</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,175 +3636,179 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.37</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>4.65</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>2.63</v>
       </c>
       <c r="K18" t="n">
-        <v>2.45</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>6.4</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
         <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.57</v>
+        <v>2.15</v>
       </c>
       <c r="R18" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="X18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU18" t="n">
         <v>9</v>
       </c>
-      <c r="AA18" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
       <c r="AV18" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
-      <c r="BD18" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>AwSmRIc5</t>
+          <t>YwSruIWg</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3806,175 +3818,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.27</v>
+        <v>1.48</v>
       </c>
       <c r="H19" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92</v>
+        <v>5.5</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.45</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>7.4</v>
+        <v>13</v>
       </c>
       <c r="O19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P19" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T19" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="U19" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="V19" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>8.25</v>
+        <v>7</v>
       </c>
       <c r="X19" t="n">
-        <v>11.25</v>
+        <v>7</v>
       </c>
       <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU19" t="n">
         <v>9</v>
       </c>
-      <c r="Z19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>16</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>50</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>7</v>
-      </c>
       <c r="AV19" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>4.9</v>
+        <v>7.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="AY19" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AZ19" t="n">
-        <v>75</v>
+        <v>126</v>
       </c>
       <c r="BA19" t="n">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="BB19" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC19" t="inlineStr"/>
-      <c r="BD19" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6qpMCJrC</t>
+          <t>lOwuTvTh</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3984,7 +4000,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3994,157 +4010,157 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Nong Bua Pitchaya</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pathum United</t>
+          <t>Chiangrai Utd</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.1</v>
+        <v>1.82</v>
       </c>
       <c r="H20" t="n">
-        <v>4.05</v>
+        <v>3.85</v>
       </c>
       <c r="I20" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.57</v>
       </c>
-      <c r="J20" t="n">
-        <v>5</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="V20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
         <v>8.25</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W20" t="n">
-        <v>16</v>
-      </c>
-      <c r="X20" t="n">
-        <v>32</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>16</v>
-      </c>
       <c r="Z20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ20" t="n">
         <v>90</v>
       </c>
-      <c r="AA20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>23</v>
-      </c>
       <c r="BA20" t="n">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="BB20" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
@@ -4152,7 +4168,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xppFPDhg</t>
+          <t>I3VePdSH</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4162,179 +4178,175 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Ratchaburi</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Khonkaen Utd.</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>3.1</v>
+        <v>1.37</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>4.65</v>
       </c>
       <c r="I21" t="n">
-        <v>2.3</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>6.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
         <v>1.3</v>
       </c>
-      <c r="P21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W21" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="X21" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>175</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AP21" t="n">
         <v>15</v>
       </c>
-      <c r="Y21" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AQ21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU21" t="n">
         <v>8</v>
       </c>
-      <c r="AI21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.33</v>
+        <v>8.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>301</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>d2jjMXa3</t>
+          <t>AwSmRIc5</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4344,179 +4356,175 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>2.27</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="M22" t="n">
         <v>1.06</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>7.4</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.08</v>
+        <v>1.87</v>
       </c>
       <c r="R22" t="n">
-        <v>1.73</v>
+        <v>1.87</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="X22" t="n">
-        <v>9.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF22" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AS22" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>126</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2yBJ1dI0</t>
+          <t>6qpMCJrC</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4526,172 +4534,1078 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Pathum United</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>3.55</v>
+        <v>5.1</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="J23" t="n">
-        <v>4.25</v>
+        <v>5.1</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L23" t="n">
-        <v>2.67</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>7.75</v>
+        <v>8.25</v>
       </c>
       <c r="O23" t="n">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>2.37</v>
+        <v>3.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="R23" t="n">
-        <v>1.47</v>
+        <v>2.07</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="T23" t="n">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="V23" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
+        <v>15</v>
+      </c>
+      <c r="X23" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI23" t="n">
         <v>8</v>
       </c>
-      <c r="X23" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AJ23" t="n">
-        <v>9.25</v>
+        <v>8</v>
       </c>
       <c r="AK23" t="n">
-        <v>17.5</v>
+        <v>11.75</v>
       </c>
       <c r="AL23" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AM23" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AP23" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ23" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AR23" t="n">
         <v>200</v>
       </c>
       <c r="AS23" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CvAgMa3b</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I24" t="n">
+        <v>4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GW6AIH2N</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J25" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>fcYxDTMk</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W26" t="n">
+        <v>12</v>
+      </c>
+      <c r="X26" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4SgbKBUF</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N27" t="n">
+        <v>11</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X27" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2yBJ1dI0</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>08:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Obolon</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Kryvbas</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS28" t="n">
         <v>500</v>
       </c>
-      <c r="AT23" t="n">
+      <c r="AT28" t="n">
         <v>2.25</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="AU28" t="n">
         <v>8.25</v>
       </c>
-      <c r="AV23" t="n">
+      <c r="AV28" t="n">
         <v>100</v>
       </c>
-      <c r="AW23" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AY23" t="n">
+      <c r="AW28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AY28" t="n">
         <v>24</v>
       </c>
-      <c r="AZ23" t="n">
+      <c r="AZ28" t="n">
         <v>45</v>
       </c>
-      <c r="BA23" t="n">
+      <c r="BA28" t="n">
         <v>100</v>
       </c>
-      <c r="BB23" t="n">
+      <c r="BB28" t="n">
         <v>400</v>
       </c>
-      <c r="BC23" t="n">
+      <c r="BC28" t="n">
         <v>81</v>
       </c>
-      <c r="BD23" t="n">
+      <c r="BD28" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="H2" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J2" t="n">
         <v>3.1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -801,13 +801,13 @@
         <v>12</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>29</v>
@@ -828,7 +828,7 @@
         <v>201</v>
       </c>
       <c r="AH2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI2" t="n">
         <v>15</v>
@@ -837,16 +837,16 @@
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>23</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
         <v>13</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX2" t="n">
         <v>17</v>
@@ -885,7 +885,7 @@
         <v>51</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>151</v>
@@ -1076,13 +1076,13 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dS7JgyQN</t>
+          <t>dSNwn7Vq</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,98 +1092,98 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.38</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N4" t="n">
+        <v>11</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
+        <v>10</v>
+      </c>
+      <c r="X4" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6.5</v>
       </c>
-      <c r="J4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W4" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10</v>
-      </c>
       <c r="AE4" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF4" t="n">
         <v>41</v>
@@ -1192,70 +1192,70 @@
         <v>151</v>
       </c>
       <c r="AH4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL4" t="n">
         <v>21</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>41</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL4" t="n">
+      <c r="AR4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>41</v>
       </c>
-      <c r="AM4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>101</v>
-      </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>K6rcr6X7</t>
+          <t>Q1YMsRBN</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,175 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>Turan</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Sabah Baku</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.48</v>
+        <v>3</v>
       </c>
       <c r="H5" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>2.27</v>
       </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>1.98</v>
       </c>
       <c r="L5" t="n">
-        <v>5.5</v>
+        <v>2.95</v>
       </c>
       <c r="M5" t="n">
         <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X5" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO5" t="n">
         <v>17</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X5" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA5" t="n">
+      <c r="AP5" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX5" t="n">
         <v>12</v>
       </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>29</v>
-      </c>
       <c r="AY5" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ5" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="BA5" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB5" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>81</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>GKK2oope</t>
+          <t>dS7JgyQN</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1461,174 +1457,174 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.9</v>
+        <v>1.38</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" t="n">
-        <v>2.55</v>
+        <v>6.5</v>
       </c>
       <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N6" t="n">
+        <v>21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T6" t="n">
         <v>3.75</v>
       </c>
-      <c r="K6" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>2.05</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
         <v>41</v>
       </c>
-      <c r="AC6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE6" t="n">
+      <c r="AG6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>19</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AK6" t="n">
         <v>67</v>
       </c>
-      <c r="AG6" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>26</v>
-      </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>19</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR6" t="n">
         <v>34</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>101</v>
-      </c>
       <c r="AS6" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW6" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AY6" t="n">
         <v>34</v>
       </c>
       <c r="AZ6" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA6" t="n">
         <v>101</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>51</v>
+        <v>451</v>
       </c>
       <c r="BD6" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QR97kY5b</t>
+          <t>K6rcr6X7</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,110 +1634,110 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="I7" t="n">
         <v>5.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O7" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V7" t="n">
         <v>2</v>
       </c>
-      <c r="S7" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y7" t="n">
         <v>8.5</v>
       </c>
       <c r="Z7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA7" t="n">
         <v>12</v>
       </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
       <c r="AB7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
       </c>
       <c r="AF7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
         <v>19</v>
@@ -1759,31 +1755,31 @@
         <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR7" t="n">
         <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV7" t="n">
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1795,10 +1791,10 @@
         <v>101</v>
       </c>
       <c r="BA7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC7" t="n">
         <v>81</v>
@@ -1810,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AuHADdam</t>
+          <t>GKK2oope</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1816,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="R8" t="n">
-        <v>2.4</v>
+        <v>1.48</v>
       </c>
       <c r="S8" t="n">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="T8" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="W8" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y8" t="n">
         <v>12</v>
       </c>
       <c r="Z8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP8" t="n">
         <v>34</v>
       </c>
-      <c r="AA8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG8" t="n">
+      <c r="AQ8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR8" t="n">
         <v>101</v>
       </c>
-      <c r="AH8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ8" t="n">
+      <c r="AS8" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU8" t="n">
         <v>9</v>
       </c>
-      <c r="AK8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7</v>
-      </c>
       <c r="AV8" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="n">
         <v>4.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>vcQvJIyQ</t>
+          <t>QR97kY5b</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,116 +1998,116 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="I9" t="n">
         <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="R9" t="n">
-        <v>2.35</v>
+        <v>2.03</v>
       </c>
       <c r="S9" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="W9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>19</v>
       </c>
       <c r="AI9" t="n">
         <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
         <v>41</v>
@@ -2120,28 +2116,28 @@
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2150,31 +2146,31 @@
         <v>7</v>
       </c>
       <c r="AX9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC9" t="n">
         <v>81</v>
       </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>501</v>
-      </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pAcE4MPc</t>
+          <t>AuHADdam</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2180,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.4</v>
       </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L10" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O10" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="R10" t="n">
-        <v>2.1</v>
+        <v>2.35</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="V10" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z10" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>23</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
       </c>
       <c r="AI10" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
         <v>21</v>
       </c>
-      <c r="AM10" t="n">
-        <v>26</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC10" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nZgV0vPM</t>
+          <t>vcQvJIyQ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,98 +2362,98 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.6</v>
+        <v>1.55</v>
       </c>
       <c r="H11" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>17</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T11" t="n">
         <v>3.5</v>
       </c>
-      <c r="I11" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J11" t="n">
-        <v>4</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N11" t="n">
-        <v>13</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R11" t="n">
+      <c r="U11" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V11" t="n">
         <v>2.1</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
         <v>21</v>
       </c>
-      <c r="Y11" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>29</v>
-      </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD11" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2466,79 +2462,79 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP11" t="n">
         <v>17</v>
       </c>
-      <c r="AL11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AR11" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS11" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="BD11" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AThsuj5j</t>
+          <t>pAcE4MPc</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2553,42 +2549,42 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.2</v>
@@ -2609,79 +2605,79 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA12" t="n">
         <v>17</v>
       </c>
-      <c r="AA12" t="n">
-        <v>15</v>
-      </c>
       <c r="AB12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
         <v>13</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL12" t="n">
         <v>21</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AM12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO12" t="n">
         <v>12</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>34</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
       </c>
       <c r="AS12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
         <v>3.25</v>
@@ -2690,25 +2686,25 @@
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>51</v>
       </c>
-      <c r="AW12" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ12" t="n">
+      <c r="BA12" t="n">
         <v>67</v>
       </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
         <v>81</v>
@@ -2720,7 +2716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>lGDLOvyB</t>
+          <t>nZgV0vPM</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2730,41 +2726,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.25</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
+        <v>4</v>
+      </c>
+      <c r="K13" t="n">
         <v>2.25</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2779,10 +2775,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2791,31 +2787,31 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
         <v>13</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>7</v>
@@ -2830,75 +2826,79 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="n">
         <v>17</v>
       </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>51</v>
       </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>26</v>
-      </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="AX13" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC13" t="n">
         <v>81</v>
       </c>
-      <c r="BA13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BD13" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zcJ7zVM8</t>
+          <t>AThsuj5j</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,95 +2908,95 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="K14" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N14" t="n">
+        <v>15</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V14" t="n">
         <v>2.2</v>
       </c>
-      <c r="L14" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>11</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W14" t="n">
+        <v>9</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.5</v>
       </c>
-      <c r="X14" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>9</v>
-      </c>
       <c r="Z14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB14" t="n">
         <v>21</v>
       </c>
-      <c r="AA14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>26</v>
-      </c>
       <c r="AC14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3005,46 +3005,46 @@
         <v>41</v>
       </c>
       <c r="AG14" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH14" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>29</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
       </c>
       <c r="AS14" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
         <v>7.5</v>
@@ -3053,19 +3053,19 @@
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
         <v>151</v>
@@ -3080,7 +3080,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Am7TYGgR</t>
+          <t>lGDLOvyB</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3090,143 +3090,143 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K15" t="n">
         <v>2.3</v>
       </c>
-      <c r="H15" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I15" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3</v>
-      </c>
-      <c r="K15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L15" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AA15" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
         <v>29</v>
       </c>
-      <c r="AC15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF15" t="n">
+      <c r="AJ15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK15" t="n">
         <v>51</v>
       </c>
-      <c r="AG15" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>34</v>
-      </c>
       <c r="AL15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>26</v>
       </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ15" t="n">
+      <c r="AR15" t="n">
         <v>41</v>
       </c>
-      <c r="AR15" t="n">
-        <v>67</v>
-      </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3235,34 +3235,30 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ15" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA15" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB15" t="n">
         <v>201</v>
       </c>
-      <c r="BC15" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>81</v>
-      </c>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>pM9zOdlg</t>
+          <t>zcJ7zVM8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3272,167 +3268,167 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>08:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Radomiak Radom</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Stal Mielec</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.38</v>
+        <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>1.91</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="R16" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V16" t="n">
         <v>2.05</v>
       </c>
-      <c r="S16" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T16" t="n">
-        <v>3</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>11</v>
       </c>
       <c r="AD16" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
         <v>51</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>41</v>
       </c>
       <c r="AS16" t="n">
         <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA16" t="n">
         <v>67</v>
       </c>
-      <c r="AW16" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ16" t="n">
+      <c r="BB16" t="n">
         <v>151</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3444,7 +3440,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IsvE5N6D</t>
+          <t>Am7TYGgR</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3454,179 +3450,179 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Warta Poznan</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Pogon Siedlce</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="H17" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="J17" t="n">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L17" t="n">
-        <v>4.8</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N17" t="n">
-        <v>6.4</v>
+        <v>10</v>
       </c>
       <c r="O17" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="P17" t="n">
-        <v>2.77</v>
+        <v>3.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.15</v>
+        <v>2.03</v>
       </c>
       <c r="R17" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S17" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AB17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>6.4</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AH17" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AM17" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AR17" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AS17" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="AX17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY17" t="n">
         <v>26</v>
       </c>
-      <c r="AY17" t="n">
-        <v>35</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BB17" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BD17" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Qo8HeMrJ</t>
+          <t>pM9zOdlg</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3636,65 +3632,65 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>08:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Oliveirense</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.38</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.63</v>
+        <v>1.91</v>
       </c>
       <c r="K18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L18" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.05</v>
       </c>
-      <c r="L18" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
+      <c r="S18" t="n">
         <v>1.36</v>
       </c>
-      <c r="P18" t="n">
+      <c r="T18" t="n">
         <v>3</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
       </c>
       <c r="U18" t="n">
         <v>2</v>
@@ -3703,100 +3699,100 @@
         <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
         <v>8</v>
       </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR18" t="n">
         <v>41</v>
       </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV18" t="n">
         <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA18" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3808,7 +3804,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>YwSruIWg</t>
+          <t>IsvE5N6D</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3823,174 +3819,174 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.48</v>
+        <v>1.78</v>
       </c>
       <c r="H19" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="I19" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="J19" t="n">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>4.8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="N19" t="n">
-        <v>13</v>
+        <v>6.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="P19" t="n">
-        <v>3.75</v>
+        <v>2.77</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="S19" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="T19" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
-        <v>7</v>
+        <v>5.7</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX19" t="n">
         <v>26</v>
       </c>
-      <c r="AC19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AY19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC19" t="n">
         <v>51</v>
       </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV19" t="n">
+      <c r="BD19" t="n">
         <v>51</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>lOwuTvTh</t>
+          <t>Qo8HeMrJ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -4000,175 +3996,179 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Nong Bua Pitchaya</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Chiangrai Utd</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="J20" t="n">
-        <v>2.35</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.32</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>3.95</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
         <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="R20" t="n">
-        <v>2.22</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>3.15</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>2.25</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
-        <v>9.25</v>
+        <v>6</v>
       </c>
       <c r="X20" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
         <v>10</v>
       </c>
-      <c r="Y20" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AI20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>9</v>
       </c>
-      <c r="AD20" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>45</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI20" t="n">
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX20" t="n">
         <v>23</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>50</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>19</v>
-      </c>
       <c r="AY20" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AZ20" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>250</v>
-      </c>
-      <c r="BC20" t="inlineStr"/>
-      <c r="BD20" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>I3VePdSH</t>
+          <t>YwSruIWg</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4178,175 +4178,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ratchaburi</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Khonkaen Utd.</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.37</v>
+        <v>1.45</v>
       </c>
       <c r="H21" t="n">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="I21" t="n">
-        <v>7.4</v>
+        <v>5.75</v>
       </c>
       <c r="J21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.83</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>9</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.57</v>
-      </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T21" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.87</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
-        <v>7.8</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>7</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU21" t="n">
         <v>9</v>
       </c>
-      <c r="AA21" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>175</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>40</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AU21" t="n">
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
         <v>8</v>
       </c>
-      <c r="AV21" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AX21" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AY21" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AZ21" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="BA21" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BB21" t="n">
-        <v>450</v>
-      </c>
-      <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>AwSmRIc5</t>
+          <t>Uyjcly3k</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4356,175 +4360,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.27</v>
+        <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
       </c>
       <c r="T22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="V22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W22" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="X22" t="n">
-        <v>11.25</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB22" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.4</v>
+        <v>11</v>
       </c>
       <c r="AD22" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AH22" t="n">
         <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10.25</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV22" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="AX22" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6qpMCJrC</t>
+          <t>21d6tBto</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4534,175 +4542,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Pathum United</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>5.1</v>
+        <v>1.72</v>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>1.57</v>
+        <v>4.35</v>
       </c>
       <c r="J23" t="n">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R23" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U23" t="n">
         <v>1.7</v>
       </c>
-      <c r="R23" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W23" t="n">
-        <v>15</v>
+        <v>7.8</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>8.75</v>
       </c>
       <c r="Y23" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="Z23" t="n">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AB23" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC23" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE23" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AF23" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AG23" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="AI23" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AK23" t="n">
-        <v>11.75</v>
+        <v>70</v>
       </c>
       <c r="AL23" t="n">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="AM23" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AX23" t="n">
         <v>23</v>
       </c>
-      <c r="AN23" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>175</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AY23" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="BA23" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="BB23" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC23" t="inlineStr"/>
-      <c r="BD23" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>51</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CvAgMa3b</t>
+          <t>AwSmRIc5</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4712,179 +4724,175 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.85</v>
+        <v>2.27</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.35</v>
       </c>
       <c r="I24" t="n">
-        <v>4</v>
+        <v>2.92</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.92</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>4.75</v>
+        <v>3.45</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P24" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V24" t="n">
         <v>2.05</v>
       </c>
-      <c r="R24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W24" t="n">
-        <v>6.5</v>
+        <v>8.25</v>
       </c>
       <c r="X24" t="n">
-        <v>8.5</v>
+        <v>11.25</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AB24" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF24" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG24" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AJ24" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AK24" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AR24" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW24" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AX24" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AY24" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AZ24" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BA24" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BB24" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>301</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BC24" t="inlineStr"/>
+      <c r="BD24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GW6AIH2N</t>
+          <t>6qpMCJrC</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4894,179 +4902,175 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Pathum United</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.83</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I25" t="n">
-        <v>4.33</v>
+        <v>1.6</v>
       </c>
       <c r="J25" t="n">
-        <v>2.5</v>
+        <v>4.9</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>4.75</v>
+        <v>2.12</v>
       </c>
       <c r="M25" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
-        <v>1.8</v>
+        <v>2.07</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="X25" t="n">
-        <v>8.5</v>
+        <v>32</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>15</v>
+        <v>90</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC25" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="AD25" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
       </c>
       <c r="AF25" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG25" t="n">
-        <v>301</v>
+        <v>400</v>
       </c>
       <c r="AH25" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK25" t="n">
         <v>12</v>
       </c>
-      <c r="AI25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>41</v>
-      </c>
       <c r="AL25" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.75</v>
+        <v>6.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="AQ25" t="n">
-        <v>34</v>
+        <v>150</v>
       </c>
       <c r="AR25" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW25" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="AX25" t="n">
-        <v>23</v>
+        <v>7.6</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AZ25" t="n">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="BA25" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>fcYxDTMk</t>
+          <t>CvAgMa3b</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5081,174 +5085,174 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>3.9</v>
+        <v>1.85</v>
       </c>
       <c r="H26" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I26" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="J26" t="n">
-        <v>4.5</v>
+        <v>2.5</v>
       </c>
       <c r="K26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>2.5</v>
+        <v>4.75</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R26" t="n">
-        <v>1.88</v>
+        <v>1.75</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.8</v>
       </c>
-      <c r="V26" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W26" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AA26" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AB26" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AD26" t="n">
         <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH26" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU26" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="BA26" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC26" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD26" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4SgbKBUF</t>
+          <t>GW6AIH2N</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5263,42 +5267,42 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="H27" t="n">
         <v>3.4</v>
       </c>
       <c r="I27" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J27" t="n">
         <v>2.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.4</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M27" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.3</v>
@@ -5307,10 +5311,10 @@
         <v>3.4</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="R27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5319,31 +5323,31 @@
         <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
         <v>8.5</v>
       </c>
-      <c r="X27" t="n">
-        <v>13</v>
-      </c>
       <c r="Y27" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AB27" t="n">
         <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
         <v>6.5</v>
@@ -5355,40 +5359,40 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH27" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO27" t="n">
         <v>10</v>
       </c>
-      <c r="AK27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL27" t="n">
+      <c r="AP27" t="n">
         <v>21</v>
       </c>
-      <c r="AM27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR27" t="n">
         <v>51</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>67</v>
       </c>
       <c r="AS27" t="n">
         <v>151</v>
@@ -5397,40 +5401,40 @@
         <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX27" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA27" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC27" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="BD27" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2yBJ1dI0</t>
+          <t>fcYxDTMk</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5440,172 +5444,536 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Obolon</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kryvbas</t>
+          <t>Sakaryaspor</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="I28" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="J28" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="K28" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="L28" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="O28" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>2.37</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="S28" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.27</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
-        <v>8.25</v>
+        <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y28" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z28" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB28" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD28" t="n">
         <v>7</v>
       </c>
-      <c r="AD28" t="n">
-        <v>6.3</v>
-      </c>
       <c r="AE28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>900</v>
+        <v>251</v>
       </c>
       <c r="AH28" t="n">
-        <v>5.6</v>
+        <v>7.5</v>
       </c>
       <c r="AI28" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="AL28" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AM28" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.2</v>
+        <v>6</v>
       </c>
       <c r="AO28" t="n">
         <v>21</v>
       </c>
       <c r="AP28" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4SgbKBUF</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>hUuu5A7e</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Oleksandriya</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W30" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X30" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>120</v>
       </c>
-      <c r="AR28" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC28" t="n">
+      <c r="AR30" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC30" t="n">
         <v>81</v>
       </c>
-      <c r="BD28" t="n">
+      <c r="BD30" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD30"/>
+  <dimension ref="A1:BD34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
         <v>3.25</v>
       </c>
       <c r="I2" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>3.1</v>
@@ -762,7 +762,7 @@
         <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -777,10 +777,10 @@
         <v>3.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S2" t="n">
         <v>1.4</v>
@@ -876,10 +876,10 @@
         <v>4.75</v>
       </c>
       <c r="AX2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
         <v>51</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>dSNwn7Vq</t>
+          <t>dlovVx6K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,59 +1092,59 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Sparta Rotterdam</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1159,19 +1159,19 @@
         <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
         <v>26</v>
@@ -1195,37 +1195,37 @@
         <v>10</v>
       </c>
       <c r="AI4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO4" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>13</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
         <v>3</v>
@@ -1237,10 +1237,10 @@
         <v>51</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AX4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>21</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Q1YMsRBN</t>
+          <t>tMMAPGTs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,175 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>NETHERLANDS - EREDIVISIE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>Willem II</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sabah Baku</t>
+          <t>NAC Breda</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K5" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2.95</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>6.65</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.18</v>
+        <v>2.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S5" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W5" t="n">
-        <v>7.6</v>
+        <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>14</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>800</v>
+        <v>401</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>21</v>
       </c>
-      <c r="AM5" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>150</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>12</v>
-      </c>
       <c r="AY5" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BB5" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>dS7JgyQN</t>
+          <t>dSNwn7Vq</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1452,98 +1456,98 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KV Mechelen</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Beerschot VA</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.38</v>
+        <v>2.55</v>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>11</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T6" t="n">
+        <v>3</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W6" t="n">
+        <v>10</v>
+      </c>
+      <c r="X6" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L6" t="n">
-        <v>6</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N6" t="n">
-        <v>21</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P6" t="n">
-        <v>6</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R6" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W6" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>10</v>
-      </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF6" t="n">
         <v>41</v>
@@ -1552,70 +1556,70 @@
         <v>151</v>
       </c>
       <c r="AH6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL6" t="n">
         <v>21</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AM6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>41</v>
       </c>
-      <c r="AJ6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK6" t="n">
+      <c r="AR6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA6" t="n">
         <v>67</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
       </c>
       <c r="BB6" t="n">
         <v>151</v>
       </c>
       <c r="BC6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1624,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>K6rcr6X7</t>
+          <t>Y7RYaA1E</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,143 +1638,143 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Patro Eisden</t>
+          <t>BW Linz</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>RFC Liege</t>
+          <t>Grazer AK</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
+        <v>10</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W7" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>17</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA7" t="n">
+      <c r="AJ7" t="n">
         <v>12</v>
       </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF7" t="n">
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>41</v>
       </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK7" t="n">
+      <c r="AR7" t="n">
         <v>67</v>
       </c>
-      <c r="AL7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
       <c r="AS7" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU7" t="n">
         <v>8</v>
@@ -1779,34 +1783,34 @@
         <v>51</v>
       </c>
       <c r="AW7" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AX7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY7" t="n">
         <v>29</v>
       </c>
-      <c r="AY7" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
       </c>
       <c r="BC7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GKK2oope</t>
+          <t>ATdVukAr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Wolfsberger AC</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>Altach</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.55</v>
+        <v>4.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="K8" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.91</v>
       </c>
-      <c r="L8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
         <v>7</v>
       </c>
       <c r="X8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>13</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AK8" t="n">
         <v>41</v>
       </c>
-      <c r="AC8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
       <c r="AL8" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AP8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>34</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>67</v>
-      </c>
       <c r="AR8" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AX8" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA8" t="n">
         <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>501</v>
       </c>
       <c r="BD8" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>QR97kY5b</t>
+          <t>Q1YMsRBN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,179 +2002,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bohemians</t>
+          <t>Turan</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Dukla Prague</t>
+          <t>Sabah Baku</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R9" t="n">
         <v>1.53</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="S9" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>37</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>40</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT9" t="n">
         <v>2.3</v>
       </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>3</v>
-      </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AZ9" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AuHADdam</t>
+          <t>dS7JgyQN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2180,170 +2180,170 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Aalborg</t>
+          <t>KV Mechelen</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Viborg</t>
+          <t>Beerschot VA</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>3.1</v>
+        <v>1.38</v>
       </c>
       <c r="H10" t="n">
+        <v>5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N10" t="n">
+        <v>21</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P10" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W10" t="n">
+        <v>10</v>
+      </c>
+      <c r="X10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
         <v>3.6</v>
       </c>
-      <c r="I10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="AO10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>17</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>15</v>
-      </c>
-      <c r="X10" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z10" t="n">
+      <c r="AR10" t="n">
         <v>34</v>
       </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF10" t="n">
+      <c r="AS10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX10" t="n">
         <v>34</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AY10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA10" t="n">
         <v>101</v>
       </c>
-      <c r="AH10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>41</v>
-      </c>
       <c r="BB10" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD10" t="n">
         <v>151</v>
@@ -2352,7 +2352,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>vcQvJIyQ</t>
+          <t>K6rcr6X7</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2362,38 +2362,38 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Randers FC</t>
+          <t>Patro Eisden</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vejle</t>
+          <t>RFC Liege</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I11" t="n">
         <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L11" t="n">
         <v>5.5</v>
@@ -2402,43 +2402,43 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P11" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
@@ -2459,19 +2459,19 @@
         <v>41</v>
       </c>
       <c r="AG11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL11" t="n">
         <v>41</v>
@@ -2480,7 +2480,7 @@
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO11" t="n">
         <v>7.5</v>
@@ -2498,7 +2498,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU11" t="n">
         <v>8</v>
@@ -2507,34 +2507,34 @@
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA11" t="n">
         <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>pAcE4MPc</t>
+          <t>GKK2oope</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2549,174 +2549,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kaiserslautern</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Braunschweig</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="K12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T12" t="n">
         <v>2.25</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N12" t="n">
-        <v>13</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH12" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>12</v>
-      </c>
       <c r="AI12" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AJ12" t="n">
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
         <v>4.5</v>
       </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nZgV0vPM</t>
+          <t>QR97kY5b</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2726,167 +2726,167 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GERMANY - 2. BUNDESLIGA</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Regensburg</t>
+          <t>Bohemians</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Magdeburg</t>
+          <t>Dukla Prague</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>1.95</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
-        <v>2.6</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X13" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL13" t="n">
         <v>41</v>
       </c>
-      <c r="AA13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB13" t="n">
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX13" t="n">
         <v>29</v>
       </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="BA13" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BC13" t="n">
         <v>81</v>
@@ -2898,7 +2898,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AThsuj5j</t>
+          <t>AuHADdam</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2908,41 +2908,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mannheim</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Hannover II</t>
+          <t>Viborg</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="J14" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="K14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2951,91 +2951,91 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.35</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="W14" t="n">
+        <v>15</v>
+      </c>
+      <c r="X14" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA14" t="n">
+      <c r="AK14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL14" t="n">
         <v>15</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AM14" t="n">
         <v>21</v>
       </c>
-      <c r="AC14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI14" t="n">
+      <c r="AN14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
         <v>21</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>51</v>
@@ -3044,43 +3044,43 @@
         <v>101</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW14" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="n">
         <v>151</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>lGDLOvyB</t>
+          <t>vcQvJIyQ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3090,74 +3090,74 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paks</t>
+          <t>Randers FC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zalaegerszegi</t>
+          <t>Vejle</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J15" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V15" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X15" t="n">
         <v>8.5</v>
@@ -3166,22 +3166,22 @@
         <v>8.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3190,7 +3190,7 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI15" t="n">
         <v>29</v>
@@ -3211,22 +3211,22 @@
         <v>3.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AP15" t="n">
         <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3235,10 +3235,10 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY15" t="n">
         <v>29</v>
@@ -3250,15 +3250,19 @@
         <v>101</v>
       </c>
       <c r="BB15" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>zcJ7zVM8</t>
+          <t>pAcE4MPc</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,80 +3272,80 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>08:15</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Radomiak Radom</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Braunschweig</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>2.25</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
         <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L16" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P16" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V16" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>21</v>
@@ -3350,28 +3354,28 @@
         <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
         <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3386,10 +3390,10 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3401,25 +3405,25 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
         <v>7.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>51</v>
@@ -3428,7 +3432,7 @@
         <v>67</v>
       </c>
       <c r="BB16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
         <v>81</v>
@@ -3440,7 +3444,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Am7TYGgR</t>
+          <t>nZgV0vPM</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,134 +3454,134 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Warta Poznan</t>
+          <t>Regensburg</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Pogon Siedlce</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="G17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K17" t="n">
         <v>2.3</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L17" t="n">
-        <v>3.75</v>
+        <v>2.63</v>
       </c>
       <c r="M17" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O17" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="R17" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="S17" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T17" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U17" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AB17" t="n">
         <v>29</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AD17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
         <v>9.5</v>
       </c>
       <c r="AI17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL17" t="n">
         <v>15</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
       <c r="AM17" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR17" t="n">
         <v>67</v>
@@ -3586,31 +3590,31 @@
         <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AX17" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AY17" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="BA17" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="BC17" t="n">
         <v>81</v>
@@ -3622,7 +3626,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pM9zOdlg</t>
+          <t>AThsuj5j</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3632,167 +3636,167 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08:00</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Mannheim</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Oliveirense</t>
+          <t>Hannover II</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.38</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I18" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="J18" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AA18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>12</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM18" t="n">
         <v>29</v>
       </c>
-      <c r="AC18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB18" t="n">
         <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>351</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3804,7 +3808,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IsvE5N6D</t>
+          <t>lGDLOvyB</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3814,179 +3818,175 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Paks</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mladost</t>
+          <t>Zalaegerszegi</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="H19" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.3</v>
+        <v>5.25</v>
       </c>
       <c r="J19" t="n">
-        <v>2.37</v>
+        <v>2.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.07</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="M19" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.77</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.15</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.57</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="W19" t="n">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AA19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AB19" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>6.4</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AF19" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AI19" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AO19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP19" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AQ19" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.57</v>
+        <v>3.4</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AV19" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="AX19" t="n">
         <v>26</v>
       </c>
       <c r="AY19" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="BA19" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Qo8HeMrJ</t>
+          <t>tfMFY8iL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3996,47 +3996,47 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Rakow</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Korona Kielce</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="I20" t="n">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4045,118 +4045,118 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X20" t="n">
         <v>6</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA20" t="n">
         <v>15</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
       </c>
       <c r="AB20" t="n">
         <v>34</v>
       </c>
       <c r="AC20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD20" t="n">
         <v>8</v>
       </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE20" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>21</v>
       </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV20" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AY20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ20" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="BC20" t="n">
         <v>81</v>
@@ -4168,7 +4168,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>YwSruIWg</t>
+          <t>zB2i0dm2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4178,86 +4178,86 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Ostersund</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Lunds</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.45</v>
+        <v>2.9</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.75</v>
+        <v>2.35</v>
       </c>
       <c r="J21" t="n">
-        <v>2.05</v>
+        <v>3.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>6.5</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="R21" t="n">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V21" t="n">
         <v>2</v>
       </c>
-      <c r="V21" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X21" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
@@ -4266,91 +4266,91 @@
         <v>11</v>
       </c>
       <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AI21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>21</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AL21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR21" t="n">
         <v>67</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
       </c>
       <c r="AS21" t="n">
         <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV21" t="n">
         <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>8</v>
+        <v>4.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>41</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>126</v>
-      </c>
       <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
         <v>151</v>
       </c>
-      <c r="BB21" t="n">
-        <v>301</v>
-      </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD21" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Uyjcly3k</t>
+          <t>0p8jaqJa</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4360,59 +4360,59 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:40</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Lugano</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Al Kholood</t>
         </is>
       </c>
       <c r="G22" t="n">
         <v>2.1</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="J22" t="n">
         <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P22" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4421,10 +4421,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
         <v>8</v>
@@ -4433,19 +4433,19 @@
         <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
         <v>19</v>
       </c>
       <c r="AA22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>6.5</v>
@@ -4457,13 +4457,13 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH22" t="n">
         <v>10</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
         <v>12</v>
@@ -4484,7 +4484,7 @@
         <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4505,10 +4505,10 @@
         <v>51</v>
       </c>
       <c r="AW22" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>26</v>
@@ -4520,7 +4520,7 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4532,7 +4532,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>21d6tBto</t>
+          <t>IsvE5N6D</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4542,167 +4542,167 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Wil</t>
+          <t>Mladost</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H23" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>2.37</v>
       </c>
       <c r="K23" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="L23" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="O23" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P23" t="n">
-        <v>3.7</v>
+        <v>2.77</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="T23" t="n">
-        <v>2.92</v>
+        <v>2.57</v>
       </c>
       <c r="U23" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.7</v>
       </c>
-      <c r="V23" t="n">
-        <v>2.05</v>
-      </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>5.7</v>
       </c>
       <c r="X23" t="n">
-        <v>8.75</v>
+        <v>7.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
         <v>14</v>
       </c>
       <c r="AA23" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB23" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="AE23" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AG23" t="n">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>14</v>
+        <v>10.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AL23" t="n">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="AM23" t="n">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
-        <v>16.5</v>
+        <v>20</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR23" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AS23" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>35</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>150</v>
+      </c>
+      <c r="BA23" t="n">
         <v>200</v>
       </c>
-      <c r="AT23" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>120</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>150</v>
-      </c>
       <c r="BB23" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="BC23" t="n">
         <v>51</v>
@@ -4714,7 +4714,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AwSmRIc5</t>
+          <t>Qo8HeMrJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4724,175 +4724,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Lamphun Warrior</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.27</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2.92</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.92</v>
+        <v>2.6</v>
       </c>
       <c r="K24" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>9</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.1</v>
       </c>
-      <c r="L24" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.87</v>
-      </c>
       <c r="R24" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="S24" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
-        <v>8.25</v>
+        <v>6.5</v>
       </c>
       <c r="X24" t="n">
-        <v>11.25</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>400</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
         <v>10</v>
       </c>
       <c r="AI24" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AJ24" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="AO24" t="n">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AS24" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>4.9</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="AY24" t="n">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AZ24" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="BA24" t="n">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC24" t="inlineStr"/>
-      <c r="BD24" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6qpMCJrC</t>
+          <t>YwSruIWg</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4902,175 +4906,179 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SWEDEN - SUPERETTAN</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Ostersund</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Pathum United</t>
+          <t>Lunds</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>1.48</v>
       </c>
       <c r="H25" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="I25" t="n">
-        <v>1.6</v>
+        <v>5.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4.9</v>
+        <v>2.05</v>
       </c>
       <c r="K25" t="n">
         <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>2.12</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>8.25</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
         <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="V25" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W25" t="n">
-        <v>16</v>
+        <v>6.5</v>
       </c>
       <c r="X25" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>8.25</v>
+        <v>11</v>
       </c>
       <c r="AD25" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15</v>
       </c>
-      <c r="AF25" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>7.7</v>
-      </c>
       <c r="AI25" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>23</v>
       </c>
-      <c r="AN25" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>27</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>150</v>
-      </c>
       <c r="AR25" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AS25" t="n">
-        <v>350</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>3</v>
       </c>
       <c r="AU25" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>3.55</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>7.6</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="BA25" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CvAgMa3b</t>
+          <t>Uyjcly3k</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5080,128 +5088,128 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Lugano</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Zurich</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I26" t="n">
         <v>3.6</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
         <v>4</v>
       </c>
-      <c r="J26" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>4.75</v>
-      </c>
       <c r="M26" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P26" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R26" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="S26" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9</v>
       </c>
       <c r="Z26" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA26" t="n">
         <v>15</v>
       </c>
-      <c r="AA26" t="n">
-        <v>17</v>
-      </c>
       <c r="AB26" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AD26" t="n">
         <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
       </c>
       <c r="AL26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM26" t="n">
         <v>34</v>
       </c>
-      <c r="AM26" t="n">
-        <v>41</v>
-      </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP26" t="n">
         <v>21</v>
@@ -5216,43 +5224,43 @@
         <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA26" t="n">
         <v>81</v>
       </c>
-      <c r="BA26" t="n">
-        <v>101</v>
-      </c>
       <c r="BB26" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="BD26" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GW6AIH2N</t>
+          <t>21d6tBto</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5262,179 +5270,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Wil</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="H27" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="J27" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
-        <v>1.3</v>
+        <v>1.24</v>
       </c>
       <c r="P27" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R27" t="n">
         <v>2.05</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.8</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T27" t="n">
-        <v>2.63</v>
+        <v>2.92</v>
       </c>
       <c r="U27" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="V27" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="W27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="X27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU27" t="n">
         <v>7</v>
       </c>
-      <c r="X27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV27" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW27" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AX27" t="n">
         <v>23</v>
       </c>
       <c r="AY27" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>150</v>
       </c>
       <c r="BB27" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BC27" t="n">
-        <v>276</v>
+        <v>51</v>
       </c>
       <c r="BD27" t="n">
-        <v>301</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>fcYxDTMk</t>
+          <t>AwSmRIc5</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5444,179 +5452,175 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Lamphun Warrior</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sakaryaspor</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="I28" t="n">
-        <v>1.85</v>
+        <v>3.05</v>
       </c>
       <c r="J28" t="n">
-        <v>4.5</v>
+        <v>2.82</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L28" t="n">
-        <v>2.5</v>
+        <v>3.55</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="O28" t="n">
         <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R28" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S28" t="n">
         <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="V28" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="W28" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z28" t="n">
         <v>21</v>
       </c>
-      <c r="Y28" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>41</v>
-      </c>
       <c r="AA28" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>45</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU28" t="n">
         <v>7</v>
       </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX28" t="n">
-        <v>10</v>
+        <v>16.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ28" t="n">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="BA28" t="n">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="BB28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>126</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4SgbKBUF</t>
+          <t>6qpMCJrC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5626,179 +5630,175 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Corum</t>
+          <t>Pathum United</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.95</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="J29" t="n">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.25</v>
+        <v>2.12</v>
       </c>
       <c r="M29" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>8.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>2.07</v>
       </c>
       <c r="S29" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="T29" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U29" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="V29" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W29" t="n">
-        <v>8.5</v>
+        <v>16</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>15.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AD29" t="n">
-        <v>6.5</v>
+        <v>7.8</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AG29" t="n">
-        <v>251</v>
+        <v>400</v>
       </c>
       <c r="AH29" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK29" t="n">
         <v>12</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>26</v>
-      </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="AM29" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>6.7</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="AQ29" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>175</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV29" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>4.5</v>
+        <v>3.55</v>
       </c>
       <c r="AX29" t="n">
-        <v>15</v>
+        <v>7.6</v>
       </c>
       <c r="AY29" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="AZ29" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="BB29" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>126</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>hUuu5A7e</t>
+          <t>CvAgMa3b</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5808,172 +5808,900 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Veres-Rivne</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Oleksandriya</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3.75</v>
+        <v>1.85</v>
       </c>
       <c r="H30" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.93</v>
+        <v>4</v>
       </c>
       <c r="J30" t="n">
-        <v>4.25</v>
+        <v>2.5</v>
       </c>
       <c r="K30" t="n">
-        <v>2.02</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>8.65</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="P30" t="n">
-        <v>2.6</v>
+        <v>3.25</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R30" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
       </c>
       <c r="T30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GW6AIH2N</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
+        <v>10</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W31" t="n">
+        <v>7</v>
+      </c>
+      <c r="X31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>276</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>fcYxDTMk</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sakaryaspor</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>11</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W32" t="n">
+        <v>12</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>4SgbKBUF</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Erokspor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Corum</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>hUuu5A7e</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Veres-Rivne</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Oleksandriya</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L34" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N34" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T34" t="n">
         <v>2.4</v>
       </c>
-      <c r="U30" t="n">
+      <c r="U34" t="n">
         <v>1.93</v>
       </c>
-      <c r="V30" t="n">
+      <c r="V34" t="n">
         <v>1.7</v>
       </c>
-      <c r="W30" t="n">
+      <c r="W34" t="n">
         <v>9.25</v>
       </c>
-      <c r="X30" t="n">
+      <c r="X34" t="n">
         <v>19</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Y34" t="n">
         <v>13</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="Z34" t="n">
         <v>55</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AA34" t="n">
         <v>40</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AB34" t="n">
         <v>50</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AC34" t="n">
         <v>8</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AD34" t="n">
         <v>6.4</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AE34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AF34" t="n">
         <v>100</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AG34" t="n">
         <v>1000</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AH34" t="n">
         <v>6.1</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AI34" t="n">
         <v>8.25</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AJ34" t="n">
         <v>8.75</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AK34" t="n">
         <v>16.5</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AL34" t="n">
         <v>17.5</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AM34" t="n">
         <v>35</v>
       </c>
-      <c r="AN30" t="n">
+      <c r="AN34" t="n">
         <v>5.4</v>
       </c>
-      <c r="AO30" t="n">
+      <c r="AO34" t="n">
         <v>21</v>
       </c>
-      <c r="AP30" t="n">
+      <c r="AP34" t="n">
         <v>30</v>
       </c>
-      <c r="AQ30" t="n">
+      <c r="AQ34" t="n">
         <v>120</v>
       </c>
-      <c r="AR30" t="n">
+      <c r="AR34" t="n">
         <v>175</v>
       </c>
-      <c r="AS30" t="n">
+      <c r="AS34" t="n">
         <v>450</v>
       </c>
-      <c r="AT30" t="n">
+      <c r="AT34" t="n">
         <v>2.37</v>
       </c>
-      <c r="AU30" t="n">
+      <c r="AU34" t="n">
         <v>7.7</v>
       </c>
-      <c r="AV30" t="n">
+      <c r="AV34" t="n">
         <v>80</v>
       </c>
-      <c r="AW30" t="n">
+      <c r="AW34" t="n">
         <v>3.65</v>
       </c>
-      <c r="AX30" t="n">
+      <c r="AX34" t="n">
         <v>9.75</v>
       </c>
-      <c r="AY30" t="n">
+      <c r="AY34" t="n">
         <v>21</v>
       </c>
-      <c r="AZ30" t="n">
+      <c r="AZ34" t="n">
         <v>37</v>
       </c>
-      <c r="BA30" t="n">
+      <c r="BA34" t="n">
         <v>80</v>
       </c>
-      <c r="BB30" t="n">
+      <c r="BB34" t="n">
         <v>300</v>
       </c>
-      <c r="BC30" t="n">
+      <c r="BC34" t="n">
         <v>81</v>
       </c>
-      <c r="BD30" t="n">
+      <c r="BD34" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD47"/>
+  <dimension ref="A1:BD44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,10 +765,10 @@
         <v>2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -777,13 +777,13 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T2" t="n">
         <v>3.4</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.3</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -977,16 +977,16 @@
         <v>2.05</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>13</v>
@@ -1013,31 +1013,31 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
         <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1049,7 +1049,7 @@
         <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1058,7 +1058,7 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>23</v>
@@ -1067,13 +1067,13 @@
         <v>29</v>
       </c>
       <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="BB3" t="n">
-        <v>101</v>
-      </c>
       <c r="BC3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
         <v>1.08</v>
@@ -1159,10 +1159,10 @@
         <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y4" t="n">
         <v>9</v>
@@ -1171,7 +1171,7 @@
         <v>15</v>
       </c>
       <c r="AA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
         <v>34</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI4" t="n">
         <v>21</v>
@@ -1201,19 +1201,19 @@
         <v>15</v>
       </c>
       <c r="AK4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="n">
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1225,13 +1225,13 @@
         <v>67</v>
       </c>
       <c r="AS4" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1243,7 +1243,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1252,10 +1252,10 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>126</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>KtV0tTxf</t>
+          <t>OEyhrk8s</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1284,55 +1284,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Holstein Kiel</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Mainz</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="I5" t="n">
-        <v>2.25</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>1.67</v>
@@ -1341,31 +1341,31 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X5" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB5" t="n">
         <v>23</v>
       </c>
-      <c r="AB5" t="n">
-        <v>29</v>
-      </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>41</v>
@@ -1374,43 +1374,43 @@
         <v>151</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR5" t="n">
         <v>51</v>
       </c>
-      <c r="AR5" t="n">
-        <v>67</v>
-      </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>7.5</v>
@@ -1422,22 +1422,22 @@
         <v>501</v>
       </c>
       <c r="AX5" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA5" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>OEyhrk8s</t>
+          <t>KvdF6EVj</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,170 +1456,170 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>2.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA6" t="n">
         <v>15</v>
       </c>
-      <c r="AA6" t="n">
-        <v>13</v>
-      </c>
       <c r="AB6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI6" t="n">
         <v>23</v>
       </c>
-      <c r="AC6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO6" t="n">
         <v>9.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
       </c>
       <c r="AS6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB6" t="n">
         <v>126</v>
       </c>
-      <c r="AT6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>81</v>
-      </c>
       <c r="BC6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1672,70 +1672,70 @@
         <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="O7" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="P7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="T7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="U7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>12</v>
       </c>
       <c r="Z7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA7" t="n">
         <v>11</v>
       </c>
       <c r="AB7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD7" t="n">
         <v>19</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH7" t="n">
         <v>41</v>
@@ -1747,22 +1747,22 @@
         <v>41</v>
       </c>
       <c r="AK7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AL7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AM7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ7" t="n">
         <v>9</v>
@@ -1774,13 +1774,13 @@
         <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW7" t="n">
         <v>151</v>
@@ -1789,19 +1789,19 @@
         <v>15</v>
       </c>
       <c r="AY7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AZ7" t="n">
         <v>51</v>
       </c>
       <c r="BA7" t="n">
+        <v>451</v>
+      </c>
+      <c r="BB7" t="n">
         <v>351</v>
       </c>
-      <c r="BB7" t="n">
-        <v>251</v>
-      </c>
       <c r="BC7" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1842,19 +1842,19 @@
         <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I8" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="J8" t="n">
         <v>2.75</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1863,34 +1863,34 @@
         <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9</v>
@@ -1899,13 +1899,13 @@
         <v>17</v>
       </c>
       <c r="AA8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD8" t="n">
         <v>6.5</v>
@@ -1914,10 +1914,10 @@
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG8" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH8" t="n">
         <v>9.5</v>
@@ -1938,13 +1938,13 @@
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO8" t="n">
         <v>11</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ8" t="n">
         <v>41</v>
@@ -1956,10 +1956,10 @@
         <v>201</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV8" t="n">
         <v>67</v>
@@ -1971,7 +1971,7 @@
         <v>5.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ8" t="n">
         <v>34</v>
@@ -1980,13 +1980,13 @@
         <v>81</v>
       </c>
       <c r="BB8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2021,16 +2021,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2072,7 +2072,7 @@
         <v>9</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
@@ -2114,7 +2114,7 @@
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM9" t="n">
         <v>29</v>
@@ -2135,7 +2135,7 @@
         <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
         <v>3.25</v>
@@ -2144,10 +2144,10 @@
         <v>7.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AX9" t="n">
         <v>5.5</v>
@@ -2168,7 +2168,7 @@
         <v>151</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
@@ -2203,19 +2203,19 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I10" t="n">
         <v>3.8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="L10" t="n">
         <v>4.35</v>
@@ -2224,7 +2224,7 @@
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="O10" t="n">
         <v>1.42</v>
@@ -2245,22 +2245,22 @@
         <v>2.32</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="W10" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="X10" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
         <v>18</v>
@@ -2269,13 +2269,13 @@
         <v>37</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF10" t="n">
         <v>120</v>
@@ -2290,10 +2290,10 @@
         <v>18.5</v>
       </c>
       <c r="AJ10" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK10" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL10" t="n">
         <v>45</v>
@@ -2305,10 +2305,10 @@
         <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ10" t="n">
         <v>40</v>
@@ -2317,29 +2317,29 @@
         <v>90</v>
       </c>
       <c r="AS10" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT10" t="n">
         <v>2.3</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV10" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
         <v>5.4</v>
       </c>
       <c r="AY10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ10" t="n">
         <v>35</v>
       </c>
       <c r="BA10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB10" t="n">
         <v>200</v>
@@ -2381,16 +2381,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H11" t="n">
         <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K11" t="n">
         <v>2</v>
@@ -2405,28 +2405,28 @@
         <v>7.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2441,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="AA11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
@@ -2450,22 +2450,22 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2480,7 +2480,7 @@
         <v>34</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>23</v>
@@ -2495,10 +2495,10 @@
         <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>9</v>
@@ -2528,7 +2528,7 @@
         <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
@@ -2781,10 +2781,10 @@
         <v>1.57</v>
       </c>
       <c r="S13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U13" t="n">
         <v>2</v>
@@ -2820,7 +2820,7 @@
         <v>17</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>351</v>
@@ -2862,7 +2862,7 @@
         <v>301</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU13" t="n">
         <v>9</v>
@@ -2889,7 +2889,7 @@
         <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="n">
         <v>51</v>
@@ -3295,7 +3295,7 @@
         <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="J16" t="n">
         <v>2.1</v>
@@ -3304,13 +3304,13 @@
         <v>2.15</v>
       </c>
       <c r="L16" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O16" t="n">
         <v>1.37</v>
@@ -3319,7 +3319,7 @@
         <v>2.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R16" t="n">
         <v>1.7</v>
@@ -3328,7 +3328,7 @@
         <v>1.44</v>
       </c>
       <c r="T16" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.1</v>
@@ -3337,25 +3337,25 @@
         <v>1.65</v>
       </c>
       <c r="W16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="X16" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AB16" t="n">
         <v>37</v>
       </c>
       <c r="AC16" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD16" t="n">
         <v>7.6</v>
@@ -3364,34 +3364,34 @@
         <v>22</v>
       </c>
       <c r="AF16" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG16" t="n">
         <v>1250</v>
       </c>
       <c r="AH16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AI16" t="n">
         <v>40</v>
       </c>
       <c r="AJ16" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK16" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AL16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO16" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AP16" t="n">
         <v>18.5</v>
@@ -3406,26 +3406,26 @@
         <v>300</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AY16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ16" t="n">
         <v>40</v>
       </c>
-      <c r="AZ16" t="n">
-        <v>45</v>
-      </c>
       <c r="BA16" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BB16" t="n">
         <v>300</v>
@@ -3438,7 +3438,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OvoQxeMh</t>
+          <t>htOkKtgm</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3448,171 +3448,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ceske Budejovice</t>
+          <t>AEL Limassol</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Slavia Prague</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>19</v>
+        <v>5.8</v>
       </c>
       <c r="H17" t="n">
-        <v>12</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>1.07</v>
+        <v>1.47</v>
       </c>
       <c r="J17" t="n">
-        <v>19</v>
+        <v>5.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.36</v>
+        <v>1.93</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>26</v>
+        <v>10.25</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>4.8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="S17" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="T17" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="U17" t="n">
-        <v>2.63</v>
+        <v>1.65</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>2.12</v>
       </c>
       <c r="W17" t="n">
-        <v>34</v>
+        <v>18.5</v>
       </c>
       <c r="X17" t="n">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="Y17" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>401</v>
+        <v>120</v>
       </c>
       <c r="AA17" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="AB17" t="n">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="AC17" t="n">
-        <v>23</v>
+        <v>10.25</v>
       </c>
       <c r="AD17" t="n">
-        <v>23</v>
+        <v>9.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>51</v>
+        <v>16.5</v>
       </c>
       <c r="AF17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AG17" t="inlineStr"/>
+        <v>60</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>350</v>
+      </c>
       <c r="AH17" t="n">
-        <v>9.5</v>
+        <v>8.75</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>11.75</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN17" t="n">
-        <v>21</v>
+        <v>7.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="AP17" t="n">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="AQ17" t="n">
-        <v>501</v>
+        <v>175</v>
       </c>
       <c r="AR17" t="n">
-        <v>501</v>
-      </c>
-      <c r="AS17" t="inlineStr"/>
+        <v>175</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>300</v>
+      </c>
       <c r="AT17" t="n">
-        <v>4.33</v>
+        <v>3.45</v>
       </c>
       <c r="AU17" t="n">
-        <v>15</v>
+        <v>7.3</v>
       </c>
       <c r="AV17" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>3.1</v>
+        <v>3.55</v>
       </c>
       <c r="AY17" t="n">
-        <v>4.33</v>
+        <v>6.7</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA17" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="BB17" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BC17" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GEsIvHit</t>
+          <t>vL8R9EbC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3622,95 +3626,95 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Karvina</t>
+          <t>Sonderjyske</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>FK Pardubice</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.6</v>
+        <v>5.75</v>
       </c>
       <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T18" t="n">
         <v>3.5</v>
       </c>
-      <c r="I18" t="n">
-        <v>5</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L18" t="n">
-        <v>5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N18" t="n">
-        <v>13</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="U18" t="n">
         <v>1.67</v>
       </c>
-      <c r="R18" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.7</v>
-      </c>
       <c r="V18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="X18" t="n">
-        <v>8.5</v>
+        <v>34</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="AA18" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>13</v>
@@ -3722,79 +3726,79 @@
         <v>151</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP18" t="n">
         <v>29</v>
       </c>
-      <c r="AJ18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW18" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX18" t="n">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>7.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BC18" t="n">
         <v>101</v>
       </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
       <c r="BD18" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vL8R9EbC</t>
+          <t>h4ppcyF6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3804,7 +3808,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3814,37 +3818,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sonderjyske</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Brondby</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.75</v>
+        <v>1.29</v>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="I19" t="n">
-        <v>1.55</v>
+        <v>8</v>
       </c>
       <c r="J19" t="n">
-        <v>5.5</v>
+        <v>1.73</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L19" t="n">
-        <v>2.05</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3853,121 +3857,121 @@
         <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R19" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>19</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z19" t="n">
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV19" t="n">
         <v>51</v>
       </c>
-      <c r="AA19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
+      <c r="AW19" t="n">
         <v>151</v>
       </c>
-      <c r="AH19" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS19" t="n">
+      <c r="AX19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
         <v>151</v>
       </c>
-      <c r="AT19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>21</v>
-      </c>
       <c r="BB19" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>
@@ -4187,13 +4191,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="H21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
         <v>2.3</v>
@@ -4217,10 +4221,10 @@
         <v>4.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S21" t="n">
         <v>1.3</v>
@@ -4235,22 +4239,22 @@
         <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA21" t="n">
         <v>12</v>
       </c>
       <c r="AB21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC21" t="n">
         <v>15</v>
@@ -4265,25 +4269,25 @@
         <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL21" t="n">
         <v>34</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
       <c r="AM21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
         <v>4</v>
@@ -4561,10 +4565,10 @@
         <v>2.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
         <v>1.33</v>
@@ -4573,10 +4577,10 @@
         <v>3.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="S23" t="n">
         <v>1.44</v>
@@ -4725,16 +4729,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H24" t="n">
         <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J24" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K24" t="n">
         <v>2.38</v>
@@ -4806,7 +4810,7 @@
         <v>126</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI24" t="n">
         <v>21</v>
@@ -4824,10 +4828,10 @@
         <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO24" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
@@ -5056,7 +5060,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>zPm14Akd</t>
+          <t>GKQmSDs3</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5066,7 +5070,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5076,165 +5080,165 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DVTK</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.25</v>
+        <v>1.8</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="I26" t="n">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="J26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L26" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N26" t="n">
+        <v>13</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
         <v>1.67</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L26" t="n">
+      <c r="V26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
         <v>9.5</v>
       </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
-        <v>17</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W26" t="n">
-        <v>8</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO26" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AP26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>29</v>
       </c>
-      <c r="AC26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI26" t="n">
+      <c r="AR26" t="n">
         <v>51</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>41</v>
       </c>
       <c r="AS26" t="n">
         <v>126</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="inlineStr"/>
       <c r="AX26" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AY26" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="BA26" t="n">
-        <v>251</v>
+        <v>67</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="BD26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>GKQmSDs3</t>
+          <t>2V9VcraL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5244,159 +5248,161 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N27" t="n">
+        <v>9</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U27" t="n">
         <v>1.8</v>
       </c>
-      <c r="H27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L27" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N27" t="n">
+      <c r="V27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W27" t="n">
+        <v>7</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>13</v>
       </c>
-      <c r="O27" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R27" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15</v>
-      </c>
       <c r="AK27" t="n">
         <v>41</v>
       </c>
       <c r="AL27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
         <v>4</v>
       </c>
       <c r="AO27" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP27" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS27" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
-      <c r="AW27" t="inlineStr"/>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
       <c r="AX27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ27" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA27" t="n">
         <v>67</v>
@@ -5405,14 +5411,16 @@
         <v>81</v>
       </c>
       <c r="BC27" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD27" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2V9VcraL</t>
+          <t>tAhN0aTa</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5422,110 +5430,110 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Renaissance Zemamra</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Jeunesse Sportive Soualem</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I28" t="n">
         <v>3.2</v>
       </c>
-      <c r="I28" t="n">
-        <v>3.5</v>
-      </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K28" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y28" t="n">
         <v>10</v>
       </c>
-      <c r="O28" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="W28" t="n">
-        <v>7</v>
-      </c>
-      <c r="X28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9</v>
-      </c>
       <c r="Z28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB28" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="AD28" t="n">
         <v>6</v>
       </c>
       <c r="AE28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI28" t="n">
         <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>17</v>
       </c>
       <c r="AJ28" t="n">
         <v>13</v>
@@ -5534,67 +5542,63 @@
         <v>41</v>
       </c>
       <c r="AL28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP28" t="n">
         <v>29</v>
       </c>
-      <c r="AM28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS28" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
         <v>81</v>
       </c>
+      <c r="AW28" t="inlineStr"/>
       <c r="AX28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA28" t="n">
         <v>67</v>
       </c>
       <c r="BB28" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC28" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>81</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>tAhN0aTa</t>
+          <t>xxnWbwbC</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5604,7 +5608,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5614,165 +5618,165 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Renaissance Zemamra</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Jeunesse Sportive Soualem</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G29" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L29" t="n">
         <v>2.25</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="I29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.33</v>
-      </c>
       <c r="M29" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N29" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="O29" t="n">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
         <v>1.44</v>
       </c>
-      <c r="S29" t="n">
-        <v>1.62</v>
-      </c>
       <c r="T29" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="U29" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X29" t="n">
-        <v>9.5</v>
+        <v>29</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="Z29" t="n">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="AA29" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AB29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
         <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG29" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AH29" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AI29" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL29" t="n">
         <v>15</v>
       </c>
-      <c r="AJ29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL29" t="n">
+      <c r="AM29" t="n">
         <v>34</v>
       </c>
-      <c r="AM29" t="n">
-        <v>41</v>
-      </c>
       <c r="AN29" t="n">
-        <v>4.33</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AP29" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ29" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="AR29" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AS29" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AU29" t="n">
         <v>9.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW29" t="inlineStr"/>
       <c r="AX29" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AZ29" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BC29" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>xxnWbwbC</t>
+          <t>6yxSEoq1</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5787,42 +5791,42 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>5.5</v>
+        <v>1.67</v>
       </c>
       <c r="H30" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I30" t="n">
-        <v>1.57</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -5831,10 +5835,10 @@
         <v>3</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R30" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
         <v>1.44</v>
@@ -5843,34 +5847,34 @@
         <v>2.63</v>
       </c>
       <c r="U30" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W30" t="n">
+        <v>6</v>
+      </c>
+      <c r="X30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z30" t="n">
         <v>13</v>
       </c>
-      <c r="X30" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>67</v>
-      </c>
       <c r="AA30" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB30" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE30" t="n">
         <v>19</v>
@@ -5882,75 +5886,79 @@
         <v>351</v>
       </c>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI30" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AJ30" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AL30" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="n">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="AP30" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AQ30" t="n">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="AR30" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS30" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT30" t="n">
         <v>2.63</v>
       </c>
       <c r="AU30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
         <v>67</v>
       </c>
-      <c r="AW30" t="inlineStr"/>
+      <c r="AW30" t="n">
+        <v>126</v>
+      </c>
       <c r="AX30" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="AY30" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA30" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BB30" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC30" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD30" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6yxSEoq1</t>
+          <t>dnOU1AGq</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5960,143 +5968,143 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="J31" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L31" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M31" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S31" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T31" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W31" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X31" t="n">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z31" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AA31" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AB31" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
         <v>67</v>
       </c>
       <c r="AG31" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO31" t="n">
         <v>15</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AP31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>51</v>
       </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>29</v>
-      </c>
       <c r="AR31" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS31" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU31" t="n">
         <v>9</v>
@@ -6105,34 +6113,34 @@
         <v>67</v>
       </c>
       <c r="AW31" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX31" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY31" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA31" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB31" t="n">
         <v>101</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>151</v>
       </c>
       <c r="BC31" t="n">
         <v>301</v>
       </c>
       <c r="BD31" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dnOU1AGq</t>
+          <t>hnZHGHXr</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6142,146 +6150,146 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="H32" t="n">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="I32" t="n">
+        <v>8</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N32" t="n">
+        <v>13</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T32" t="n">
         <v>3.25</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.25</v>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
+        <v>7</v>
+      </c>
+      <c r="X32" t="n">
         <v>6.5</v>
       </c>
-      <c r="X32" t="n">
-        <v>11</v>
-      </c>
       <c r="Y32" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AA32" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AD32" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
         <v>67</v>
       </c>
       <c r="AG32" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH32" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AI32" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AK32" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN32" t="n">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AO32" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AQ32" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="AR32" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AS32" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="AU32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV32" t="n">
         <v>67</v>
@@ -6290,22 +6298,22 @@
         <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AY32" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA32" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB32" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD32" t="n">
         <v>81</v>
@@ -6314,7 +6322,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>hnZHGHXr</t>
+          <t>MNpkKKTr</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6324,35 +6332,35 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>1.38</v>
       </c>
       <c r="H33" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I33" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K33" t="n">
         <v>2.4</v>
@@ -6364,7 +6372,7 @@
         <v>1.04</v>
       </c>
       <c r="N33" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O33" t="n">
         <v>1.22</v>
@@ -6373,10 +6381,10 @@
         <v>4</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S33" t="n">
         <v>1.33</v>
@@ -6397,7 +6405,7 @@
         <v>6.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z33" t="n">
         <v>9</v>
@@ -6421,16 +6429,16 @@
         <v>67</v>
       </c>
       <c r="AG33" t="n">
-        <v>351</v>
+        <v>900</v>
       </c>
       <c r="AH33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI33" t="n">
         <v>41</v>
       </c>
       <c r="AJ33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK33" t="n">
         <v>81</v>
@@ -6457,7 +6465,7 @@
         <v>41</v>
       </c>
       <c r="AS33" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT33" t="n">
         <v>3.25</v>
@@ -6469,10 +6477,10 @@
         <v>67</v>
       </c>
       <c r="AW33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX33" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY33" t="n">
         <v>41</v>
@@ -6490,13 +6498,13 @@
         <v>351</v>
       </c>
       <c r="BD33" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MNpkKKTr</t>
+          <t>hK4r15lm</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6506,116 +6514,116 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="H34" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="I34" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J34" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="K34" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
         <v>12</v>
       </c>
       <c r="O34" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="P34" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="R34" t="n">
-        <v>2.05</v>
+        <v>2.63</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="U34" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W34" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="n">
         <v>12</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9</v>
       </c>
       <c r="AE34" t="n">
         <v>21</v>
       </c>
       <c r="AF34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG34" t="n">
-        <v>900</v>
+        <v>600</v>
       </c>
       <c r="AH34" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI34" t="n">
         <v>41</v>
       </c>
       <c r="AJ34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL34" t="n">
         <v>51</v>
@@ -6624,37 +6632,37 @@
         <v>51</v>
       </c>
       <c r="AN34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ34" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS34" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX34" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AY34" t="n">
         <v>41</v>
@@ -6669,16 +6677,16 @@
         <v>151</v>
       </c>
       <c r="BC34" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="BD34" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MadacNmC</t>
+          <t>4b2eI0jJ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6688,179 +6696,179 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Al Riyadh</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Al Ettifaq</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J35" t="n">
         <v>3.3</v>
       </c>
-      <c r="H35" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I35" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4</v>
-      </c>
       <c r="K35" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L35" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="M35" t="n">
         <v>1.07</v>
       </c>
       <c r="N35" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P35" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q35" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R35" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="S35" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="T35" t="n">
-        <v>2.63</v>
+        <v>2.77</v>
       </c>
       <c r="U35" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V35" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="W35" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X35" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="Y35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AY35" t="n">
         <v>13</v>
       </c>
-      <c r="Z35" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF35" t="n">
+      <c r="AZ35" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD35" t="n">
         <v>51</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS35" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT35" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU35" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>hK4r15lm</t>
+          <t>raWEtEn2</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6870,179 +6878,179 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Maribor</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>6.4</v>
       </c>
       <c r="H36" t="n">
-        <v>5.75</v>
+        <v>4.1</v>
       </c>
       <c r="I36" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N36" t="n">
         <v>7.5</v>
       </c>
-      <c r="J36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="K36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L36" t="n">
+      <c r="O36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W36" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>75</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>300</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>350</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY36" t="n">
         <v>7</v>
       </c>
-      <c r="M36" t="n">
+      <c r="AZ36" t="n">
         <v>19</v>
       </c>
-      <c r="N36" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R36" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X36" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF36" t="n">
+      <c r="BA36" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD36" t="n">
         <v>51</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU36" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV36" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>K6prt4rQ</t>
+          <t>pjurCsTa</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7052,179 +7060,179 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Partizan</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Napredak</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.25</v>
+        <v>2.2</v>
       </c>
       <c r="H37" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="I37" t="n">
-        <v>9.5</v>
+        <v>3.3</v>
       </c>
       <c r="J37" t="n">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="K37" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="L37" t="n">
-        <v>8.25</v>
+        <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N37" t="n">
         <v>9</v>
       </c>
       <c r="O37" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P37" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.53</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>2.35</v>
+        <v>1.67</v>
       </c>
       <c r="S37" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V37" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="W37" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X37" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AA37" t="n">
-        <v>10.5</v>
+        <v>19</v>
       </c>
       <c r="AB37" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH37" t="n">
         <v>9</v>
       </c>
-      <c r="AD37" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AE37" t="n">
+      <c r="AI37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP37" t="n">
         <v>23</v>
       </c>
-      <c r="AF37" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH37" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI37" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ37" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>300</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ37" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AR37" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.35</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX37" t="n">
-        <v>10.5</v>
+        <v>5</v>
       </c>
       <c r="AY37" t="n">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="AZ37" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="BA37" t="n">
-        <v>500</v>
+        <v>67</v>
       </c>
       <c r="BB37" t="n">
-        <v>450</v>
+        <v>81</v>
       </c>
       <c r="BC37" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="BD37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4b2eI0jJ</t>
+          <t>2iosLxCU</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7234,179 +7242,177 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.77</v>
+        <v>1.95</v>
       </c>
       <c r="H38" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I38" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="J38" t="n">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="K38" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N38" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P38" t="n">
-        <v>3.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.98</v>
+        <v>2.6</v>
       </c>
       <c r="R38" t="n">
-        <v>1.78</v>
+        <v>1.48</v>
       </c>
       <c r="S38" t="n">
-        <v>1.39</v>
+        <v>1.57</v>
       </c>
       <c r="T38" t="n">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="V38" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="W38" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="X38" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB38" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AD38" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AF38" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>500</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="AI38" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9.25</v>
+        <v>15</v>
       </c>
       <c r="AK38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY38" t="n">
         <v>26</v>
       </c>
-      <c r="AL38" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM38" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN38" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO38" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>13</v>
-      </c>
       <c r="AZ38" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA38" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="BB38" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BD38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>raWEtEn2</t>
+          <t>6PiYMbsI</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7416,179 +7422,179 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Maribor</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>6.4</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1.47</v>
+        <v>2.7</v>
       </c>
       <c r="J39" t="n">
-        <v>6.2</v>
+        <v>3.2</v>
       </c>
       <c r="K39" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L39" t="n">
-        <v>2.02</v>
+        <v>3.4</v>
       </c>
       <c r="M39" t="n">
         <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P39" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.88</v>
+        <v>2.03</v>
       </c>
       <c r="R39" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S39" t="n">
         <v>1.4</v>
       </c>
       <c r="T39" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="U39" t="n">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="V39" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="W39" t="n">
-        <v>15.5</v>
+        <v>8.5</v>
       </c>
       <c r="X39" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="Y39" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Z39" t="n">
-        <v>150</v>
+        <v>23</v>
       </c>
       <c r="AA39" t="n">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="AB39" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AC39" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AD39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU39" t="n">
         <v>8</v>
       </c>
-      <c r="AE39" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ39" t="n">
-        <v>300</v>
-      </c>
-      <c r="AR39" t="n">
-        <v>350</v>
-      </c>
-      <c r="AS39" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT39" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU39" t="n">
-        <v>8.75</v>
-      </c>
       <c r="AV39" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW39" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA39" t="n">
         <v>51</v>
       </c>
-      <c r="AX39" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>22</v>
-      </c>
       <c r="BB39" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="BC39" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BD39" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>pjurCsTa</t>
+          <t>fcW8ARJi</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7598,170 +7604,170 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H40" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L40" t="n">
         <v>3.4</v>
       </c>
-      <c r="J40" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K40" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L40" t="n">
-        <v>4</v>
-      </c>
       <c r="M40" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="R40" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S40" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W40" t="n">
+        <v>11</v>
+      </c>
+      <c r="X40" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU40" t="n">
         <v>7</v>
       </c>
-      <c r="X40" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC40" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD40" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF40" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI40" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ40" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS40" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT40" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU40" t="n">
-        <v>8</v>
-      </c>
       <c r="AV40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX40" t="n">
         <v>5.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ40" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="BA40" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB40" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC40" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="BD40" t="n">
         <v>81</v>
@@ -7770,7 +7776,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2iosLxCU</t>
+          <t>GUViAIP8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7780,168 +7786,170 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="H41" t="n">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="I41" t="n">
-        <v>4.1</v>
+        <v>7</v>
       </c>
       <c r="J41" t="n">
-        <v>2.75</v>
+        <v>1.83</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>2.63</v>
       </c>
       <c r="L41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O41" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q41" t="n">
         <v>1.5</v>
       </c>
-      <c r="P41" t="n">
+      <c r="R41" t="n">
         <v>2.5</v>
       </c>
-      <c r="Q41" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1.48</v>
-      </c>
       <c r="S41" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="T41" t="n">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>2.25</v>
+        <v>1.67</v>
       </c>
       <c r="V41" t="n">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="W41" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="X41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU41" t="n">
         <v>8</v>
       </c>
-      <c r="Y41" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI41" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM41" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN41" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO41" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP41" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ41" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR41" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS41" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU41" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AV41" t="n">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="AW41" t="n">
         <v>81</v>
       </c>
       <c r="AX41" t="n">
-        <v>6</v>
+        <v>8.5</v>
       </c>
       <c r="AY41" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AZ41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA41" t="n">
         <v>101</v>
       </c>
       <c r="BB41" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC41" t="n">
         <v>151</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>351</v>
       </c>
       <c r="BD41" t="n">
         <v>81</v>
@@ -7950,7 +7958,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IR1nawOP</t>
+          <t>vRBoOLYo</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7960,95 +7968,95 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SWEDEN - SUPERETTAN</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sundsvall</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Stockholm Internazionale</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G42" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K42" t="n">
         <v>2.3</v>
       </c>
-      <c r="H42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J42" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.05</v>
-      </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N42" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q42" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="R42" t="n">
-        <v>1.7</v>
+        <v>2.08</v>
       </c>
       <c r="S42" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V42" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W42" t="n">
+        <v>8</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD42" t="n">
         <v>7.5</v>
-      </c>
-      <c r="X42" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>6</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8057,82 +8065,82 @@
         <v>51</v>
       </c>
       <c r="AG42" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH42" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AI42" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AK42" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO42" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AP42" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AQ42" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AR42" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT42" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>126</v>
+        <v>276</v>
       </c>
       <c r="AX42" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY42" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
         <v>29</v>
       </c>
       <c r="BA42" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC42" t="n">
         <v>201</v>
       </c>
       <c r="BD42" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>fcW8ARJi</t>
+          <t>vBiX5CFM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8142,179 +8150,179 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
         <v>2.6</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.05</v>
       </c>
       <c r="L43" t="n">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.57</v>
+        <v>2.2</v>
       </c>
       <c r="R43" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="S43" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>3.4</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>2.5</v>
+        <v>1.73</v>
       </c>
       <c r="W43" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="X43" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="Y43" t="n">
         <v>9</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>15</v>
       </c>
-      <c r="AB43" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI43" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ43" t="n">
-        <v>12</v>
-      </c>
       <c r="AK43" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AM43" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
         <v>11</v>
       </c>
       <c r="AP43" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AQ43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ43" t="n">
         <v>34</v>
       </c>
-      <c r="AR43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS43" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT43" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU43" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX43" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AZ43" t="n">
-        <v>21</v>
-      </c>
       <c r="BA43" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB43" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BC43" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD43" t="n">
         <v>126</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GUViAIP8</t>
+          <t>ph0k6zcc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8324,716 +8332,170 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H44" t="n">
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
       <c r="I44" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J44" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K44" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L44" t="n">
         <v>7</v>
       </c>
-      <c r="J44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L44" t="n">
-        <v>6</v>
-      </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="N44" t="n">
-        <v>19</v>
+        <v>7.4</v>
       </c>
       <c r="O44" t="n">
-        <v>1.14</v>
+        <v>1.45</v>
       </c>
       <c r="P44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U44" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W44" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="X44" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q44" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="Y44" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z44" t="n">
         <v>9.5</v>
       </c>
-      <c r="X44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>10</v>
-      </c>
       <c r="AA44" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB44" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="AC44" t="n">
-        <v>19</v>
+        <v>6.8</v>
       </c>
       <c r="AD44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU44" t="n">
         <v>9.5</v>
       </c>
-      <c r="AE44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8</v>
-      </c>
       <c r="AV44" t="n">
-        <v>41</v>
+        <v>120</v>
       </c>
       <c r="AW44" t="n">
         <v>81</v>
       </c>
       <c r="AX44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY44" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="AZ44" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="BA44" t="n">
-        <v>101</v>
+        <v>400</v>
       </c>
       <c r="BB44" t="n">
-        <v>101</v>
+        <v>500</v>
       </c>
       <c r="BC44" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BD44" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>vRBoOLYo</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="G45" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N45" t="n">
-        <v>13</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V45" t="n">
-        <v>2</v>
-      </c>
-      <c r="W45" t="n">
-        <v>8</v>
-      </c>
-      <c r="X45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ45" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS45" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX45" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY45" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ45" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA45" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB45" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC45" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>vBiX5CFM</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Bandirmaspor</t>
-        </is>
-      </c>
-      <c r="G46" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H46" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I46" t="n">
-        <v>4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M46" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R46" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V46" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ph0k6zcc</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>Rukh Lviv</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H47" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I47" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K47" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L47" t="n">
-        <v>7</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N47" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O47" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P47" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R47" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U47" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V47" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W47" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="X47" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF47" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW47" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX47" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ47" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA47" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB47" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC47" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD47" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD34"/>
+  <dimension ref="A1:BD33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -852,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -870,7 +870,7 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
         <v>451</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.3</v>
@@ -944,7 +944,7 @@
         <v>2.25</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -1004,7 +1004,7 @@
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG3" t="n">
         <v>201</v>
@@ -1013,7 +1013,7 @@
         <v>15</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1114,7 +1114,7 @@
         <v>1.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>4.33</v>
@@ -1132,7 +1132,7 @@
         <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1258,7 +1258,7 @@
         <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H5" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K5" t="n">
         <v>2.3</v>
@@ -1341,22 +1341,22 @@
         <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>8.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
         <v>15</v>
       </c>
-      <c r="AA5" t="n">
-        <v>13</v>
-      </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC5" t="n">
         <v>13</v>
@@ -1377,7 +1377,7 @@
         <v>13</v>
       </c>
       <c r="AI5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1395,13 +1395,13 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>19</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.33</v>
@@ -1505,10 +1505,10 @@
         <v>3.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1541,10 +1541,10 @@
         <v>29</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>17</v>
@@ -1559,7 +1559,7 @@
         <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1577,13 +1577,13 @@
         <v>3.6</v>
       </c>
       <c r="AO6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1607,7 +1607,7 @@
         <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
@@ -1842,25 +1842,25 @@
         <v>7.5</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K8" t="n">
         <v>2.38</v>
       </c>
       <c r="L8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
         <v>1.25</v>
@@ -1869,10 +1869,10 @@
         <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
         <v>1.36</v>
@@ -1905,10 +1905,10 @@
         <v>51</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>21</v>
@@ -1977,7 +1977,7 @@
         <v>19</v>
       </c>
       <c r="BA8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BB8" t="n">
         <v>41</v>
@@ -2045,16 +2045,16 @@
         <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2923,7 +2923,7 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
         <v>3.1</v>
@@ -2932,13 +2932,13 @@
         <v>2.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2959,10 +2959,10 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T14" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U14" t="n">
         <v>1.91</v>
@@ -2974,7 +2974,7 @@
         <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
@@ -3004,7 +3004,7 @@
         <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3111,7 +3111,7 @@
         <v>6.25</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
         <v>1.73</v>
@@ -3120,7 +3120,7 @@
         <v>2.63</v>
       </c>
       <c r="L15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
         <v>1.02</v>
@@ -3144,7 +3144,7 @@
         <v>1.25</v>
       </c>
       <c r="T15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
         <v>1.95</v>
@@ -3153,10 +3153,10 @@
         <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y15" t="n">
         <v>9</v>
@@ -3183,7 +3183,7 @@
         <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -3204,7 +3204,7 @@
         <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
         <v>6</v>
@@ -3216,13 +3216,13 @@
         <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
         <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
         <v>9.5</v>
@@ -3243,7 +3243,7 @@
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3258,7 +3258,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>UJr2i7Hn</t>
+          <t>xpnAkona</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3278,55 +3278,55 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mushuc Runa</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>EL Nacional</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J16" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K16" t="n">
         <v>2.38</v>
       </c>
       <c r="L16" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="R16" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S16" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U16" t="n">
         <v>1.73</v>
@@ -3335,108 +3335,108 @@
         <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
         <v>13</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
       </c>
       <c r="AD16" t="n">
         <v>7.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>51</v>
       </c>
       <c r="AL16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>17</v>
       </c>
       <c r="AQ16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR16" t="n">
         <v>41</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA16" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>vPvwlQWN</t>
+          <t>6VWC9m7j</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3446,179 +3446,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ingolstadt</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>VfL Osnabruck</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.85</v>
+        <v>4.35</v>
       </c>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="I17" t="n">
-        <v>3.6</v>
+        <v>1.91</v>
       </c>
       <c r="J17" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="K17" t="n">
-        <v>2.38</v>
+        <v>1.98</v>
       </c>
       <c r="L17" t="n">
-        <v>4</v>
+        <v>2.57</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>5.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.6</v>
+        <v>2.32</v>
       </c>
       <c r="R17" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>2.47</v>
       </c>
       <c r="U17" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>2.25</v>
+        <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="X17" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="Z17" t="n">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="AB17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>450</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ17" t="n">
         <v>21</v>
       </c>
-      <c r="AC17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>23</v>
-      </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BB17" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sv2lkNQ6</t>
+          <t>zmtsF9qT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,175 +3624,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>6.5</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L18" t="n">
         <v>3.8</v>
       </c>
-      <c r="I18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.1</v>
-      </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="N18" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W18" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>11</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W18" t="n">
-        <v>15</v>
-      </c>
-      <c r="X18" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>21</v>
-      </c>
       <c r="Z18" t="n">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="AA18" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AB18" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>4.65</v>
       </c>
       <c r="AD18" t="n">
-        <v>7.5</v>
+        <v>5.4</v>
       </c>
       <c r="AE18" t="n">
         <v>19</v>
       </c>
       <c r="AF18" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="n">
-        <v>401</v>
+        <v>800</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AI18" t="n">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ18" t="n">
-        <v>8.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="AL18" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>7.5</v>
+        <v>4.35</v>
       </c>
       <c r="AO18" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="AQ18" t="n">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="AR18" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS18" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.12</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>3.4</v>
+        <v>4.65</v>
       </c>
       <c r="AY18" t="n">
-        <v>7.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="BB18" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GKQmSDs3</t>
+          <t>Sv2lkNQ6</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3806,165 +3802,165 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>2.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W19" t="n">
+        <v>15</v>
+      </c>
+      <c r="X19" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL19" t="n">
         <v>13</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP19" t="n">
         <v>41</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AQ19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR19" t="n">
         <v>151</v>
       </c>
-      <c r="AH19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>51</v>
-      </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="AY19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>21</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>26</v>
-      </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="BB19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
@@ -3974,7 +3970,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2V9VcraL</t>
+          <t>GKQmSDs3</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3984,113 +3980,113 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="I20" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R20" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V20" t="n">
         <v>2.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
-        <v>11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD20" t="n">
         <v>7</v>
       </c>
-      <c r="X20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11</v>
-      </c>
       <c r="AI20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -4099,64 +4095,60 @@
         <v>34</v>
       </c>
       <c r="AM20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR20" t="n">
         <v>41</v>
       </c>
-      <c r="AR20" t="n">
-        <v>51</v>
-      </c>
       <c r="AS20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
         <v>67</v>
       </c>
       <c r="BB20" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xxnWbwbC</t>
+          <t>2V9VcraL</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4166,175 +4158,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
-        <v>1.57</v>
+        <v>3.7</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>2.63</v>
       </c>
       <c r="K21" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
+        <v>11</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V21" t="n">
+        <v>2</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y21" t="n">
         <v>9</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W21" t="n">
+      <c r="Z21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE21" t="n">
         <v>13</v>
       </c>
-      <c r="X21" t="n">
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
         <v>29</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>41</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>126</v>
-      </c>
       <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
         <v>151</v>
       </c>
-      <c r="AS21" t="n">
-        <v>351</v>
-      </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
         <v>67</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
-      <c r="AX21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>29</v>
-      </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
       </c>
-      <c r="BD21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6yxSEoq1</t>
+          <t>xxnWbwbC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4349,42 +4345,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.67</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4393,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4405,34 +4401,34 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V22" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W22" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>29</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="AA22" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AC22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>19</v>
@@ -4444,79 +4440,75 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>11</v>
       </c>
-      <c r="AI22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ22" t="n">
+      <c r="AL22" t="n">
         <v>15</v>
       </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP22" t="n">
         <v>41</v>
       </c>
-      <c r="AM22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="AR22" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
       </c>
-      <c r="AW22" t="n">
-        <v>126</v>
-      </c>
+      <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA22" t="n">
         <v>29</v>
       </c>
-      <c r="AZ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>101</v>
-      </c>
       <c r="BB22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="BC22" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>126</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dnOU1AGq</t>
+          <t>6yxSEoq1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4526,143 +4518,143 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>1.67</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N23" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="O23" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="n">
         <v>1.44</v>
       </c>
-      <c r="P23" t="n">
+      <c r="T23" t="n">
         <v>2.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.25</v>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AA23" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
         <v>67</v>
       </c>
       <c r="AG23" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>15</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>13</v>
-      </c>
       <c r="AK23" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AP23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>29</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="AR23" t="n">
         <v>51</v>
       </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
         <v>9</v>
@@ -4671,34 +4663,34 @@
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AX23" t="n">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
         <v>301</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>hnZHGHXr</t>
+          <t>dnOU1AGq</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4708,146 +4700,146 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="I24" t="n">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2.4</v>
       </c>
-      <c r="L24" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N24" t="n">
-        <v>13</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.75</v>
-      </c>
       <c r="R24" t="n">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7</v>
       </c>
       <c r="X24" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC24" t="n">
         <v>6.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA24" t="n">
+      <c r="AD24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AK24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL24" t="n">
         <v>29</v>
       </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AM24" t="n">
         <v>41</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK24" t="n">
+      <c r="AN24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR24" t="n">
         <v>81</v>
       </c>
-      <c r="AL24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>41</v>
-      </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
@@ -4856,22 +4848,22 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY24" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ24" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA24" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB24" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD24" t="n">
         <v>81</v>
@@ -4880,7 +4872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MNpkKKTr</t>
+          <t>hnZHGHXr</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4890,47 +4882,47 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Arka Gdynia</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>S. Wola</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I25" t="n">
         <v>7.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K25" t="n">
         <v>2.4</v>
       </c>
       <c r="L25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
         <v>1.22</v>
@@ -4951,22 +4943,22 @@
         <v>3.25</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W25" t="n">
+        <v>7</v>
+      </c>
+      <c r="X25" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>6</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>12</v>
@@ -4978,28 +4970,28 @@
         <v>12</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
         <v>67</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -5035,10 +5027,10 @@
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
@@ -5047,22 +5039,22 @@
         <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
         <v>351</v>
       </c>
       <c r="BD25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>hK4r15lm</t>
+          <t>MNpkKKTr</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5072,113 +5064,113 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="I26" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J26" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>8</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V26" t="n">
         <v>1.67</v>
       </c>
-      <c r="K26" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L26" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M26" t="n">
-        <v>19</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.83</v>
-      </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z26" t="n">
         <v>8.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE26" t="n">
         <v>23</v>
       </c>
-      <c r="AC26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>21</v>
-      </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI26" t="n">
         <v>41</v>
       </c>
       <c r="AJ26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK26" t="n">
         <v>101</v>
@@ -5190,37 +5182,37 @@
         <v>51</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO26" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS26" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
         <v>9.5</v>
       </c>
       <c r="AV26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW26" t="n">
         <v>51</v>
       </c>
-      <c r="AW26" t="n">
-        <v>81</v>
-      </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY26" t="n">
         <v>41</v>
@@ -5232,19 +5224,19 @@
         <v>151</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="BD26" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>4b2eI0jJ</t>
+          <t>hK4r15lm</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5259,174 +5251,174 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.77</v>
+        <v>1.25</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>6.25</v>
       </c>
       <c r="I27" t="n">
-        <v>2.4</v>
+        <v>8.5</v>
       </c>
       <c r="J27" t="n">
-        <v>3.3</v>
+        <v>1.62</v>
       </c>
       <c r="K27" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L27" t="n">
-        <v>3</v>
+        <v>7.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N27" t="n">
-        <v>6.9</v>
+        <v>12</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="P27" t="n">
-        <v>3.05</v>
+        <v>5.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="R27" t="n">
-        <v>1.78</v>
+        <v>2.63</v>
       </c>
       <c r="S27" t="n">
-        <v>1.39</v>
+        <v>1.25</v>
       </c>
       <c r="T27" t="n">
-        <v>2.77</v>
+        <v>3.75</v>
       </c>
       <c r="U27" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="W27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX27" t="n">
         <v>10</v>
       </c>
-      <c r="Z27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG27" t="n">
+      <c r="AY27" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC27" t="n">
         <v>500</v>
       </c>
-      <c r="AH27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>250</v>
-      </c>
       <c r="BD27" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>raWEtEn2</t>
+          <t>4b2eI0jJ</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5436,170 +5428,170 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Maribor</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>6.4</v>
+        <v>2.77</v>
       </c>
       <c r="H28" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="I28" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="J28" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="K28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>7.5</v>
+        <v>6.9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="R28" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="S28" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T28" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="U28" t="n">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="V28" t="n">
-        <v>1.7</v>
+        <v>1.98</v>
       </c>
       <c r="W28" t="n">
-        <v>15.5</v>
+        <v>9</v>
       </c>
       <c r="X28" t="n">
-        <v>37</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL28" t="n">
         <v>20</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>12.5</v>
       </c>
       <c r="AM28" t="n">
         <v>30</v>
       </c>
       <c r="AN28" t="n">
-        <v>7.5</v>
+        <v>4.8</v>
       </c>
       <c r="AO28" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="AQ28" t="n">
-        <v>300</v>
+        <v>65</v>
       </c>
       <c r="AR28" t="n">
-        <v>350</v>
+        <v>90</v>
       </c>
       <c r="AS28" t="n">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.7</v>
+        <v>2.77</v>
       </c>
       <c r="AU28" t="n">
-        <v>8.75</v>
+        <v>6.7</v>
       </c>
       <c r="AV28" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AW28" t="n">
         <v>51</v>
       </c>
       <c r="AX28" t="n">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="AY28" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AZ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA28" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="BB28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BC28" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD28" t="n">
         <v>51</v>
@@ -5608,7 +5600,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6PiYMbsI</t>
+          <t>raWEtEn2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -5618,179 +5610,179 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Maribor</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>5.9</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>4.15</v>
       </c>
       <c r="I29" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>5.9</v>
       </c>
       <c r="K29" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L29" t="n">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="M29" t="n">
         <v>1.06</v>
       </c>
       <c r="N29" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="R29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="S29" t="n">
         <v>1.4</v>
       </c>
       <c r="T29" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="U29" t="n">
-        <v>1.73</v>
+        <v>2.02</v>
       </c>
       <c r="V29" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="W29" t="n">
-        <v>8.5</v>
+        <v>14.5</v>
       </c>
       <c r="X29" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>19.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="AA29" t="n">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="AB29" t="n">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AD29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI29" t="n">
         <v>6.5</v>
       </c>
-      <c r="AE29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>13</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>8.25</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>9.75</v>
       </c>
       <c r="AL29" t="n">
-        <v>21</v>
+        <v>12.5</v>
       </c>
       <c r="AM29" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>7.3</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="AP29" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="AQ29" t="n">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AR29" t="n">
-        <v>67</v>
+        <v>300</v>
       </c>
       <c r="AS29" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT29" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="AU29" t="n">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="AV29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW29" t="n">
         <v>51</v>
       </c>
-      <c r="AW29" t="n">
-        <v>81</v>
-      </c>
       <c r="AX29" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="AY29" t="n">
-        <v>15</v>
+        <v>7.1</v>
       </c>
       <c r="AZ29" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="BA29" t="n">
+        <v>22</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>60</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD29" t="n">
         <v>51</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>fcW8ARJi</t>
+          <t>6PiYMbsI</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -5800,170 +5792,170 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H30" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="J30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>11</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
         <v>2.75</v>
       </c>
-      <c r="K30" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N30" t="n">
-        <v>17</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R30" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T30" t="n">
-        <v>3.5</v>
-      </c>
       <c r="U30" t="n">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="V30" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA30" t="n">
         <v>21</v>
       </c>
-      <c r="AA30" t="n">
-        <v>15</v>
-      </c>
       <c r="AB30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG30" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AH30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI30" t="n">
         <v>13</v>
       </c>
-      <c r="AI30" t="n">
-        <v>19</v>
-      </c>
       <c r="AJ30" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK30" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL30" t="n">
         <v>21</v>
       </c>
       <c r="AM30" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP30" t="n">
         <v>23</v>
       </c>
-      <c r="AN30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ30" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AR30" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV30" t="n">
         <v>51</v>
       </c>
-      <c r="AS30" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>41</v>
-      </c>
       <c r="AW30" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA30" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB30" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BC30" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD30" t="n">
         <v>81</v>
@@ -5972,7 +5964,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>GUViAIP8</t>
+          <t>vRBoOLYo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -5982,116 +5974,116 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Goztepe</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="H31" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="I31" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>11</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V31" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W31" t="n">
         <v>7</v>
       </c>
-      <c r="J31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="L31" t="n">
-        <v>6</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N31" t="n">
-        <v>19</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R31" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W31" t="n">
-        <v>9.5</v>
-      </c>
       <c r="X31" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y31" t="n">
         <v>8.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA31" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC31" t="n">
         <v>11</v>
       </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>19</v>
-      </c>
       <c r="AD31" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG31" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK31" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL31" t="n">
         <v>41</v>
@@ -6103,58 +6095,58 @@
         <v>3.6</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP31" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ31" t="n">
         <v>34</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>29</v>
       </c>
       <c r="BA31" t="n">
         <v>101</v>
       </c>
       <c r="BB31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC31" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BD31" t="n">
-        <v>81</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vRBoOLYo</t>
+          <t>vBiX5CFM</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -6169,90 +6161,90 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Goztepe</t>
+          <t>Bandirmaspor</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J32" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R32" t="n">
         <v>1.65</v>
       </c>
-      <c r="H32" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L32" t="n">
-        <v>5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>11</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.98</v>
-      </c>
       <c r="S32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC32" t="n">
         <v>8</v>
       </c>
-      <c r="Y32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>12</v>
-      </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE32" t="n">
         <v>17</v>
@@ -6261,61 +6253,61 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH32" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>13</v>
       </c>
-      <c r="AI32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>15</v>
-      </c>
       <c r="AK32" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU32" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS32" t="n">
+      <c r="AV32" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW32" t="n">
         <v>126</v>
       </c>
-      <c r="AT32" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>276</v>
-      </c>
       <c r="AX32" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ32" t="n">
         <v>34</v>
@@ -6327,16 +6319,16 @@
         <v>101</v>
       </c>
       <c r="BC32" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD32" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vBiX5CFM</t>
+          <t>ph0k6zcc</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -6351,347 +6343,165 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bandirmaspor</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="I33" t="n">
-        <v>3.9</v>
+        <v>7.2</v>
       </c>
       <c r="J33" t="n">
-        <v>2.75</v>
+        <v>2.07</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L33" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="P33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W33" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="X33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>45</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN33" t="n">
         <v>3</v>
       </c>
-      <c r="Q33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4</v>
-      </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>7.1</v>
       </c>
       <c r="AP33" t="n">
         <v>23</v>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AR33" t="n">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="AS33" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.5</v>
+        <v>2.27</v>
       </c>
       <c r="AU33" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="AW33" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX33" t="n">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="AY33" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AZ33" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="BA33" t="n">
+        <v>400</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>500</v>
+      </c>
+      <c r="BC33" t="n">
         <v>81</v>
       </c>
-      <c r="BB33" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>301</v>
-      </c>
       <c r="BD33" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>ph0k6zcc</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Rukh Lviv</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K34" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L34" t="n">
-        <v>7</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N34" t="n">
-        <v>7</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W34" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="X34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD34" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD33"/>
+  <dimension ref="A1:BD28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,19 +747,19 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>2.2</v>
@@ -795,10 +795,10 @@
         <v>2.1</v>
       </c>
       <c r="W2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y2" t="n">
         <v>17</v>
@@ -831,7 +831,7 @@
         <v>9.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ2" t="n">
         <v>9</v>
@@ -846,13 +846,13 @@
         <v>23</v>
       </c>
       <c r="AN2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO2" t="n">
         <v>23</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ2" t="n">
         <v>81</v>
@@ -870,7 +870,7 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
         <v>451</v>
@@ -879,13 +879,13 @@
         <v>3.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>17</v>
       </c>
       <c r="BA2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BB2" t="n">
         <v>41</v>
@@ -894,13 +894,13 @@
         <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pMmu24YI</t>
+          <t>OEyhrk8s</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,134 +910,134 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>GERMANY - BUNDESLIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Auxerre</t>
+          <t>B. Monchengladbach</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Angers</t>
+          <t>St. Pauli</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.3</v>
       </c>
-      <c r="K3" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.84</v>
+        <v>1.73</v>
       </c>
       <c r="R3" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC3" t="n">
         <v>13</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>12</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF3" t="n">
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM3" t="n">
         <v>34</v>
       </c>
-      <c r="AM3" t="n">
-        <v>41</v>
-      </c>
       <c r="AN3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>19</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1046,10 +1046,10 @@
         <v>126</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1058,22 +1058,22 @@
         <v>501</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA3" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB3" t="n">
         <v>81</v>
       </c>
-      <c r="BB3" t="n">
-        <v>101</v>
-      </c>
       <c r="BC3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GtdO5nZg</t>
+          <t>KvdF6EVj</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,113 +1092,113 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FRANCE - LIGUE 1</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Le Havre</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J4" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
         <v>2.63</v>
       </c>
-      <c r="K4" t="n">
+      <c r="U4" t="n">
         <v>2</v>
       </c>
-      <c r="L4" t="n">
-        <v>5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="V4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X4" t="n">
         <v>7.5</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
-      <c r="X4" t="n">
-        <v>8</v>
-      </c>
       <c r="Y4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC4" t="n">
         <v>9</v>
       </c>
-      <c r="Z4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>501</v>
+        <v>401</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1207,28 +1207,28 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR4" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
         <v>9</v>
@@ -1237,16 +1237,16 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
         <v>101</v>
@@ -1255,7 +1255,7 @@
         <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OEyhrk8s</t>
+          <t>pl4Y7lh3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,41 +1274,41 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.9</v>
+        <v>7.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K5" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>1.91</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1317,10 +1317,10 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1329,112 +1329,112 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
+        <v>3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W5" t="n">
+        <v>17</v>
+      </c>
+      <c r="X5" t="n">
+        <v>41</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>151</v>
+      </c>
+      <c r="AX5" t="n">
         <v>3.25</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W5" t="n">
-        <v>9</v>
-      </c>
-      <c r="X5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AY5" t="n">
         <v>7</v>
       </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AZ5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB5" t="n">
         <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>81</v>
       </c>
       <c r="BC5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KvdF6EVj</t>
+          <t>ngIZgpK6</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,134 +1456,134 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>5.25</v>
+        <v>3.9</v>
       </c>
       <c r="J6" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O6" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="R6" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U6" t="n">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH6" t="n">
         <v>12</v>
       </c>
       <c r="AI6" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AP6" t="n">
         <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1592,34 +1592,34 @@
         <v>151</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>67</v>
       </c>
-      <c r="AW6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>101</v>
-      </c>
       <c r="BB6" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1628,7 +1628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SxLINfbf</t>
+          <t>SAbklFmo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,170 +1638,170 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EREDIVISIE</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Zwolle</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.1</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W7" t="n">
         <v>9.5</v>
       </c>
-      <c r="I7" t="n">
+      <c r="X7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB7" t="n">
         <v>21</v>
       </c>
-      <c r="J7" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
+      <c r="AC7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>15</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N7" t="n">
-        <v>26</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P7" t="n">
-        <v>8</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="T7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>11</v>
-      </c>
-      <c r="X7" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AK7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL7" t="n">
         <v>34</v>
       </c>
-      <c r="AC7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AM7" t="n">
         <v>34</v>
       </c>
-      <c r="AF7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>351</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>126</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>101</v>
-      </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>4.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP7" t="n">
         <v>17</v>
       </c>
       <c r="AQ7" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AR7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT7" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AU7" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AV7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA7" t="n">
         <v>67</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="BB7" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC7" t="n">
         <v>151</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>67</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>401</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>501</v>
       </c>
       <c r="BD7" t="n">
         <v>151</v>
@@ -1810,7 +1810,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pl4Y7lh3</t>
+          <t>fsQywBeS</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,179 +1820,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>7.5</v>
       </c>
-      <c r="H8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.4</v>
-      </c>
       <c r="J8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L8" t="n">
+        <v>7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
         <v>7.5</v>
       </c>
-      <c r="K8" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
         <v>13</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W8" t="n">
-        <v>17</v>
-      </c>
-      <c r="X8" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>9</v>
       </c>
       <c r="AE8" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO8" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO8" t="n">
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
         <v>41</v>
       </c>
-      <c r="AP8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>151</v>
-      </c>
       <c r="AS8" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
       </c>
       <c r="AV8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA8" t="n">
         <v>151</v>
       </c>
-      <c r="AX8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>19</v>
-      </c>
       <c r="BB8" t="n">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>WrovvTve</t>
+          <t>K0B2NO4m</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +2002,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AUSTRIA - BUNDESLIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Austria Vienna</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Hartberg</t>
+          <t>Gorica</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>1.58</v>
       </c>
       <c r="S9" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.62</v>
+        <v>1.91</v>
       </c>
       <c r="V9" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="X9" t="n">
         <v>10</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>17</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AF9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI9" t="n">
         <v>15</v>
       </c>
-      <c r="AB9" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>21</v>
-      </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
         <v>29</v>
       </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>501</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY9" t="n">
         <v>19</v>
       </c>
       <c r="AZ9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA9" t="n">
         <v>67</v>
       </c>
       <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD9" t="n">
         <v>81</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ngIZgpK6</t>
+          <t>htOkKtgm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,179 +2184,175 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>AEL Limassol</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="H10" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="I10" t="n">
-        <v>3.9</v>
+        <v>1.47</v>
       </c>
       <c r="J10" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="K10" t="n">
         <v>2.5</v>
       </c>
-      <c r="K10" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L10" t="n">
-        <v>4</v>
+        <v>1.93</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="R10" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="S10" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="T10" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="U10" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="W10" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="X10" t="n">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="Y10" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="n">
-        <v>15</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>10.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>7</v>
+        <v>9.75</v>
       </c>
       <c r="AE10" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>8.75</v>
       </c>
       <c r="AI10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AM10" t="n">
         <v>21</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL10" t="n">
+      <c r="AN10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP10" t="n">
         <v>29</v>
       </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>175</v>
       </c>
       <c r="AS10" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>501</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>3.55</v>
       </c>
       <c r="AY10" t="n">
-        <v>21</v>
+        <v>6.7</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>67</v>
+        <v>18.5</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>37</v>
       </c>
       <c r="BC10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>K0B2NO4m</t>
+          <t>zLP9z5uP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2366,41 +2362,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J11" t="n">
         <v>3.1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2409,40 +2405,40 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
         <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2451,13 +2447,13 @@
         <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF11" t="n">
         <v>51</v>
@@ -2466,22 +2462,22 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM11" t="n">
         <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
       </c>
       <c r="AN11" t="n">
         <v>4.33</v>
@@ -2493,7 +2489,7 @@
         <v>26</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2502,34 +2498,34 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB11" t="n">
         <v>81</v>
       </c>
-      <c r="AX11" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>101</v>
-      </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2538,7 +2534,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dAxKP2VP</t>
+          <t>h4ppcyF6</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2548,175 +2544,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Paralimni</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="H12" t="n">
-        <v>3.65</v>
+        <v>6.25</v>
       </c>
       <c r="I12" t="n">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="L12" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.17</v>
       </c>
       <c r="P12" t="n">
-        <v>2.95</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>1.53</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AA12" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AB12" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>1250</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK12" t="n">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AQ12" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="AS12" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW12" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>151</v>
+      </c>
       <c r="AX12" t="n">
-        <v>7.4</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>250</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="BC12" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>htOkKtgm</t>
+          <t>xpnAkona</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2726,175 +2726,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>AEL Limassol</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>5.8</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>1.47</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>5.3</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>1.93</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4.8</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="T13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>18.5</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>19.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>120</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.75</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
-        <v>350</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>11.75</v>
+        <v>51</v>
       </c>
       <c r="AL13" t="n">
-        <v>11.5</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AQ13" t="n">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.45</v>
+        <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>3.55</v>
+        <v>7</v>
       </c>
       <c r="AY13" t="n">
-        <v>6.7</v>
+        <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
-        <v>18.5</v>
+        <v>101</v>
       </c>
       <c r="BB13" t="n">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="BC13" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>zLP9z5uP</t>
+          <t>6VWC9m7j</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,179 +2904,175 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>4.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I14" t="n">
-        <v>2.7</v>
+        <v>1.91</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="L14" t="n">
-        <v>3.5</v>
+        <v>2.57</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="S14" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.62</v>
+        <v>2.47</v>
       </c>
       <c r="U14" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.72</v>
       </c>
       <c r="W14" t="n">
-        <v>7.5</v>
+        <v>10.25</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>5.9</v>
       </c>
       <c r="AD14" t="n">
         <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AG14" t="n">
-        <v>301</v>
+        <v>900</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>7.9</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AM14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AR14" t="n">
-        <v>67</v>
+        <v>200</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>450</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV14" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>501</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.75</v>
+        <v>3.65</v>
       </c>
       <c r="AY14" t="n">
-        <v>17</v>
+        <v>10.25</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BB14" t="n">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="BC14" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>h4ppcyF6</t>
+          <t>zmtsF9qT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,179 +3082,175 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.29</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>6.25</v>
+        <v>2.62</v>
       </c>
       <c r="I15" t="n">
-        <v>8.5</v>
+        <v>3.05</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>3.45</v>
       </c>
       <c r="K15" t="n">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="L15" t="n">
-        <v>8.5</v>
+        <v>3.8</v>
       </c>
       <c r="M15" t="n">
-        <v>1.02</v>
+        <v>1.16</v>
       </c>
       <c r="N15" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U15" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AE15" t="n">
         <v>19</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P15" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U15" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V15" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W15" t="n">
+      <c r="AF15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>37</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>90</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AU15" t="n">
         <v>8</v>
       </c>
-      <c r="X15" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AV15" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>151</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>4.65</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>18.5</v>
       </c>
       <c r="AZ15" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="BA15" t="n">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="BC15" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>151</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>xpnAkona</t>
+          <t>OWKglfr4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,59 +3260,59 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>5.5</v>
+        <v>2.8</v>
       </c>
       <c r="J16" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="K16" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P16" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="R16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3329,114 +3321,118 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>23</v>
       </c>
       <c r="AC16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE16" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
         <v>17</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK16" t="n">
         <v>29</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>51</v>
-      </c>
       <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>41</v>
       </c>
-      <c r="AM16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>23</v>
-      </c>
       <c r="AR16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW16" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>351</v>
+      </c>
       <c r="AX16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD16" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6VWC9m7j</t>
+          <t>Sv2lkNQ6</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3446,65 +3442,65 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>4.35</v>
+        <v>6.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="I17" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="J17" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
         <v>1.98</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N17" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T17" t="n">
-        <v>2.47</v>
+        <v>2.75</v>
       </c>
       <c r="U17" t="n">
         <v>2</v>
@@ -3513,108 +3509,108 @@
         <v>1.72</v>
       </c>
       <c r="W17" t="n">
-        <v>10.25</v>
+        <v>15</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AA17" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AB17" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>5.9</v>
+        <v>9.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="AG17" t="n">
-        <v>900</v>
+        <v>401</v>
       </c>
       <c r="AH17" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>7.9</v>
+        <v>6.5</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AL17" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AM17" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="AP17" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AQ17" t="n">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="AR17" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="AS17" t="n">
-        <v>450</v>
+        <v>351</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="AY17" t="n">
-        <v>10.25</v>
+        <v>7.5</v>
       </c>
       <c r="AZ17" t="n">
         <v>21</v>
       </c>
       <c r="BA17" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="BB17" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="BC17" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>zmtsF9qT</t>
+          <t>trSN3Mu0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3624,175 +3620,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>AEK Athens FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.62</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>4.65</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.87</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.37</v>
+        <v>1.72</v>
       </c>
       <c r="S18" t="n">
-        <v>1.65</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2.22</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>4.65</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>800</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>6.3</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>13.5</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.35</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AP18" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>500</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sv2lkNQ6</t>
+          <t>GKQmSDs3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3802,165 +3798,165 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>HUNGARY - OTP BANK LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Debrecen</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Kecskemeti TE</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I19" t="n">
-        <v>1.53</v>
+        <v>4.2</v>
       </c>
       <c r="J19" t="n">
-        <v>6.5</v>
+        <v>2.4</v>
       </c>
       <c r="K19" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N19" t="n">
+        <v>13</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V19" t="n">
         <v>2.1</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N19" t="n">
-        <v>11</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>15</v>
       </c>
-      <c r="X19" t="n">
+      <c r="AA19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL19" t="n">
         <v>34</v>
       </c>
-      <c r="Y19" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC19" t="n">
+      <c r="AM19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO19" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AP19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>9</v>
-      </c>
       <c r="AV19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="AY19" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC19" t="n">
         <v>151</v>
@@ -3970,7 +3966,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GKQmSDs3</t>
+          <t>2V9VcraL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3980,95 +3976,95 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>ITALY - SERIE B</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Palermo</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Sampdoria</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
         <v>3.7</v>
       </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
       <c r="J20" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R20" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X20" t="n">
         <v>9.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC20" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>13</v>
@@ -4077,22 +4073,22 @@
         <v>41</v>
       </c>
       <c r="AG20" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH20" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
@@ -4101,38 +4097,40 @@
         <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>81</v>
+      </c>
       <c r="AX20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY20" t="n">
         <v>21</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
         <v>67</v>
@@ -4141,14 +4139,16 @@
         <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD20" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2V9VcraL</t>
+          <t>xxnWbwbC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4158,179 +4158,175 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>3.7</v>
+        <v>1.57</v>
       </c>
       <c r="J21" t="n">
+        <v>6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.63</v>
       </c>
-      <c r="K21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N21" t="n">
+      <c r="U21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W21" t="n">
+        <v>13</v>
+      </c>
+      <c r="X21" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK21" t="n">
         <v>11</v>
       </c>
-      <c r="O21" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AM21" t="n">
         <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AP21" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>81</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="AY21" t="n">
-        <v>21</v>
+        <v>8.5</v>
       </c>
       <c r="AZ21" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA21" t="n">
         <v>29</v>
       </c>
-      <c r="BA21" t="n">
-        <v>67</v>
-      </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BC21" t="n">
         <v>201</v>
       </c>
-      <c r="BD21" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>xxnWbwbC</t>
+          <t>6yxSEoq1</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4345,42 +4341,42 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H22" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>1.57</v>
+        <v>4.5</v>
       </c>
       <c r="J22" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4389,10 +4385,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.44</v>
@@ -4401,31 +4397,31 @@
         <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W22" t="n">
+        <v>6</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z22" t="n">
         <v>13</v>
       </c>
-      <c r="X22" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>67</v>
-      </c>
       <c r="AA22" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
@@ -4440,75 +4436,79 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AJ22" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AL22" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>34</v>
       </c>
-      <c r="AN22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>126</v>
-      </c>
       <c r="AR22" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS22" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV22" t="n">
         <v>67</v>
       </c>
-      <c r="AW22" t="inlineStr"/>
+      <c r="AW22" t="n">
+        <v>126</v>
+      </c>
       <c r="AX22" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="AY22" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC22" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD22" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6yxSEoq1</t>
+          <t>dnOU1AGq</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4518,179 +4518,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Gornik Zabrze</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="I23" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W23" t="n">
+        <v>7</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD23" t="n">
         <v>5.5</v>
       </c>
-      <c r="M23" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N23" t="n">
-        <v>10</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6</v>
-      </c>
-      <c r="X23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" t="n">
+      <c r="AE23" t="n">
         <v>15</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AF23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK23" t="n">
         <v>34</v>
       </c>
-      <c r="AC23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
       <c r="AL23" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV23" t="n">
         <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>29</v>
       </c>
-      <c r="AZ23" t="n">
-        <v>41</v>
-      </c>
       <c r="BA23" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB23" t="n">
         <v>101</v>
       </c>
-      <c r="BB23" t="n">
-        <v>151</v>
-      </c>
       <c r="BC23" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD23" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dnOU1AGq</t>
+          <t>MNpkKKTr</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4700,179 +4700,179 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>FCSB</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Unirea Slobozia</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>1.33</v>
       </c>
       <c r="H24" t="n">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L24" t="n">
+        <v>8</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R24" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T24" t="n">
         <v>3.25</v>
       </c>
-      <c r="K24" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L24" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
         <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE24" t="n">
         <v>23</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AF24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>23</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AK24" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR24" t="n">
         <v>41</v>
       </c>
-      <c r="AC24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>81</v>
-      </c>
       <c r="AS24" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="AU24" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>4.75</v>
+        <v>9</v>
       </c>
       <c r="AY24" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB24" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="BC24" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD24" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hnZHGHXr</t>
+          <t>hK4r15lm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4882,116 +4882,116 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Arka Gdynia</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>S. Wola</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>4.5</v>
+        <v>6.25</v>
       </c>
       <c r="I25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="K25" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L25" t="n">
         <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD25" t="n">
         <v>13</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7</v>
-      </c>
-      <c r="X25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>9</v>
-      </c>
       <c r="AE25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="AH25" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -5000,37 +5000,37 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="AU25" t="n">
         <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
@@ -5045,7 +5045,7 @@
         <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>351</v>
+        <v>450</v>
       </c>
       <c r="BD25" t="n">
         <v>81</v>
@@ -5054,7 +5054,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MNpkKKTr</t>
+          <t>4b2eI0jJ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5064,170 +5064,170 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G26" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O26" t="n">
         <v>1.33</v>
       </c>
-      <c r="H26" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I26" t="n">
-        <v>7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L26" t="n">
-        <v>8</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N26" t="n">
+      <c r="P26" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W26" t="n">
+        <v>9</v>
+      </c>
+      <c r="X26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO26" t="n">
         <v>15</v>
       </c>
-      <c r="O26" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R26" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W26" t="n">
-        <v>7</v>
-      </c>
-      <c r="X26" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ26" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AR26" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS26" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="AU26" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV26" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW26" t="n">
         <v>51</v>
       </c>
       <c r="AX26" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="AY26" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AZ26" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA26" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="BB26" t="n">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="BC26" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD26" t="n">
         <v>51</v>
@@ -5236,7 +5236,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hK4r15lm</t>
+          <t>raWEtEn2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -5246,179 +5246,179 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Primorje</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Maribor</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.25</v>
+        <v>5.9</v>
       </c>
       <c r="H27" t="n">
-        <v>6.25</v>
+        <v>4.15</v>
       </c>
       <c r="I27" t="n">
-        <v>8.5</v>
+        <v>1.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.62</v>
+        <v>5.9</v>
       </c>
       <c r="K27" t="n">
-        <v>2.75</v>
+        <v>2.22</v>
       </c>
       <c r="L27" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
         <v>7.5</v>
       </c>
-      <c r="M27" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N27" t="n">
-        <v>12</v>
-      </c>
       <c r="O27" t="n">
-        <v>1.13</v>
+        <v>1.29</v>
       </c>
       <c r="P27" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="R27" t="n">
-        <v>2.63</v>
+        <v>1.87</v>
       </c>
       <c r="S27" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="T27" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="U27" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="W27" t="n">
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="X27" t="n">
+        <v>35</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>70</v>
+      </c>
+      <c r="AC27" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z27" t="n">
+      <c r="AD27" t="n">
         <v>8</v>
       </c>
-      <c r="AA27" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC27" t="n">
+      <c r="AE27" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ27" t="n">
         <v>19</v>
       </c>
-      <c r="AD27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>41</v>
-      </c>
       <c r="BA27" t="n">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="BB27" t="n">
-        <v>151</v>
+        <v>60</v>
       </c>
       <c r="BC27" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="BD27" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>4b2eI0jJ</t>
+          <t>6PiYMbsI</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -5428,1080 +5428,172 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.77</v>
+        <v>2.4</v>
       </c>
       <c r="H28" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.3</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N28" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P28" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R28" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S28" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH28" t="n">
         <v>9</v>
       </c>
-      <c r="X28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AI28" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AJ28" t="n">
-        <v>9.25</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ28" t="n">
         <v>26</v>
       </c>
-      <c r="AL28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>20</v>
-      </c>
       <c r="BA28" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BB28" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="BC28" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BD28" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>raWEtEn2</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Maribor</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H29" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L29" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P29" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X29" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP29" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>6PiYMbsI</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>11</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P30" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2</v>
-      </c>
-      <c r="W30" t="n">
-        <v>9</v>
-      </c>
-      <c r="X30" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vRBoOLYo</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>TURKEY - SUPER LIG</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Goztepe</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="H31" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I31" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K31" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L31" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>11</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P31" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T31" t="n">
-        <v>3</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V31" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W31" t="n">
-        <v>7</v>
-      </c>
-      <c r="X31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX31" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>126</v>
-      </c>
-      <c r="BC31" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD31" t="n">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vBiX5CFM</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>TURKEY - 1. LIG</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Kocaelispor</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Bandirmaspor</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H32" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K32" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L32" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N32" t="n">
-        <v>9</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S32" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS32" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT32" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU32" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV32" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW32" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ph0k6zcc</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>13:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Rukh Lviv</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="I33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K33" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L33" t="n">
-        <v>7</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N33" t="n">
-        <v>7</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W33" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="X33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>45</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>450</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AZ33" t="n">
-        <v>55</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>400</v>
-      </c>
-      <c r="BB33" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC33" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD33" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD28"/>
+  <dimension ref="A1:BD25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>2.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T2" t="n">
         <v>3.4</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
         <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J4" t="n">
         <v>2.3</v>
@@ -1129,16 +1129,16 @@
         <v>5.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q4" t="n">
         <v>2.1</v>
@@ -1153,31 +1153,31 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V4" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
@@ -1186,16 +1186,16 @@
         <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH4" t="n">
         <v>12</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ4" t="n">
         <v>17</v>
@@ -1207,16 +1207,16 @@
         <v>41</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO4" t="n">
         <v>9</v>
       </c>
       <c r="AP4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ4" t="n">
         <v>29</v>
@@ -1225,7 +1225,7 @@
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
         <v>2.63</v>
@@ -1237,25 +1237,25 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY4" t="n">
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1299,13 +1299,13 @@
         <v>4.75</v>
       </c>
       <c r="I5" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="J5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.91</v>
@@ -1317,10 +1317,10 @@
         <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
         <v>1.73</v>
@@ -1329,10 +1329,10 @@
         <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1359,10 +1359,10 @@
         <v>51</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1371,10 +1371,10 @@
         <v>67</v>
       </c>
       <c r="AG5" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI5" t="n">
         <v>6.5</v>
@@ -1389,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="AM5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN5" t="n">
         <v>8.5</v>
@@ -1407,25 +1407,25 @@
         <v>151</v>
       </c>
       <c r="AS5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU5" t="n">
         <v>9</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>151</v>
       </c>
       <c r="AX5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AY5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ5" t="n">
         <v>19</v>
@@ -1437,7 +1437,7 @@
         <v>41</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1475,58 +1475,58 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J6" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L6" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O6" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P6" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.98</v>
+        <v>1.73</v>
       </c>
       <c r="R6" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="S6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="T6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="X6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1538,13 +1538,13 @@
         <v>15</v>
       </c>
       <c r="AB6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1553,10 +1553,10 @@
         <v>41</v>
       </c>
       <c r="AG6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1571,16 +1571,16 @@
         <v>29</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ6" t="n">
         <v>34</v>
@@ -1589,13 +1589,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
@@ -1604,13 +1604,13 @@
         <v>501</v>
       </c>
       <c r="AX6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
         <v>21</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>67</v>
@@ -1619,7 +1619,7 @@
         <v>81</v>
       </c>
       <c r="BC6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD6" t="n">
         <v>151</v>
@@ -1699,7 +1699,7 @@
         <v>3.5</v>
       </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V7" t="n">
         <v>2.25</v>
@@ -1881,10 +1881,10 @@
         <v>3.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V8" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W8" t="n">
         <v>7.5</v>
@@ -2045,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R9" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2203,22 +2203,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="H10" t="n">
-        <v>4.6</v>
+        <v>4.65</v>
       </c>
       <c r="I10" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="J10" t="n">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="K10" t="n">
         <v>2.5</v>
       </c>
       <c r="L10" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="M10" t="n">
         <v>1.03</v>
@@ -2230,7 +2230,7 @@
         <v>1.16</v>
       </c>
       <c r="P10" t="n">
-        <v>4.8</v>
+        <v>4.85</v>
       </c>
       <c r="Q10" t="n">
         <v>1.5</v>
@@ -2248,22 +2248,22 @@
         <v>1.65</v>
       </c>
       <c r="V10" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W10" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="X10" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AB10" t="n">
         <v>50</v>
@@ -2272,46 +2272,46 @@
         <v>10.25</v>
       </c>
       <c r="AD10" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
         <v>60</v>
       </c>
       <c r="AG10" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.75</v>
       </c>
       <c r="AK10" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AL10" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AM10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP10" t="n">
         <v>30</v>
       </c>
-      <c r="AP10" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AR10" t="n">
         <v>175</v>
@@ -2323,23 +2323,23 @@
         <v>3.45</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV10" t="n">
         <v>55</v>
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AZ10" t="n">
         <v>14</v>
       </c>
       <c r="BA10" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BB10" t="n">
         <v>37</v>
@@ -2381,22 +2381,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.1</v>
       </c>
       <c r="I11" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
       </c>
       <c r="L11" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2405,16 +2405,16 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
@@ -2429,25 +2429,25 @@
         <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2462,34 +2462,34 @@
         <v>301</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
         <v>29</v>
       </c>
-      <c r="AL11" t="n">
-        <v>26</v>
-      </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO11" t="n">
         <v>13</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>67</v>
@@ -2501,7 +2501,7 @@
         <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
@@ -2510,22 +2510,22 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="H12" t="n">
         <v>6.25</v>
@@ -2572,7 +2572,7 @@
         <v>8.5</v>
       </c>
       <c r="J12" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="K12" t="n">
         <v>2.63</v>
@@ -2587,16 +2587,16 @@
         <v>19</v>
       </c>
       <c r="O12" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R12" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S12" t="n">
         <v>1.29</v>
@@ -2617,7 +2617,7 @@
         <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
@@ -2644,19 +2644,19 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
       </c>
       <c r="AJ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
@@ -2665,7 +2665,7 @@
         <v>3.25</v>
       </c>
       <c r="AO12" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP12" t="n">
         <v>17</v>
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -2763,10 +2763,10 @@
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.2</v>
@@ -2775,10 +2775,10 @@
         <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2923,79 +2923,79 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.35</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="I14" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.7</v>
+        <v>4.25</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="Q14" t="n">
         <v>2.32</v>
       </c>
       <c r="R14" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W14" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF14" t="n">
         <v>90</v>
@@ -3004,68 +3004,68 @@
         <v>900</v>
       </c>
       <c r="AH14" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN14" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI14" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>18</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>6</v>
-      </c>
       <c r="AO14" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR14" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AS14" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AT14" t="n">
         <v>2.42</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV14" t="n">
         <v>75</v>
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AY14" t="n">
-        <v>10.25</v>
+        <v>11.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA14" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BB14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BC14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD14" t="inlineStr"/>
     </row>
@@ -3309,7 +3309,7 @@
         <v>4.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
         <v>2.2</v>
@@ -3464,7 +3464,7 @@
         <v>6.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I17" t="n">
         <v>1.53</v>
@@ -3473,7 +3473,7 @@
         <v>6.5</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L17" t="n">
         <v>2.1</v>
@@ -3506,7 +3506,7 @@
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W17" t="n">
         <v>15</v>
@@ -3515,7 +3515,7 @@
         <v>34</v>
       </c>
       <c r="Y17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z17" t="n">
         <v>67</v>
@@ -3527,7 +3527,7 @@
         <v>51</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD17" t="n">
         <v>7.5</v>
@@ -3545,13 +3545,13 @@
         <v>6.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AJ17" t="n">
         <v>8.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>13</v>
@@ -3681,10 +3681,10 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
         <v>7.5</v>
@@ -3820,19 +3820,19 @@
         <v>1.8</v>
       </c>
       <c r="H19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I19" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J19" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -3847,10 +3847,10 @@
         <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="R19" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3859,7 +3859,7 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V19" t="n">
         <v>2.1</v>
@@ -3868,7 +3868,7 @@
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
@@ -3898,7 +3898,7 @@
         <v>151</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
         <v>23</v>
@@ -3919,7 +3919,7 @@
         <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
@@ -3928,7 +3928,7 @@
         <v>29</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS19" t="n">
         <v>126</v>
@@ -3966,7 +3966,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2V9VcraL</t>
+          <t>xxnWbwbC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3976,179 +3976,175 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ITALY - SERIE B</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Sampdoria</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>3.7</v>
+        <v>1.57</v>
       </c>
       <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
         <v>2.63</v>
       </c>
-      <c r="K20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="U20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W20" t="n">
+        <v>13</v>
+      </c>
+      <c r="X20" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK20" t="n">
         <v>11</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
       <c r="AL20" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AM20" t="n">
         <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="AP20" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AQ20" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR20" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB20" t="n">
         <v>51</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>81</v>
       </c>
       <c r="BC20" t="n">
         <v>201</v>
       </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>xxnWbwbC</t>
+          <t>6yxSEoq1</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4163,36 +4159,36 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.57</v>
+        <v>4.5</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>2.4</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>2.25</v>
+        <v>5.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -4201,10 +4197,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
         <v>2.2</v>
@@ -4219,31 +4215,31 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
+        <v>6</v>
+      </c>
+      <c r="X21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
         <v>13</v>
       </c>
-      <c r="X21" t="n">
-        <v>29</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>67</v>
-      </c>
       <c r="AA21" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD21" t="n">
         <v>7</v>
@@ -4258,75 +4254,79 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AI21" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AL21" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>34</v>
       </c>
-      <c r="AN21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>126</v>
-      </c>
       <c r="AR21" t="n">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
       </c>
-      <c r="AW21" t="inlineStr"/>
+      <c r="AW21" t="n">
+        <v>126</v>
+      </c>
       <c r="AX21" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>8.5</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD21" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6yxSEoq1</t>
+          <t>rHoiM7aT</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4336,113 +4336,113 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L22" t="n">
+        <v>5</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T22" t="n">
         <v>2.1</v>
       </c>
-      <c r="L22" t="n">
+      <c r="U22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
         <v>5.5</v>
       </c>
-      <c r="M22" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W22" t="n">
+      <c r="AD22" t="n">
         <v>6</v>
       </c>
-      <c r="X22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>7</v>
-      </c>
       <c r="AE22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF22" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AI22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK22" t="n">
         <v>51</v>
@@ -4451,43 +4451,43 @@
         <v>41</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
         <v>51</v>
       </c>
-      <c r="AS22" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>126</v>
-      </c>
       <c r="AX22" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>41</v>
@@ -4502,13 +4502,13 @@
         <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dnOU1AGq</t>
+          <t>hK4r15lm</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4518,170 +4518,170 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Gornik Zabrze</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>1.27</v>
       </c>
       <c r="H23" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q23" t="n">
         <v>1.44</v>
       </c>
-      <c r="P23" t="n">
+      <c r="R23" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q23" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.53</v>
-      </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="T23" t="n">
-        <v>2.37</v>
+        <v>4</v>
       </c>
       <c r="U23" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA23" t="n">
         <v>11</v>
       </c>
-      <c r="Y23" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z23" t="n">
+      <c r="AB23" t="n">
         <v>23</v>
       </c>
-      <c r="AA23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
       <c r="AC23" t="n">
-        <v>6.5</v>
+        <v>21</v>
       </c>
       <c r="AD23" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="AE23" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF23" t="n">
         <v>51</v>
       </c>
       <c r="AG23" t="n">
-        <v>401</v>
+        <v>600</v>
       </c>
       <c r="AH23" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AI23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP23" t="n">
         <v>15</v>
       </c>
-      <c r="AJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK23" t="n">
+      <c r="AQ23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR23" t="n">
         <v>34</v>
       </c>
-      <c r="AL23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ23" t="n">
+      <c r="AS23" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV23" t="n">
         <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>67</v>
       </c>
       <c r="AW23" t="n">
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.75</v>
+        <v>10</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ23" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
-        <v>251</v>
+        <v>450</v>
       </c>
       <c r="BD23" t="n">
         <v>81</v>
@@ -4690,7 +4690,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MNpkKKTr</t>
+          <t>4b2eI0jJ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4700,170 +4700,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FCSB</t>
+          <t>Zeleznicar Pancevo</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Unirea Slobozia</t>
+          <t>Radnicki 1923</t>
         </is>
       </c>
       <c r="G24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.33</v>
       </c>
-      <c r="H24" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="I24" t="n">
-        <v>7</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="K24" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>8</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W24" t="n">
+        <v>9</v>
+      </c>
+      <c r="X24" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AO24" t="n">
         <v>15</v>
       </c>
-      <c r="O24" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W24" t="n">
-        <v>7</v>
-      </c>
-      <c r="X24" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="AR24" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS24" t="n">
-        <v>151</v>
+        <v>250</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>2.77</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>6.7</v>
       </c>
       <c r="AV24" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="AW24" t="n">
         <v>51</v>
       </c>
       <c r="AX24" t="n">
-        <v>9</v>
+        <v>4.4</v>
       </c>
       <c r="AY24" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AZ24" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA24" t="n">
-        <v>151</v>
+        <v>55</v>
       </c>
       <c r="BB24" t="n">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="BC24" t="n">
-        <v>351</v>
+        <v>250</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4872,7 +4872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>hK4r15lm</t>
+          <t>6PiYMbsI</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4882,146 +4882,146 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Castellon</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.25</v>
+        <v>2.45</v>
       </c>
       <c r="H25" t="n">
-        <v>6.25</v>
+        <v>3.4</v>
       </c>
       <c r="I25" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N25" t="n">
+        <v>11</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V25" t="n">
+        <v>2</v>
+      </c>
+      <c r="W25" t="n">
         <v>8.5</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="X25" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
         <v>2.75</v>
       </c>
-      <c r="L25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>12</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z25" t="n">
+      <c r="AU25" t="n">
         <v>8</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
@@ -5030,570 +5030,24 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>4.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC25" t="n">
         <v>151</v>
       </c>
-      <c r="BB25" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>450</v>
-      </c>
       <c r="BD25" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>4b2eI0jJ</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>14:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>SERBIA - SUPER LIGA</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Zeleznicar Pancevo</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Radnicki 1923</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="H26" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K26" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P26" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T26" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U26" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W26" t="n">
-        <v>9</v>
-      </c>
-      <c r="X26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD26" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>raWEtEn2</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>13:30</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>SLOVENIA - PRVA LIGA</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Primorje</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Maribor</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="H27" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J27" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="K27" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L27" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W27" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="X27" t="n">
-        <v>35</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>37</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>45</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>300</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>22</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>60</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>6PiYMbsI</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>14:30</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Castellon</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N28" t="n">
-        <v>10</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2</v>
-      </c>
-      <c r="W28" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X28" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP28" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT28" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD28" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD25"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_0-1_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-2_HT</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-2_HT</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_0-3_HT</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_1-3_HT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_CS_2-3_HT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_3-3_HT</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-1_HT</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-2_HT</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-2_HT</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_0-3_HT</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_1-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_2-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOaC5qg4</t>
+          <t>KvdF6EVj</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,179 +728,179 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ENGLAND - PREMIER LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ipswich</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Manchester Utd</t>
+          <t>AS Roma</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>1.67</v>
       </c>
       <c r="H2" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.65</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
-        <v>2.2</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>6</v>
+      </c>
+      <c r="X2" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="n">
         <v>15</v>
       </c>
-      <c r="O2" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P2" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R2" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W2" t="n">
+      <c r="AB2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
         <v>19</v>
       </c>
-      <c r="X2" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AF2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>17</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AK2" t="n">
         <v>51</v>
       </c>
-      <c r="AA2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG2" t="n">
+      <c r="AL2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS2" t="n">
         <v>201</v>
       </c>
-      <c r="AH2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ2" t="n">
+      <c r="AT2" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU2" t="n">
         <v>9</v>
       </c>
-      <c r="AK2" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN2" t="n">
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
         <v>7</v>
       </c>
-      <c r="AO2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP2" t="n">
+      <c r="AX2" t="n">
         <v>29</v>
       </c>
-      <c r="AQ2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>81</v>
-      </c>
-      <c r="AS2" t="n">
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="AT2" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>17</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>23</v>
-      </c>
       <c r="BB2" t="n">
-        <v>41</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OEyhrk8s</t>
+          <t>pl4Y7lh3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,41 +910,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>GERMANY - BUNDESLIGA</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>B. Monchengladbach</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>St. Pauli</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.9</v>
+        <v>1.36</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="n">
         <v>1.04</v>
@@ -953,124 +953,124 @@
         <v>13</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T3" t="n">
         <v>3.25</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="n">
-        <v>8.5</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AC3" t="n">
         <v>13</v>
       </c>
       <c r="AD3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH3" t="n">
         <v>7</v>
       </c>
-      <c r="AE3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="n">
+      <c r="AI3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>151</v>
       </c>
-      <c r="AH3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>34</v>
-      </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT3" t="n">
         <v>3.25</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>501</v>
+        <v>3.25</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KvdF6EVj</t>
+          <t>ngIZgpK6</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,170 +1092,170 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ITALY - SERIE A</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Anderlecht</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>AS Roma</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="J4" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="K4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L4" t="n">
+        <v>4</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R4" t="n">
         <v>2.1</v>
       </c>
-      <c r="L4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W4" t="n">
         <v>9</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W4" t="n">
-        <v>6</v>
-      </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA4" t="n">
         <v>15</v>
       </c>
       <c r="AB4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM4" t="n">
         <v>34</v>
       </c>
-      <c r="AC4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP4" t="n">
         <v>19</v>
       </c>
-      <c r="AF4" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR4" t="n">
         <v>51</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>67</v>
       </c>
-      <c r="AW4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>41</v>
-      </c>
       <c r="BA4" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>151</v>
       </c>
       <c r="BC4" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BD4" t="n">
         <v>151</v>
@@ -1264,7 +1264,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pl4Y7lh3</t>
+          <t>SAbklFmo</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,170 +1274,170 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>7.5</v>
+        <v>1.67</v>
       </c>
       <c r="H5" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>1.38</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N5" t="n">
+        <v>17</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R5" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="n">
         <v>13</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R5" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U5" t="n">
-        <v>2</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W5" t="n">
+      <c r="AF5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH5" t="n">
         <v>17</v>
       </c>
-      <c r="X5" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y5" t="n">
+      <c r="AI5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX5" t="n">
         <v>21</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AY5" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA5" t="n">
         <v>81</v>
       </c>
-      <c r="AA5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ5" t="n">
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="AR5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>19</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>41</v>
-      </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>401</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1446,7 +1446,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ngIZgpK6</t>
+          <t>fsQywBeS</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,179 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>1.33</v>
       </c>
       <c r="H6" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>3.8</v>
+        <v>7.5</v>
       </c>
       <c r="J6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K6" t="n">
         <v>2.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>2.25</v>
-      </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O6" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R6" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U6" t="n">
-        <v>1.63</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>2.1</v>
+        <v>1.77</v>
       </c>
       <c r="W6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AA6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC6" t="n">
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG6" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AL6" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AO6" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AR6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS6" t="n">
         <v>126</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU6" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>51</v>
       </c>
       <c r="AW6" t="n">
-        <v>501</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>151</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BC6" t="n">
         <v>81</v>
       </c>
-      <c r="BC6" t="n">
-        <v>151</v>
-      </c>
       <c r="BD6" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SAbklFmo</t>
+          <t>rBxSYASP</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1638,179 +1638,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N7" t="n">
+        <v>9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.67</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>17</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.35</v>
-      </c>
       <c r="S7" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T7" t="n">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="X7" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>15</v>
       </c>
-      <c r="AA7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>13</v>
-      </c>
       <c r="AF7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG7" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL7" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>34</v>
       </c>
       <c r="AM7" t="n">
         <v>34</v>
       </c>
       <c r="AN7" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU7" t="n">
         <v>8.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AV7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX7" t="n">
         <v>17</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY7" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC7" t="inlineStr"/>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>fsQywBeS</t>
+          <t>EVUVgUfK</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1820,134 +1816,134 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Seraing</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.73</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>4.75</v>
       </c>
       <c r="J8" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="P8" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="R8" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.87</v>
+        <v>1.67</v>
       </c>
       <c r="V8" t="n">
-        <v>1.77</v>
+        <v>2.05</v>
       </c>
       <c r="W8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
         <v>13</v>
       </c>
       <c r="AD8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO8" t="n">
         <v>9</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AP8" t="n">
         <v>19</v>
       </c>
-      <c r="AF8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AR8" t="n">
         <v>41</v>
@@ -1956,43 +1952,43 @@
         <v>126</v>
       </c>
       <c r="AT8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ8" t="n">
         <v>81</v>
       </c>
-      <c r="AX8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>41</v>
-      </c>
       <c r="BA8" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>501</v>
+      </c>
+      <c r="BD8" t="n">
         <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>301</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K0B2NO4m</t>
+          <t>CKP5mSXm</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -2002,179 +1998,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CROATIA - HNL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sibenik</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gorica</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
         <v>2.25</v>
       </c>
-      <c r="H9" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U9" t="n">
         <v>2</v>
       </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N9" t="n">
+      <c r="V9" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X9" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU9" t="n">
         <v>9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W9" t="n">
-        <v>7</v>
-      </c>
-      <c r="X9" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>81</v>
+        <v>7.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="AY9" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>126</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>126</v>
       </c>
       <c r="BD9" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>htOkKtgm</t>
+          <t>nPxpWQ2D</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2184,175 +2180,179 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CYPRUS - CYPRUS LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>AEL Limassol</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Aris</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R10" t="n">
+        <v>2</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W10" t="n">
         <v>6.5</v>
       </c>
-      <c r="H10" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="J10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P10" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W10" t="n">
-        <v>20</v>
-      </c>
       <c r="X10" t="n">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
         <v>21</v>
       </c>
-      <c r="Z10" t="n">
-        <v>150</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>400</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="AR10" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT10" t="n">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW10" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>7</v>
+      </c>
       <c r="AX10" t="n">
-        <v>3.5</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>6.5</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>17.5</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>37</v>
+        <v>301</v>
       </c>
       <c r="BC10" t="n">
-        <v>150</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zLP9z5uP</t>
+          <t>GYmHJpFi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2362,119 +2362,119 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H11" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I11" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J11" t="n">
         <v>2.88</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.67</v>
       </c>
-      <c r="S11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA11" t="n">
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH11" t="n">
         <v>9</v>
       </c>
       <c r="AI11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>15</v>
       </c>
-      <c r="AJ11" t="n">
-        <v>12</v>
-      </c>
       <c r="AK11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL11" t="n">
         <v>34</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>29</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
@@ -2483,10 +2483,10 @@
         <v>4</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ11" t="n">
         <v>41</v>
@@ -2495,37 +2495,37 @@
         <v>67</v>
       </c>
       <c r="AS11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>5.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC11" t="n">
         <v>81</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>251</v>
       </c>
       <c r="BD11" t="n">
         <v>81</v>
@@ -2534,7 +2534,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>h4ppcyF6</t>
+          <t>AXtQHOq4</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2544,95 +2544,95 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DENMARK - SUPERLIGA</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>FC Copenhagen</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lyngby</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="H12" t="n">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J12" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="K12" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="L12" t="n">
         <v>8.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>8</v>
       </c>
       <c r="AA12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC12" t="n">
         <v>11</v>
       </c>
-      <c r="AB12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>17</v>
-      </c>
       <c r="AD12" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="AE12" t="n">
         <v>23</v>
@@ -2644,7 +2644,7 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>41</v>
@@ -2653,70 +2653,70 @@
         <v>26</v>
       </c>
       <c r="AK12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL12" t="n">
         <v>67</v>
       </c>
       <c r="AM12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY12" t="n">
         <v>51</v>
       </c>
-      <c r="AN12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>151</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>251</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xpnAkona</t>
+          <t>htOkKtgm</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2726,175 +2726,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>CYPRUS - CYPRUS LEAGUE</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>AEL Limassol</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Aris</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.53</v>
+        <v>6.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>1.42</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>5.7</v>
       </c>
       <c r="K13" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>1.88</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>4.85</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2.52</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
+        <v>20</v>
+      </c>
+      <c r="X13" t="n">
+        <v>50</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN13" t="n">
         <v>8</v>
       </c>
-      <c r="X13" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
       <c r="AO13" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="AP13" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>200</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW13" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>3.5</v>
+      </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>17.5</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="BB13" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>201</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="BC13" t="inlineStr"/>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6VWC9m7j</t>
+          <t>zLP9z5uP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,175 +2904,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>CZECH REPUBLIC - CHANCE LIGA</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>Sigma Olomouc</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Liberec</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N14" t="n">
+        <v>9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2.1</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.32</v>
-      </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V14" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AB14" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.7</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AH14" t="n">
-        <v>5.7</v>
+        <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>8.75</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY14" t="n">
         <v>29</v>
       </c>
-      <c r="AQ14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>75</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AZ14" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="BA14" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="BB14" t="n">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="BC14" t="n">
-        <v>350</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
+        <v>501</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zmtsF9qT</t>
+          <t>h4ppcyF6</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3082,175 +3086,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>FC Copenhagen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Lyngby</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>1.27</v>
       </c>
       <c r="H15" t="n">
-        <v>2.62</v>
+        <v>6.25</v>
       </c>
       <c r="I15" t="n">
-        <v>3.05</v>
+        <v>8.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.45</v>
+        <v>1.67</v>
       </c>
       <c r="K15" t="n">
-        <v>1.8</v>
+        <v>2.63</v>
       </c>
       <c r="L15" t="n">
-        <v>3.8</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>4.65</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>2.15</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.87</v>
+        <v>1.5</v>
       </c>
       <c r="R15" t="n">
-        <v>1.37</v>
+        <v>2.5</v>
       </c>
       <c r="S15" t="n">
-        <v>1.65</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>2.15</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="W15" t="n">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="X15" t="n">
-        <v>11.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA15" t="n">
         <v>11</v>
       </c>
-      <c r="Z15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>32</v>
-      </c>
       <c r="AB15" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.65</v>
+        <v>17</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.4</v>
+        <v>12</v>
       </c>
       <c r="AE15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.3</v>
+        <v>23</v>
       </c>
       <c r="AI15" t="n">
-        <v>13.5</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.75</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.35</v>
+        <v>3.25</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="AR15" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>500</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW15" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>10</v>
+      </c>
       <c r="AX15" t="n">
-        <v>4.65</v>
+        <v>41</v>
       </c>
       <c r="AY15" t="n">
-        <v>18.5</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>32</v>
+        <v>201</v>
       </c>
       <c r="BA15" t="n">
-        <v>110</v>
+        <v>201</v>
       </c>
       <c r="BB15" t="n">
-        <v>175</v>
+        <v>301</v>
       </c>
       <c r="BC15" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD15" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OWKglfr4</t>
+          <t>xpnAkona</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3260,41 +3268,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+      <c r="I16" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K16" t="n">
         <v>2.38</v>
       </c>
-      <c r="H16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I16" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L16" t="n">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M16" t="n">
         <v>1.03</v>
@@ -3303,16 +3311,16 @@
         <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R16" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S16" t="n">
         <v>1.33</v>
@@ -3321,118 +3329,114 @@
         <v>3.25</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="W16" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB16" t="n">
         <v>23</v>
       </c>
       <c r="AC16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>15</v>
       </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS16" t="n">
         <v>126</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>101</v>
       </c>
       <c r="AT16" t="n">
         <v>3.25</v>
       </c>
       <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
         <v>7</v>
       </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>351</v>
-      </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="AY16" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="AZ16" t="n">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="BA16" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB16" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sv2lkNQ6</t>
+          <t>6VWC9m7j</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3442,175 +3446,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>2.95</v>
       </c>
       <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R17" t="n">
         <v>1.53</v>
       </c>
-      <c r="J17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
-        <v>11</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="S17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.98</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>1.75</v>
       </c>
       <c r="W17" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="X17" t="n">
-        <v>34</v>
+        <v>19.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AB17" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>5.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AF17" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="AG17" t="n">
-        <v>401</v>
+        <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="AI17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AJ17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK17" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP17" t="n">
         <v>29</v>
       </c>
-      <c r="AN17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="AR17" t="n">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="AS17" t="n">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>3.85</v>
+      </c>
       <c r="AX17" t="n">
-        <v>3.4</v>
+        <v>11.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>7.5</v>
+        <v>23</v>
       </c>
       <c r="AZ17" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="BA17" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="BB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>151</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trSN3Mu0</t>
+          <t>zmtsF9qT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3620,175 +3624,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AEK Athens FC</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.72</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>2.57</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.16</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.65</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>2.15</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.9</v>
       </c>
       <c r="R18" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.22</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="AA18" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE18" t="n">
         <v>19</v>
       </c>
-      <c r="AB18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>15</v>
-      </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>800</v>
       </c>
       <c r="AH18" t="n">
-        <v>9.5</v>
+        <v>6.2</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AJ18" t="n">
         <v>12</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>4.35</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>450</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
+        <v>90</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>4.7</v>
+      </c>
       <c r="AX18" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="AY18" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>110</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>200</v>
       </c>
       <c r="BB18" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GKQmSDs3</t>
+          <t>OWKglfr4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3798,59 +3802,59 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:45</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>HUNGARY - OTP BANK LIGA</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Debrecen</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Kecskemeti TE</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>4.33</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
         <v>2.3</v>
       </c>
       <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P19" t="n">
         <v>4.5</v>
       </c>
-      <c r="M19" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N19" t="n">
-        <v>13</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P19" t="n">
-        <v>4</v>
-      </c>
       <c r="Q19" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="R19" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="S19" t="n">
         <v>1.33</v>
@@ -3859,114 +3863,118 @@
         <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
         <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
         <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
         <v>13</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>19</v>
       </c>
       <c r="AQ19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
         <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW19" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>5</v>
+      </c>
       <c r="AX19" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AY19" t="n">
         <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB19" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD19" t="n">
         <v>81</v>
       </c>
-      <c r="BC19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>xxnWbwbC</t>
+          <t>Sv2lkNQ6</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3976,74 +3984,74 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Chabab Mohammedia</t>
+          <t>Asteras Tripolis</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Difaa El Jadidi</t>
+          <t>PAOK</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="I20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L20" t="n">
         <v>2.1</v>
       </c>
-      <c r="L20" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U20" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X20" t="n">
         <v>29</v>
@@ -4061,10 +4069,10 @@
         <v>51</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AD20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
@@ -4073,10 +4081,10 @@
         <v>67</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI20" t="n">
         <v>7</v>
@@ -4088,13 +4096,13 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO20" t="n">
         <v>34</v>
@@ -4109,42 +4117,42 @@
         <v>151</v>
       </c>
       <c r="AS20" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU20" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV20" t="n">
         <v>67</v>
       </c>
-      <c r="AW20" t="inlineStr"/>
+      <c r="AW20" t="n">
+        <v>3.4</v>
+      </c>
       <c r="AX20" t="n">
-        <v>3.4</v>
+        <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>8.5</v>
+        <v>21</v>
       </c>
       <c r="AZ20" t="n">
         <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>201</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6yxSEoq1</t>
+          <t>trSN3Mu0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4154,59 +4162,59 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NORWAY - OBOS-LIGAEN</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mjondalen</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Jerv</t>
+          <t>AEK Athens FC</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
         <v>2.1</v>
       </c>
       <c r="L21" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4215,118 +4223,114 @@
         <v>2.63</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="W21" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X21" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
         <v>9</v>
       </c>
       <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>9.5</v>
       </c>
       <c r="AP21" t="n">
         <v>23</v>
       </c>
       <c r="AQ21" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
         <v>2.63</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>6.5</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA21" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>126</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rHoiM7aT</t>
+          <t>xxnWbwbC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4336,179 +4340,175 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Chabab Mohammedia</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Difaa El Jadidi</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="I22" t="n">
-        <v>4.2</v>
+        <v>1.57</v>
       </c>
       <c r="J22" t="n">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="K22" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>5</v>
+        <v>2.25</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.67</v>
       </c>
-      <c r="T22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.5</v>
-      </c>
       <c r="W22" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="X22" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC22" t="n">
         <v>8</v>
       </c>
-      <c r="Y22" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AF22" t="n">
-        <v>101</v>
+        <v>67</v>
       </c>
       <c r="AG22" t="n">
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AK22" t="n">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="AL22" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AM22" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="AO22" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="AS22" t="n">
         <v>351</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA22" t="n">
         <v>51</v>
       </c>
-      <c r="AX22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>101</v>
-      </c>
       <c r="BB22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>51</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BC22" t="inlineStr"/>
+      <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>hK4r15lm</t>
+          <t>6yxSEoq1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4523,174 +4523,174 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>NORWAY - OBOS-LIGAEN</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Al Ittihad</t>
+          <t>Mjondalen</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Al Fateh</t>
+          <t>Jerv</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.27</v>
+        <v>1.7</v>
       </c>
       <c r="H23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N23" t="n">
+        <v>9</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
         <v>6</v>
-      </c>
-      <c r="I23" t="n">
-        <v>8</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>12</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T23" t="n">
-        <v>4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W23" t="n">
-        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>7.5</v>
       </c>
       <c r="Y23" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
         <v>9.5</v>
       </c>
-      <c r="Z23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB23" t="n">
+      <c r="AP23" t="n">
         <v>23</v>
       </c>
-      <c r="AC23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF23" t="n">
+      <c r="AQ23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR23" t="n">
         <v>51</v>
       </c>
-      <c r="AG23" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>6</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>34</v>
-      </c>
       <c r="AS23" t="n">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="AU23" t="n">
         <v>9</v>
       </c>
       <c r="AV23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW23" t="n">
-        <v>81</v>
+        <v>6.5</v>
       </c>
       <c r="AX23" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
         <v>41</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BA23" t="n">
         <v>151</v>
       </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="BC23" t="n">
-        <v>450</v>
+        <v>126</v>
       </c>
       <c r="BD23" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4b2eI0jJ</t>
+          <t>rHoiM7aT</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4700,170 +4700,170 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Zeleznicar Pancevo</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Radnicki 1923</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.77</v>
+        <v>2</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I24" t="n">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.3</v>
+        <v>2.88</v>
       </c>
       <c r="K24" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>5</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T24" t="n">
         <v>2.1</v>
       </c>
-      <c r="L24" t="n">
-        <v>3</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P24" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S24" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.77</v>
-      </c>
       <c r="U24" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="V24" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="X24" t="n">
-        <v>14.5</v>
+        <v>8</v>
       </c>
       <c r="Y24" t="n">
         <v>10</v>
       </c>
       <c r="Z24" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AA24" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="AC24" t="n">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AE24" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AF24" t="n">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="AG24" t="n">
-        <v>500</v>
+        <v>351</v>
       </c>
       <c r="AH24" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>11.75</v>
+        <v>19</v>
       </c>
       <c r="AJ24" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX24" t="n">
         <v>26</v>
       </c>
-      <c r="AL24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>65</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>90</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT24" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU24" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AW24" t="n">
+      <c r="AY24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>351</v>
+      </c>
+      <c r="BC24" t="n">
         <v>51</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>20</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>55</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>80</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>250</v>
       </c>
       <c r="BD24" t="n">
         <v>51</v>
@@ -4872,7 +4872,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6PiYMbsI</t>
+          <t>hK4r15lm</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4882,172 +4882,354 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Al Ittihad</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Al Fateh</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.45</v>
+        <v>1.27</v>
       </c>
       <c r="H25" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="I25" t="n">
-        <v>2.8</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>1.67</v>
       </c>
       <c r="K25" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="L25" t="n">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T25" t="n">
+        <v>4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W25" t="n">
+        <v>10</v>
+      </c>
+      <c r="X25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA25" t="n">
         <v>11</v>
       </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
+      <c r="AB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>600</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="n">
         <v>3.5</v>
       </c>
-      <c r="Q25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2</v>
-      </c>
-      <c r="W25" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X25" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE25" t="n">
+      <c r="AO25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>13</v>
       </c>
-      <c r="AF25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>41</v>
-      </c>
       <c r="AR25" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>51</v>
       </c>
       <c r="AW25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>450</v>
+      </c>
+      <c r="BC25" t="n">
         <v>81</v>
       </c>
-      <c r="AX25" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY25" t="n">
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>6PiYMbsI</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Castellon</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>11</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V26" t="n">
+        <v>2</v>
+      </c>
+      <c r="W26" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X26" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI26" t="n">
         <v>15</v>
       </c>
-      <c r="AZ25" t="n">
+      <c r="AJ26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP26" t="n">
         <v>23</v>
       </c>
-      <c r="BA25" t="n">
+      <c r="AQ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV26" t="n">
         <v>51</v>
       </c>
-      <c r="BB25" t="n">
+      <c r="AW26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA26" t="n">
         <v>67</v>
       </c>
-      <c r="BC25" t="n">
+      <c r="BB26" t="n">
         <v>151</v>
       </c>
-      <c r="BD25" t="n">
+      <c r="BC26" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD26" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BD23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,37 +676,37 @@
       </c>
       <c r="AW1" s="1" t="inlineStr">
         <is>
+          <t>Odd_CS_3-3_HT</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>Odd_CS_0-1_HT</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-2_HT</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-2_HT</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_0-3_HT</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_1-3_HT</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>Odd_CS_2-3_HT</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>Odd_CS_3-3_HT</t>
         </is>
       </c>
       <c r="BD1" s="1" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pl4Y7lh3</t>
+          <t>Olld2DS1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -728,41 +728,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA</t>
+          <t>FRANCE - LIGUE 1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Nice</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>8.5</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>1.33</v>
+        <v>4.75</v>
       </c>
       <c r="J2" t="n">
-        <v>8</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.83</v>
+        <v>4.75</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -789,106 +789,106 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V2" t="n">
         <v>2.1</v>
       </c>
-      <c r="V2" t="n">
-        <v>1.67</v>
-      </c>
       <c r="W2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB2" t="n">
         <v>21</v>
       </c>
-      <c r="X2" t="n">
-        <v>41</v>
-      </c>
-      <c r="Y2" t="n">
+      <c r="AC2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI2" t="n">
         <v>26</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AJ2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS2" t="n">
         <v>101</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>451</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>401</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.2</v>
+        <v>501</v>
       </c>
       <c r="AX2" t="n">
         <v>6.5</v>
       </c>
       <c r="AY2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB2" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ngIZgpK6</t>
+          <t>StHzEdwH</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,131 +910,131 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>ITALY - SERIE A</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Anderlecht</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="S3" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="V3" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y3" t="n">
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
       </c>
       <c r="AB3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AF3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP3" t="n">
         <v>21</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>19</v>
       </c>
       <c r="AQ3" t="n">
         <v>34</v>
@@ -1043,37 +1043,37 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>151</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
       </c>
       <c r="AZ3" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC3" t="n">
-        <v>501</v>
+        <v>251</v>
       </c>
       <c r="BD3" t="n">
         <v>151</v>
@@ -1082,7 +1082,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SAbklFmo</t>
+          <t>WpvagkwA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1092,179 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>SPAIN - LALIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Ath Bilbao</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="K4" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L4" t="n">
         <v>4.33</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.53</v>
       </c>
       <c r="P4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6</v>
+      </c>
+      <c r="X4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD4" t="n">
         <v>5.5</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>10</v>
-      </c>
-      <c r="X4" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z4" t="n">
+      <c r="AE4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI4" t="n">
         <v>15</v>
       </c>
-      <c r="AA4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE4" t="n">
+      <c r="AJ4" t="n">
         <v>13</v>
       </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15</v>
-      </c>
       <c r="AK4" t="n">
         <v>41</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="n">
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AT4" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>6.5</v>
+        <v>126</v>
       </c>
       <c r="AX4" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY4" t="n">
         <v>21</v>
       </c>
-      <c r="AY4" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ4" t="n">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>126</v>
       </c>
       <c r="BC4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>fsQywBeS</t>
+          <t>AB5EUvCP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1274,179 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Dep. Riestra</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Seraing</t>
+          <t>Banfield</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I5" t="n">
         <v>4.5</v>
       </c>
-      <c r="I5" t="n">
-        <v>7.5</v>
-      </c>
       <c r="J5" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>15</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.2</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>4.33</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.65</v>
+        <v>2.7</v>
       </c>
       <c r="R5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.2</v>
       </c>
-      <c r="S5" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH5" t="n">
         <v>9</v>
       </c>
-      <c r="Z5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AI5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK5" t="n">
         <v>51</v>
       </c>
-      <c r="AG5" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>81</v>
-      </c>
       <c r="AL5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW5" t="n">
         <v>126</v>
       </c>
-      <c r="AT5" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>9</v>
-      </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="AY5" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AZ5" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB5" t="n">
         <v>151</v>
       </c>
-      <c r="BA5" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>301</v>
-      </c>
       <c r="BC5" t="n">
-        <v>81</v>
+        <v>451</v>
       </c>
       <c r="BD5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>rBxSYASP</t>
+          <t>86m1LzZB</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1456,175 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>ARGENTINA - TORNEO BETANO</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Gimnasia L.P.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Atl. Tucuman</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="H6" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X6" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>10</v>
-      </c>
       <c r="Z6" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AA6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ6" t="n">
         <v>11</v>
       </c>
       <c r="AK6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL6" t="n">
         <v>26</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV6" t="n">
         <v>67</v>
       </c>
-      <c r="AS6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA6" t="n">
         <v>51</v>
       </c>
-      <c r="AW6" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>81</v>
-      </c>
       <c r="BB6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EVUVgUfK</t>
+          <t>2TzDhMzH</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1634,179 +1638,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>ARGENTINA - PRIMERA NACIONAL</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Nueva Chicago</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>San Martin S.J.</t>
         </is>
       </c>
       <c r="G7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L7" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N7" t="n">
+        <v>5</v>
+      </c>
+      <c r="O7" t="n">
         <v>1.73</v>
       </c>
-      <c r="H7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="I7" t="n">
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC7" t="n">
         <v>4.75</v>
       </c>
-      <c r="J7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="W7" t="n">
-        <v>8</v>
-      </c>
-      <c r="X7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB7" t="n">
+      <c r="AD7" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE7" t="n">
         <v>23</v>
       </c>
-      <c r="AC7" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI7" t="n">
         <v>15</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
       </c>
       <c r="AK7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM7" t="n">
         <v>51</v>
       </c>
-      <c r="AL7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
       <c r="AN7" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>41</v>
+        <v>126</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>6.5</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY7" t="n">
         <v>23</v>
       </c>
-      <c r="AY7" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ7" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA7" t="n">
         <v>81</v>
       </c>
-      <c r="BA7" t="n">
-        <v>101</v>
-      </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
-        <v>501</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>151</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CKP5mSXm</t>
+          <t>SAbklFmo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,179 +1816,179 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - JUPILER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="H8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I8" t="n">
         <v>4.2</v>
       </c>
-      <c r="I8" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J8" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="K8" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L8" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>17</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.25</v>
       </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>11</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W8" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X8" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AD8" t="n">
         <v>8</v>
       </c>
       <c r="AE8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>401</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY8" t="n">
         <v>21</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AZ8" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA8" t="n">
         <v>67</v>
       </c>
-      <c r="AG8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK8" t="n">
+      <c r="BB8" t="n">
         <v>67</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>nPxpWQ2D</t>
+          <t>fsQywBeS</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,74 +1998,74 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>15:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Waregem</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Seraing</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>1.4</v>
       </c>
       <c r="H9" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R9" t="n">
         <v>2.2</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>11</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
       <c r="S9" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -2074,67 +2074,67 @@
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AA9" t="n">
         <v>11</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC9" t="n">
         <v>13</v>
       </c>
-      <c r="AB9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10</v>
-      </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP9" t="n">
         <v>17</v>
       </c>
-      <c r="AK9" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP9" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU9" t="n">
         <v>9</v>
@@ -2143,34 +2143,34 @@
         <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>7</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>29</v>
+        <v>8.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA9" t="n">
         <v>126</v>
       </c>
-      <c r="BA9" t="n">
+      <c r="BB9" t="n">
         <v>151</v>
       </c>
-      <c r="BB9" t="n">
-        <v>301</v>
-      </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GYmHJpFi</t>
+          <t>rBxSYASP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2185,123 +2185,123 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.35</v>
       </c>
       <c r="H10" t="n">
         <v>3.2</v>
       </c>
       <c r="I10" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.44</v>
       </c>
-      <c r="P10" t="n">
+      <c r="T10" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q10" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U10" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="X10" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM10" t="n">
         <v>34</v>
       </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
       <c r="AN10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2313,46 +2313,42 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>5.5</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AZ10" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB10" t="n">
         <v>81</v>
       </c>
-      <c r="BA10" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>351</v>
-      </c>
       <c r="BC10" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AXtQHOq4</t>
+          <t>EVUVgUfK</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2367,36 +2363,36 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I11" t="n">
         <v>4.75</v>
       </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
       <c r="J11" t="n">
-        <v>1.83</v>
+        <v>2.3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>4.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2405,7 +2401,7 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2417,124 +2413,124 @@
         <v>2.05</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="W11" t="n">
+        <v>8</v>
+      </c>
+      <c r="X11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX11" t="n">
         <v>6.5</v>
       </c>
-      <c r="X11" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="n">
+      <c r="AY11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>29</v>
       </c>
-      <c r="AC11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK11" t="n">
+      <c r="BA11" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB11" t="n">
         <v>101</v>
       </c>
-      <c r="AL11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
+      <c r="BC11" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD11" t="n">
         <v>151</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zLP9z5uP</t>
+          <t>CKP5mSXm</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2544,179 +2540,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CZECH REPUBLIC - CHANCE LIGA</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sigma Olomouc</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Liberec</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H12" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J12" t="n">
         <v>2.1</v>
       </c>
-      <c r="H12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K12" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.36</v>
       </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
-        <v>10</v>
-      </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AB12" t="n">
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR12" t="n">
         <v>51</v>
       </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU12" t="n">
         <v>9</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>5</v>
+        <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>19</v>
+        <v>7.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB12" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>301</v>
       </c>
       <c r="BD12" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>xpnAkona</t>
+          <t>nPxpWQ2D</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2726,175 +2722,179 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
         <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.18</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="T13" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>12</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AD13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP13" t="n">
         <v>21</v>
       </c>
-      <c r="AC13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>7.5</v>
+        <v>126</v>
       </c>
       <c r="AX13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY13" t="n">
         <v>29</v>
       </c>
-      <c r="AY13" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ13" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC13" t="inlineStr"/>
-      <c r="BD13" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6VWC9m7j</t>
+          <t>GYmHJpFi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,175 +2904,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14" t="n">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>2.67</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P14" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="R14" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S14" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T14" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="U14" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V14" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="W14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU14" t="n">
         <v>9</v>
       </c>
-      <c r="X14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>45</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>500</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AV14" t="n">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="AW14" t="n">
-        <v>3.8</v>
+        <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>10.75</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>zmtsF9qT</t>
+          <t>AXtQHOq4</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3082,175 +3086,179 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.85</v>
+        <v>1.33</v>
       </c>
       <c r="H15" t="n">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="I15" t="n">
-        <v>2.95</v>
+        <v>9</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>1.83</v>
       </c>
       <c r="K15" t="n">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="L15" t="n">
-        <v>3.7</v>
+        <v>8.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.92</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S15" t="n">
         <v>1.36</v>
       </c>
-      <c r="S15" t="n">
-        <v>1.65</v>
-      </c>
       <c r="T15" t="n">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.1</v>
       </c>
       <c r="V15" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="W15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X15" t="n">
         <v>6</v>
       </c>
-      <c r="X15" t="n">
-        <v>12.5</v>
-      </c>
       <c r="Y15" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="Z15" t="n">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="AA15" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>4.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.3</v>
+        <v>9.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>18.5</v>
+        <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AG15" t="n">
-        <v>800</v>
+        <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>6.1</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="n">
-        <v>11.75</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="AL15" t="n">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>6.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="AR15" t="n">
-        <v>150</v>
+        <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.12</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AV15" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.6</v>
+        <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>18</v>
+        <v>9.5</v>
       </c>
       <c r="AY15" t="n">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AZ15" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>175</v>
+        <v>251</v>
       </c>
       <c r="BB15" t="n">
-        <v>500</v>
-      </c>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OWKglfr4</t>
+          <t>EBOzcwxS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3260,110 +3268,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P16" t="n">
         <v>2.75</v>
       </c>
-      <c r="J16" t="n">
-        <v>3</v>
-      </c>
-      <c r="K16" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>15</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R16" t="n">
         <v>1.65</v>
       </c>
-      <c r="R16" t="n">
-        <v>2.2</v>
-      </c>
       <c r="S16" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
+        <v>7</v>
+      </c>
+      <c r="X16" t="n">
         <v>11</v>
       </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
         <v>17</v>
       </c>
-      <c r="AB16" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>12</v>
-      </c>
       <c r="AF16" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3372,67 +3380,67 @@
         <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AM16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX16" t="n">
         <v>4.75</v>
       </c>
-      <c r="AO16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT16" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU16" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>15</v>
-      </c>
       <c r="AY16" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD16" t="n">
         <v>126</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sv2lkNQ6</t>
+          <t>xpnAkona</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3442,175 +3450,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Asteras Tripolis</t>
+          <t>Aucas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>PAOK</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>6.5</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I17" t="n">
-        <v>1.53</v>
+        <v>5.75</v>
       </c>
       <c r="J17" t="n">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="K17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>15</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R17" t="n">
         <v>2.25</v>
       </c>
-      <c r="L17" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="S17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="AA17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
         <v>15</v>
       </c>
-      <c r="X17" t="n">
+      <c r="AD17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY17" t="n">
         <v>29</v>
       </c>
-      <c r="Y17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AO17" t="n">
+      <c r="AZ17" t="n">
         <v>34</v>
       </c>
-      <c r="AP17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>23</v>
-      </c>
       <c r="BA17" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB17" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>201</v>
+      </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trSN3Mu0</t>
+          <t>6VWC9m7j</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3620,175 +3628,175 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AEK Athens FC</t>
+          <t>Ceramica Cleopatra</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="J18" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>2.42</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>2.62</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>15.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="AA18" t="n">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="AE18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.33</v>
+        <v>6.1</v>
       </c>
       <c r="AO18" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="AQ18" t="n">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>250</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.42</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>5</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
-        <v>19</v>
+        <v>3.55</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>9.25</v>
       </c>
       <c r="AZ18" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="BB18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC18" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>300</v>
+      </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rHoiM7aT</t>
+          <t>zmtsF9qT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3798,179 +3806,175 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>EGYPT - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Modern Sport</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>ZED</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.05</v>
+        <v>2.92</v>
       </c>
       <c r="H19" t="n">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="I19" t="n">
-        <v>4.1</v>
+        <v>2.92</v>
       </c>
       <c r="J19" t="n">
-        <v>2.88</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="L19" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>4.45</v>
       </c>
       <c r="O19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V19" t="n">
         <v>1.57</v>
       </c>
-      <c r="P19" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="T19" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="W19" t="n">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AE19" t="n">
         <v>19</v>
       </c>
-      <c r="AA19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>21</v>
-      </c>
       <c r="AF19" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AG19" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH19" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="AI19" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>11.75</v>
       </c>
       <c r="AK19" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL19" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AM19" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.75</v>
+        <v>4.55</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>17.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AR19" t="n">
-        <v>81</v>
+        <v>150</v>
       </c>
       <c r="AS19" t="n">
-        <v>351</v>
+        <v>500</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="AU19" t="n">
-        <v>10</v>
+        <v>7.8</v>
       </c>
       <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>5.5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>4.55</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="AZ19" t="n">
-        <v>101</v>
+        <v>32</v>
       </c>
       <c r="BA19" t="n">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="BB19" t="n">
-        <v>351</v>
+        <v>175</v>
       </c>
       <c r="BC19" t="n">
-        <v>51</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>51</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6PiYMbsI</t>
+          <t>OWKglfr4</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3980,77 +3984,77 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Castellon</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J20" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N20" t="n">
+        <v>15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R20" t="n">
         <v>2.2</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="S20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W20" t="n">
         <v>11</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2</v>
-      </c>
-      <c r="W20" t="n">
-        <v>8.5</v>
-      </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
@@ -4059,31 +4063,31 @@
         <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC20" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG20" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="AI20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
         <v>11</v>
@@ -4095,57 +4099,597 @@
         <v>21</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN20" t="n">
         <v>4.5</v>
       </c>
       <c r="AO20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>trSN3Mu0</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>GREECE - SUPER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Olympiacos Piraeus</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>AEK Athens FC</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>10</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X21" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO21" t="n">
         <v>13</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AP21" t="n">
         <v>23</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AQ21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR21" t="n">
         <v>67</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AS21" t="n">
         <v>151</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AT21" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>rHoiM7aT</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>15:45</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>ROMANIA - LIGA 1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Petrolul</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Din. Bucuresti</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vkYjALcC</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>24/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>17:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>SPAIN - LALIGA2</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="J23" t="n">
         <v>2.75</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="K23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X23" t="n">
         <v>7.5</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="Y23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK23" t="n">
         <v>51</v>
       </c>
-      <c r="AW20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ20" t="n">
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
         <v>51</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="AN23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
         <v>67</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="AS23" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB23" t="n">
         <v>151</v>
       </c>
-      <c r="BC20" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD20" t="n">
+      <c r="BC23" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD23" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -950,7 +950,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.33</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1499,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="J7" t="n">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M7" t="n">
         <v>1.17</v>
@@ -1681,10 +1681,10 @@
         <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Q7" t="n">
         <v>3.4</v>
@@ -1693,37 +1693,37 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="T7" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA7" t="n">
         <v>26</v>
       </c>
-      <c r="AA7" t="n">
-        <v>29</v>
-      </c>
       <c r="AB7" t="n">
         <v>51</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
         <v>6</v>
@@ -1738,10 +1738,10 @@
         <v>101</v>
       </c>
       <c r="AH7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1759,16 +1759,16 @@
         <v>4</v>
       </c>
       <c r="AO7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ7" t="n">
         <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
         <v>351</v>
@@ -1784,16 +1784,16 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -2047,10 +2047,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R9" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S9" t="n">
         <v>1.3</v>
@@ -2199,22 +2199,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J10" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.1</v>
       </c>
       <c r="K10" t="n">
         <v>2.05</v>
       </c>
       <c r="L10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M10" t="n">
         <v>1.07</v>
@@ -2235,10 +2235,10 @@
         <v>1.67</v>
       </c>
       <c r="S10" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
         <v>1.83</v>
@@ -2280,16 +2280,16 @@
         <v>301</v>
       </c>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ10" t="n">
         <v>11</v>
       </c>
       <c r="AK10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
         <v>26</v>
@@ -2301,13 +2301,13 @@
         <v>4.33</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>67</v>
@@ -2316,7 +2316,7 @@
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
         <v>8.5</v>
@@ -2326,7 +2326,7 @@
       </c>
       <c r="AW10" t="inlineStr"/>
       <c r="AX10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY10" t="n">
         <v>17</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I11" t="n">
         <v>4.75</v>
@@ -2407,10 +2407,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
@@ -2419,10 +2419,10 @@
         <v>3.25</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W11" t="n">
         <v>8</v>
@@ -2452,13 +2452,13 @@
         <v>15</v>
       </c>
       <c r="AF11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG11" t="n">
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI11" t="n">
         <v>23</v>
@@ -2479,7 +2479,7 @@
         <v>3.75</v>
       </c>
       <c r="AO11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
@@ -2559,7 +2559,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
         <v>4.2</v>
@@ -2568,7 +2568,7 @@
         <v>5.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2583,28 +2583,28 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S12" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W12" t="n">
         <v>6.5</v>
@@ -2625,7 +2625,7 @@
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
         <v>8</v>
@@ -2637,7 +2637,7 @@
         <v>67</v>
       </c>
       <c r="AG12" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH12" t="n">
         <v>13</v>
@@ -2664,10 +2664,10 @@
         <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
         <v>51</v>
@@ -2676,19 +2676,19 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
         <v>126</v>
       </c>
       <c r="AX12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY12" t="n">
         <v>34</v>
@@ -2741,16 +2741,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H13" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
         <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
         <v>2.3</v>
@@ -2765,28 +2765,28 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2798,7 +2798,7 @@
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
         <v>13</v>
@@ -2846,22 +2846,22 @@
         <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2876,16 +2876,16 @@
         <v>29</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB13" t="n">
         <v>126</v>
       </c>
-      <c r="BB13" t="n">
-        <v>151</v>
-      </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD13" t="n">
         <v>126</v>
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
         <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.1</v>
@@ -2947,22 +2947,22 @@
         <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U14" t="n">
         <v>2.1</v>
@@ -2971,19 +2971,19 @@
         <v>1.67</v>
       </c>
       <c r="W14" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AA14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>41</v>
@@ -2992,10 +2992,10 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>67</v>
@@ -3004,34 +3004,34 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>15</v>
       </c>
       <c r="AP14" t="n">
         <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
         <v>81</v>
@@ -3040,7 +3040,7 @@
         <v>251</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
         <v>9</v>
@@ -3052,22 +3052,22 @@
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>34</v>
       </c>
       <c r="BA14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC14" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD14" t="n">
         <v>81</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="H15" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I15" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="K15" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3147,10 +3147,10 @@
         <v>3</v>
       </c>
       <c r="U15" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="V15" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="W15" t="n">
         <v>6.5</v>
@@ -3159,16 +3159,16 @@
         <v>6</v>
       </c>
       <c r="Y15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA15" t="n">
         <v>12</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -3180,7 +3180,7 @@
         <v>23</v>
       </c>
       <c r="AF15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG15" t="n">
         <v>351</v>
@@ -3189,43 +3189,43 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM15" t="n">
         <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO15" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV15" t="n">
         <v>81</v>
@@ -3234,19 +3234,19 @@
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ15" t="n">
         <v>51</v>
       </c>
       <c r="BA15" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB15" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC15" t="n">
         <v>351</v>
@@ -3308,7 +3308,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.4</v>
@@ -3440,7 +3440,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>xpnAkona</t>
+          <t>8As6jRWh</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,7 +3450,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3460,31 +3460,31 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aucas</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Delfin</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H17" t="n">
-        <v>4.2</v>
+        <v>6.25</v>
       </c>
       <c r="I17" t="n">
-        <v>5.75</v>
+        <v>13</v>
       </c>
       <c r="J17" t="n">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="K17" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L17" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3493,132 +3493,132 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V17" t="n">
         <v>1.62</v>
       </c>
-      <c r="R17" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V17" t="n">
-        <v>2</v>
-      </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA17" t="n">
         <v>11</v>
       </c>
-      <c r="AA17" t="n">
-        <v>12</v>
-      </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
       </c>
       <c r="AD17" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>34</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>19</v>
-      </c>
       <c r="AK17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM17" t="n">
         <v>67</v>
       </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>41</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP17" t="n">
         <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>101</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6VWC9m7j</t>
+          <t>negchm2t</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,175 +3628,177 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ceramica Cleopatra</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G18" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N18" t="n">
+        <v>11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2</v>
+      </c>
+      <c r="W18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN18" t="n">
         <v>4.5</v>
       </c>
-      <c r="H18" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="J18" t="n">
-        <v>5</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L18" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N18" t="n">
-        <v>6</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X18" t="n">
+      <c r="AO18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP18" t="n">
         <v>23</v>
       </c>
-      <c r="Y18" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>35</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>37</v>
-      </c>
       <c r="AQ18" t="n">
-        <v>200</v>
+        <v>41</v>
       </c>
       <c r="AR18" t="n">
-        <v>250</v>
+        <v>67</v>
       </c>
       <c r="AS18" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.42</v>
+        <v>2.75</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
       </c>
       <c r="AV18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>351</v>
+      </c>
       <c r="AX18" t="n">
-        <v>3.55</v>
+        <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AZ18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>zmtsF9qT</t>
+          <t>OWKglfr4</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3806,175 +3808,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>EGYPT - PREMIER LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Modern Sport</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>ZED</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.92</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92</v>
+        <v>2.75</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1.78</v>
+        <v>2.3</v>
       </c>
       <c r="L19" t="n">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.45</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.7</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.07</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.95</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.35</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.65</v>
+        <v>1.33</v>
       </c>
       <c r="T19" t="n">
-        <v>2.15</v>
+        <v>3.25</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>1.53</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="W19" t="n">
-        <v>6.1</v>
+        <v>11</v>
       </c>
       <c r="X19" t="n">
         <v>13</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="AB19" t="n">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="AC19" t="n">
-        <v>4.45</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.3</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
         <v>19</v>
       </c>
-      <c r="AF19" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>40</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>30</v>
-      </c>
       <c r="AQ19" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AR19" t="n">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="AS19" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.12</v>
+        <v>3.25</v>
       </c>
       <c r="AU19" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AV19" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW19" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>351</v>
+      </c>
       <c r="AX19" t="n">
-        <v>4.55</v>
+        <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="BA19" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="BB19" t="n">
-        <v>175</v>
+        <v>51</v>
       </c>
       <c r="BC19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD19" t="inlineStr"/>
+        <v>126</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>OWKglfr4</t>
+          <t>trSN3Mu0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3989,174 +3995,170 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>AEK Athens FC</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H20" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="J20" t="n">
         <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P20" t="n">
         <v>3.25</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N20" t="n">
+      <c r="Q20" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
         <v>15</v>
       </c>
-      <c r="O20" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W20" t="n">
-        <v>11</v>
-      </c>
-      <c r="X20" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y20" t="n">
+      <c r="AF20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH20" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>12</v>
       </c>
       <c r="AI20" t="n">
         <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL20" t="n">
         <v>29</v>
       </c>
-      <c r="AL20" t="n">
-        <v>21</v>
-      </c>
       <c r="AM20" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT20" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>351</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
         <v>5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB20" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>trSN3Mu0</t>
+          <t>rHoiM7aT</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4166,175 +4168,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>AEK Athens FC</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="G21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P21" t="n">
         <v>2.2</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="Q21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T21" t="n">
         <v>2.1</v>
       </c>
-      <c r="L21" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>10</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U21" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V21" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="W21" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z21" t="n">
         <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AB21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC21" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="AD21" t="n">
         <v>6</v>
       </c>
       <c r="AE21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AI21" t="n">
         <v>15</v>
       </c>
-      <c r="AF21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>17</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP21" t="n">
         <v>34</v>
       </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="AU21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>51</v>
+      </c>
       <c r="AX21" t="n">
         <v>5</v>
       </c>
       <c r="AY21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ21" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB21" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC21" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD21" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>rHoiM7aT</t>
+          <t>vkYjALcC</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4344,95 +4350,95 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="H22" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K22" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S22" t="n">
         <v>1.57</v>
       </c>
-      <c r="P22" t="n">
+      <c r="T22" t="n">
         <v>2.25</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S22" t="n">
+      <c r="U22" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.62</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.53</v>
       </c>
       <c r="W22" t="n">
         <v>5.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA22" t="n">
         <v>19</v>
       </c>
-      <c r="AA22" t="n">
-        <v>23</v>
-      </c>
       <c r="AB22" t="n">
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE22" t="n">
         <v>21</v>
@@ -4440,20 +4446,18 @@
       <c r="AF22" t="n">
         <v>81</v>
       </c>
-      <c r="AG22" t="n">
-        <v>351</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>15</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL22" t="n">
         <v>41</v>
@@ -4462,46 +4466,46 @@
         <v>51</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV22" t="n">
         <v>81</v>
       </c>
       <c r="AW22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ22" t="n">
         <v>41</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>151</v>
@@ -4510,13 +4514,13 @@
         <v>351</v>
       </c>
       <c r="BD22" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vkYjALcC</t>
+          <t>Ay7OIdkJ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4526,171 +4530,173 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="I23" t="n">
-        <v>4.33</v>
+        <v>6.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="L23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O23" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.5</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="S23" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="T23" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="U23" t="n">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="V23" t="n">
-        <v>1.62</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO23" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y23" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE23" t="n">
+      <c r="AP23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>21</v>
       </c>
-      <c r="AF23" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>41</v>
-      </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>81</v>
+        <v>501</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA23" t="n">
         <v>101</v>
       </c>
       <c r="BB23" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD23" t="n">
         <v>151</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD23"/>
+  <dimension ref="A1:BD21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1013,7 +1013,7 @@
         <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>15</v>
@@ -1028,7 +1028,7 @@
         <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
@@ -1055,10 +1055,10 @@
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1067,7 +1067,7 @@
         <v>34</v>
       </c>
       <c r="BA3" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB3" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
       </c>
       <c r="L4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
         <v>1.13</v>
@@ -1141,10 +1141,10 @@
         <v>2.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.57</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1162,13 +1162,13 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1210,7 +1210,7 @@
         <v>41</v>
       </c>
       <c r="AN4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>15</v>
@@ -1249,7 +1249,7 @@
         <v>34</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>126</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1511,7 +1511,7 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="T6" t="n">
         <v>2.25</v>
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H7" t="n">
         <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.2</v>
@@ -1675,10 +1675,10 @@
         <v>4.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.67</v>
@@ -1693,10 +1693,10 @@
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
@@ -1708,7 +1708,7 @@
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
@@ -1741,7 +1741,7 @@
         <v>7</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ7" t="n">
         <v>15</v>
@@ -1787,7 +1787,7 @@
         <v>5.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1806,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAbklFmo</t>
+          <t>rBxSYASP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,179 +1816,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELGIUM - JUPILER PRO LEAGUE</t>
+          <t>BOLIVIA - DIVISION PROFESIONAL</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Universitario de Vinto</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Always Ready</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.7</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
+        <v>9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW8" t="inlineStr"/>
+      <c r="AX8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY8" t="n">
         <v>17</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W8" t="n">
-        <v>10</v>
-      </c>
-      <c r="X8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL8" t="n">
+      <c r="AZ8" t="n">
         <v>29</v>
       </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>401</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>23</v>
-      </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC8" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>151</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>fsQywBeS</t>
+          <t>EVUVgUfK</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1998,86 +1994,86 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BELGIUM - CHALLENGER PRO LEAGUE</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Waregem</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Seraing</t>
+          <t>Athletico-PR</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O9" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U9" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
         <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>23</v>
@@ -2086,46 +2082,46 @@
         <v>13</v>
       </c>
       <c r="AD9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO9" t="n">
         <v>8.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AP9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
@@ -2134,43 +2130,43 @@
         <v>126</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
       <c r="AW9" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA9" t="n">
         <v>81</v>
       </c>
-      <c r="AX9" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>126</v>
-      </c>
       <c r="BB9" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD9" t="n">
         <v>151</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rBxSYASP</t>
+          <t>CKP5mSXm</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2185,170 +2181,174 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BOLIVIA - DIVISION PROFESIONAL</t>
+          <t>BRAZIL - SERIE A BETANO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Corinthians</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Vasco</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.45</v>
+        <v>1.6</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="I10" t="n">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="K10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L10" t="n">
+        <v>6</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q10" t="n">
         <v>2.05</v>
       </c>
-      <c r="L10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="R10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6</v>
+      </c>
+      <c r="X10" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>451</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU10" t="n">
         <v>9</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X10" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB10" t="n">
+      <c r="AV10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY10" t="n">
         <v>34</v>
       </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="inlineStr"/>
-      <c r="AX10" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD10" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EVUVgUfK</t>
+          <t>nPxpWQ2D</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2368,31 +2368,31 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Bragantino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="H11" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="J11" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.3</v>
       </c>
       <c r="L11" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2407,85 +2407,85 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.33</v>
       </c>
       <c r="T11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="V11" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X11" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y11" t="n">
         <v>8.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
         <v>13</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH11" t="n">
         <v>15</v>
       </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>13</v>
-      </c>
       <c r="AI11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
         <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR11" t="n">
         <v>41</v>
@@ -2494,43 +2494,43 @@
         <v>126</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>51</v>
       </c>
       <c r="AW11" t="n">
-        <v>501</v>
+        <v>126</v>
       </c>
       <c r="AX11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CKP5mSXm</t>
+          <t>GYmHJpFi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2545,174 +2545,174 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Operario</t>
         </is>
       </c>
       <c r="G12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.57</v>
       </c>
-      <c r="H12" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I12" t="n">
+      <c r="T12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W12" t="n">
         <v>5.5</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD12" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X12" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AI12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB12" t="n">
         <v>126</v>
       </c>
-      <c r="AX12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>151</v>
-      </c>
       <c r="BC12" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD12" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>nPxpWQ2D</t>
+          <t>AXtQHOq4</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2727,54 +2727,54 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Paysandu PA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>5.5</v>
+        <v>10</v>
       </c>
       <c r="J13" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2783,118 +2783,118 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>1.62</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>17</v>
       </c>
-      <c r="AF13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>23</v>
-      </c>
       <c r="AR13" t="n">
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY13" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AZ13" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA13" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="BB13" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BC13" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GYmHJpFi</t>
+          <t>EBOzcwxS</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2904,179 +2904,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>COLOMBIA - PRIMERA A</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Dep. Pasto</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Atl. Nacional</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W14" t="n">
         <v>7</v>
       </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W14" t="n">
-        <v>6</v>
-      </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
         <v>41</v>
       </c>
       <c r="AN14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR14" t="n">
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="AU14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>67</v>
       </c>
       <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
         <v>81</v>
       </c>
-      <c r="AX14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD14" t="n">
         <v>126</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>81</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>AXtQHOq4</t>
+          <t>8As6jRWh</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3086,98 +3086,98 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE B</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Ind. del Valle</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Macara</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="H15" t="n">
-        <v>5.25</v>
+        <v>6.25</v>
       </c>
       <c r="I15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J15" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="K15" t="n">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="L15" t="n">
         <v>10</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="U15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W15" t="n">
+        <v>8</v>
+      </c>
+      <c r="X15" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X15" t="n">
-        <v>6</v>
       </c>
       <c r="Y15" t="n">
         <v>9.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD15" t="n">
         <v>12</v>
       </c>
-      <c r="AB15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
         <v>81</v>
@@ -3186,16 +3186,16 @@
         <v>351</v>
       </c>
       <c r="AH15" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
         <v>51</v>
       </c>
       <c r="AJ15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AK15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AL15" t="n">
         <v>81</v>
@@ -3204,37 +3204,35 @@
         <v>67</v>
       </c>
       <c r="AN15" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AO15" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>41</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU15" t="n">
         <v>11</v>
       </c>
       <c r="AV15" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>81</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>51</v>
@@ -3246,19 +3244,17 @@
         <v>301</v>
       </c>
       <c r="BB15" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
         <v>351</v>
       </c>
-      <c r="BD15" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EBOzcwxS</t>
+          <t>negchm2t</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3268,110 +3264,110 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>COLOMBIA - PRIMERA A</t>
+          <t>ECUADOR - LIGA PRO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Dep. Pasto</t>
+          <t>U. Catolica</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Atl. Nacional</t>
+          <t>LDU Quito</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H16" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="K16" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>9</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P16" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.8</v>
-      </c>
       <c r="W16" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
@@ -3380,67 +3376,65 @@
         <v>29</v>
       </c>
       <c r="AL16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN16" t="n">
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>17</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>126</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8As6jRWh</t>
+          <t>OWKglfr4</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3450,41 +3444,41 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ind. del Valle</t>
+          <t>Dortmund II</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Macara</t>
+          <t>Aue</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H17" t="n">
-        <v>6.25</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>2.75</v>
       </c>
       <c r="J17" t="n">
-        <v>1.62</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>10</v>
+        <v>3.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
@@ -3493,132 +3487,136 @@
         <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.53</v>
       </c>
-      <c r="R17" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>2.38</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>15</v>
       </c>
       <c r="AD17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE17" t="n">
         <v>12</v>
       </c>
-      <c r="AE17" t="n">
-        <v>26</v>
-      </c>
       <c r="AF17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>51</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD17" t="n">
         <v>81</v>
       </c>
-      <c r="AG17" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>151</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>81</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>301</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>251</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>negchm2t</t>
+          <t>trSN3Mu0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3628,125 +3626,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ECUADOR - LIGA PRO</t>
+          <t>GREECE - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>U. Catolica</t>
+          <t>Olympiacos Piraeus</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>LDU Quito</t>
+          <t>AEK Athens FC</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="H18" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.25</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N18" t="n">
-        <v>11</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.5</v>
-      </c>
       <c r="Q18" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T18" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.95</v>
       </c>
-      <c r="R18" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V18" t="n">
-        <v>2</v>
-      </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA18" t="n">
         <v>19</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL18" t="n">
         <v>29</v>
       </c>
-      <c r="AL18" t="n">
-        <v>23</v>
-      </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO18" t="n">
         <v>13</v>
@@ -3764,7 +3762,7 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3772,33 +3770,31 @@
       <c r="AV18" t="n">
         <v>51</v>
       </c>
-      <c r="AW18" t="n">
-        <v>351</v>
-      </c>
+      <c r="AW18" t="inlineStr"/>
       <c r="AX18" t="n">
         <v>5</v>
       </c>
       <c r="AY18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="BA18" t="n">
         <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OWKglfr4</t>
+          <t>rHoiM7aT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3808,179 +3804,179 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>15:45</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>ROMANIA - LIGA 1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Petrolul</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Din. Bucuresti</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I19" t="n">
         <v>3.5</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.75</v>
-      </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K19" t="n">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="L19" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.18</v>
+        <v>1.67</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="R19" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U19" t="n">
         <v>2.25</v>
       </c>
-      <c r="S19" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V19" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="W19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y19" t="n">
         <v>11</v>
       </c>
-      <c r="X19" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA19" t="n">
         <v>23</v>
       </c>
-      <c r="AA19" t="n">
-        <v>17</v>
-      </c>
       <c r="AB19" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AC19" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="AG19" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="AI19" t="n">
         <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="n">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="AN19" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP19" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AQ19" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR19" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS19" t="n">
-        <v>101</v>
+        <v>351</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AW19" t="n">
-        <v>351</v>
+        <v>51</v>
       </c>
       <c r="AX19" t="n">
         <v>5</v>
       </c>
       <c r="AY19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ19" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA19" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="BB19" t="n">
-        <v>51</v>
+        <v>151</v>
       </c>
       <c r="BC19" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD19" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>trSN3Mu0</t>
+          <t>vkYjALcC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3990,131 +3986,129 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>AEK Athens FC</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U20" t="n">
         <v>2.2</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N20" t="n">
-        <v>10</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y20" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
       </c>
       <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="AF20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO20" t="n">
         <v>12</v>
       </c>
-      <c r="AK20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL20" t="n">
+      <c r="AP20" t="n">
         <v>29</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
@@ -4123,42 +4117,46 @@
         <v>67</v>
       </c>
       <c r="AS20" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB20" t="n">
         <v>151</v>
       </c>
-      <c r="AT20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW20" t="inlineStr"/>
-      <c r="AX20" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>29</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>51</v>
-      </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD20" t="n">
         <v>81</v>
       </c>
-      <c r="BC20" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>rHoiM7aT</t>
+          <t>Ay7OIdkJ</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4168,534 +4166,172 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="J21" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
         <v>1.62</v>
       </c>
-      <c r="P21" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R21" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="S21" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V21" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W21" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y21" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z21" t="n">
         <v>11</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB21" t="n">
         <v>21</v>
       </c>
-      <c r="AA21" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>41</v>
-      </c>
       <c r="AC21" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>21</v>
       </c>
-      <c r="AF21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AR21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX21" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP21" t="n">
+      <c r="AY21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>34</v>
       </c>
-      <c r="AQ21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="BA21" t="n">
         <v>101</v>
       </c>
-      <c r="AS21" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>81</v>
-      </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC21" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD21" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>vkYjALcC</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>R. Oviedo</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N22" t="n">
-        <v>7</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W22" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Ay7OIdkJ</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Atlanta Utd</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H23" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I23" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N23" t="n">
-        <v>15</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2</v>
-      </c>
-      <c r="W23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X23" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD23" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD21"/>
+  <dimension ref="A1:BD19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -959,10 +959,10 @@
         <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="S3" t="n">
         <v>1.44</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -1058,7 +1058,7 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1129,22 +1129,22 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.57</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>2.25</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>81</v>
@@ -1329,7 +1329,7 @@
         <v>1.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="T5" t="n">
         <v>2.2</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H6" t="n">
         <v>2.9</v>
       </c>
       <c r="I6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>1.91</v>
       </c>
       <c r="L6" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1511,16 +1511,16 @@
         <v>1.5</v>
       </c>
       <c r="S6" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T6" t="n">
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
         <v>7</v>
@@ -1532,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA6" t="n">
         <v>26</v>
@@ -1553,22 +1553,22 @@
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6" t="n">
         <v>13</v>
       </c>
       <c r="AJ6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>29</v>
       </c>
       <c r="AL6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM6" t="n">
         <v>41</v>
@@ -1610,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K7" t="n">
         <v>1.8</v>
       </c>
       <c r="L7" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1708,16 +1708,16 @@
         <v>5</v>
       </c>
       <c r="X7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y7" t="n">
         <v>11</v>
       </c>
       <c r="Z7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB7" t="n">
         <v>51</v>
@@ -1784,7 +1784,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY7" t="n">
         <v>23</v>
@@ -1793,7 +1793,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
         <v>151</v>
@@ -2043,10 +2043,10 @@
         <v>4.33</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R9" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S9" t="n">
         <v>1.33</v>
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2297,7 +2297,7 @@
         <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP10" t="n">
         <v>21</v>
@@ -2395,10 +2395,10 @@
         <v>5.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O11" t="n">
         <v>1.25</v>
@@ -2407,13 +2407,13 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S11" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
@@ -2565,7 +2565,7 @@
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.88</v>
@@ -2595,19 +2595,19 @@
         <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X12" t="n">
         <v>8.5</v>
@@ -2634,7 +2634,7 @@
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG12" t="n">
         <v>351</v>
@@ -2646,16 +2646,16 @@
         <v>17</v>
       </c>
       <c r="AJ12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK12" t="n">
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
         <v>4</v>
@@ -2664,25 +2664,25 @@
         <v>12</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW12" t="n">
         <v>81</v>
@@ -2694,7 +2694,7 @@
         <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
         <v>81</v>
@@ -2762,7 +2762,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2771,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2929,7 +2929,7 @@
         <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -3004,7 +3004,7 @@
         <v>351</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
         <v>13</v>
@@ -3019,10 +3019,10 @@
         <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -3283,28 +3283,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3337,7 +3337,7 @@
         <v>12</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -3346,7 +3346,7 @@
         <v>19</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
         <v>10</v>
@@ -3364,7 +3364,7 @@
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI16" t="n">
         <v>15</v>
@@ -3412,10 +3412,10 @@
         <v>351</v>
       </c>
       <c r="AX16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ16" t="n">
         <v>23</v>
@@ -3434,7 +3434,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OWKglfr4</t>
+          <t>2Zk1gpyH</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3444,179 +3444,175 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>GERMANY - 3. LIGA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Dortmund II</t>
+          <t>Olimpia Asuncion</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Aue</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>2.4</v>
+        <v>1.65</v>
       </c>
       <c r="H17" t="n">
         <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2.38</v>
       </c>
       <c r="K17" t="n">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="L17" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.18</v>
+        <v>1.44</v>
       </c>
       <c r="P17" t="n">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>2.35</v>
       </c>
       <c r="R17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.25</v>
       </c>
-      <c r="S17" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.53</v>
-      </c>
       <c r="V17" t="n">
-        <v>2.38</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="n">
         <v>17</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>15</v>
+        <v>7.5</v>
       </c>
       <c r="AD17" t="n">
         <v>7</v>
       </c>
       <c r="AE17" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>34</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AR17" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW17" t="inlineStr"/>
+      <c r="AX17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA17" t="n">
         <v>126</v>
       </c>
-      <c r="AH17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW17" t="n">
+      <c r="BB17" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC17" t="n">
         <v>351</v>
       </c>
-      <c r="AX17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>21</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD17" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>trSN3Mu0</t>
+          <t>vkYjALcC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3626,175 +3622,177 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>GREECE - SUPER LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Olympiacos Piraeus</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>AEK Athens FC</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
         <v>2.88</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L18" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA18" t="n">
         <v>21</v>
       </c>
-      <c r="AA18" t="n">
-        <v>19</v>
-      </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>15</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AK18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM18" t="n">
         <v>51</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AN18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS18" t="n">
         <v>251</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AT18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU18" t="n">
         <v>9.5</v>
       </c>
-      <c r="AI18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP18" t="n">
+      <c r="AV18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY18" t="n">
         <v>23</v>
       </c>
-      <c r="AQ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="inlineStr"/>
-      <c r="AX18" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>19</v>
-      </c>
       <c r="AZ18" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB18" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD18" t="n">
         <v>81</v>
       </c>
-      <c r="BC18" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>rHoiM7aT</t>
+          <t>Ay7OIdkJ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3804,534 +3802,172 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:45</t>
+          <t>17:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ROMANIA - LIGA 1</t>
+          <t>USA - MLS</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Petrolul</t>
+          <t>Orlando City</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Din. Bucuresti</t>
+          <t>Atlanta Utd</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="I19" t="n">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="L19" t="n">
-        <v>4.33</v>
+        <v>6</v>
       </c>
       <c r="M19" t="n">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.67</v>
+        <v>1.18</v>
       </c>
       <c r="P19" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.1</v>
+        <v>1.62</v>
       </c>
       <c r="R19" t="n">
-        <v>1.36</v>
+        <v>2.25</v>
       </c>
       <c r="S19" t="n">
-        <v>1.67</v>
+        <v>1.3</v>
       </c>
       <c r="T19" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="V19" t="n">
-        <v>1.57</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>5.5</v>
+        <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="Y19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>11</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB19" t="n">
         <v>21</v>
       </c>
-      <c r="AA19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>41</v>
-      </c>
       <c r="AC19" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>21</v>
       </c>
-      <c r="AF19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AR19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AI19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP19" t="n">
+      <c r="AY19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ19" t="n">
         <v>34</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="BA19" t="n">
         <v>101</v>
       </c>
-      <c r="AS19" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>5</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>81</v>
-      </c>
       <c r="BB19" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>351</v>
+        <v>201</v>
       </c>
       <c r="BD19" t="n">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>vkYjALcC</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>17:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>SPAIN - LALIGA2</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>R. Oviedo</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="H20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L20" t="n">
-        <v>5</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W20" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X20" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP20" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD20" t="n">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Ay7OIdkJ</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>24/11/2024</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>17:30</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>USA - MLS</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Orlando City</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Atlanta Utd</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="I21" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="J21" t="n">
-        <v>2</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>6</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V21" t="n">
-        <v>2</v>
-      </c>
-      <c r="W21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="X21" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD21" t="n">
         <v>151</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -759,7 +759,7 @@
         <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>4.75</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -804,7 +804,7 @@
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -944,7 +944,7 @@
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -953,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>2.03</v>
       </c>
       <c r="R3" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="S3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -986,7 +986,7 @@
         <v>8.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>15</v>
@@ -995,7 +995,7 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1007,7 +1007,7 @@
         <v>51</v>
       </c>
       <c r="AG3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1058,10 +1058,10 @@
         <v>126</v>
       </c>
       <c r="AX3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>34</v>
@@ -1070,7 +1070,7 @@
         <v>81</v>
       </c>
       <c r="BB3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC3" t="n">
         <v>251</v>
@@ -1258,7 +1258,7 @@
         <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1308,13 +1308,13 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>1.53</v>
@@ -1335,22 +1335,22 @@
         <v>2.2</v>
       </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1374,16 +1374,16 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1413,7 +1413,7 @@
         <v>2.2</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1422,7 +1422,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>26</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H6" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
         <v>3.4</v>
@@ -1493,16 +1493,16 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
@@ -1523,10 +1523,10 @@
         <v>1.7</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -1577,7 +1577,7 @@
         <v>4.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP6" t="n">
         <v>29</v>
@@ -1607,13 +1607,13 @@
         <v>4.75</v>
       </c>
       <c r="AY6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>101</v>
@@ -1622,7 +1622,7 @@
         <v>301</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1675,16 +1675,16 @@
         <v>4.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
         <v>3.4</v>
@@ -1806,7 +1806,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>rBxSYASP</t>
+          <t>QVuiTljm</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1826,88 +1826,88 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Universitario de Vinto</t>
+          <t>Bolivar</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Always Ready</t>
+          <t>Nacional Potosi</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>5.5</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>11</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>1.67</v>
       </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L8" t="n">
-        <v>3.5</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
+        <v>15</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W8" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W8" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE8" t="n">
         <v>21</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
       </c>
       <c r="AF8" t="n">
         <v>51</v>
@@ -1916,75 +1916,75 @@
         <v>301</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>13</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM8" t="n">
+      <c r="AR8" t="n">
         <v>34</v>
       </c>
-      <c r="AN8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>81</v>
-      </c>
       <c r="AS8" t="n">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU8" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV8" t="n">
         <v>51</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4.75</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>201</v>
       </c>
       <c r="BB8" t="n">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BC8" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EVUVgUfK</t>
+          <t>lSeVesNp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1994,179 +1994,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>America MG</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Athletico-PR</t>
+          <t>Brusque</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>2.3</v>
       </c>
       <c r="L9" t="n">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O9" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P9" t="n">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.73</v>
       </c>
-      <c r="R9" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2</v>
-      </c>
       <c r="W9" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AA9" t="n">
         <v>13</v>
       </c>
       <c r="AB9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE9" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH9" t="n">
         <v>15</v>
       </c>
-      <c r="AF9" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>13</v>
-      </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
         <v>51</v>
       </c>
-      <c r="AL9" t="n">
-        <v>34</v>
-      </c>
       <c r="AM9" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AP9" t="n">
         <v>19</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AR9" t="n">
         <v>41</v>
       </c>
       <c r="AS9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX9" t="n">
         <v>8</v>
       </c>
-      <c r="AV9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AY9" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BD9" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CKP5mSXm</t>
+          <t>MDukGB8a</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2176,143 +2176,141 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vasco</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.6</v>
+        <v>3.1</v>
       </c>
       <c r="H10" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
       </c>
-      <c r="I10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.2</v>
-      </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>7</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="W10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X10" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD10" t="n">
         <v>6</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
-        <v>10</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="W10" t="n">
-        <v>6</v>
-      </c>
-      <c r="X10" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>67</v>
       </c>
-      <c r="AG10" t="n">
-        <v>451</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="AL10" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8.5</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2321,34 +2319,34 @@
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>4.33</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="AZ10" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="BB10" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="BC10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD10" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>nPxpWQ2D</t>
+          <t>GzugFVN5</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2358,179 +2356,177 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>BRAZIL - SERIE A BETANO</t>
+          <t>BRAZIL - SERIE B</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bragantino</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.57</v>
+        <v>7</v>
       </c>
       <c r="H11" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I11" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W11" t="n">
+        <v>13</v>
+      </c>
+      <c r="X11" t="n">
+        <v>34</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>101</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="n">
         <v>5.5</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>11</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T11" t="n">
-        <v>3</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W11" t="n">
+      <c r="AI11" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>201</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>251</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AY11" t="n">
         <v>7</v>
       </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AZ11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB11" t="n">
         <v>51</v>
       </c>
-      <c r="AG11" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>126</v>
-      </c>
       <c r="BC11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BD11" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>GYmHJpFi</t>
+          <t>UwqcEkwC</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2540,7 +2536,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2550,160 +2546,158 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Operario</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>1.22</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>5.25</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>1.73</v>
       </c>
       <c r="K12" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
+        <v>15</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="W12" t="n">
+        <v>5</v>
+      </c>
+      <c r="X12" t="n">
         <v>4.5</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="Y12" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT12" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>6</v>
-      </c>
-      <c r="X12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG12" t="n">
+      <c r="AU12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA12" t="n">
         <v>351</v>
       </c>
-      <c r="AH12" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>81</v>
-      </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2712,7 +2706,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AXtQHOq4</t>
+          <t>4ftUGraA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2722,7 +2716,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2732,55 +2726,55 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Paysandu PA</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Santos</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="L13" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="Q13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R13" t="n">
         <v>1.7</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S13" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U13" t="n">
         <v>2.2</v>
@@ -2789,31 +2783,31 @@
         <v>1.62</v>
       </c>
       <c r="W13" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X13" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC13" t="n">
         <v>8</v>
       </c>
-      <c r="AA13" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>12</v>
-      </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>81</v>
@@ -2822,46 +2816,46 @@
         <v>351</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>21</v>
       </c>
-      <c r="AI13" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>29</v>
-      </c>
       <c r="AK13" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
         <v>201</v>
       </c>
       <c r="AT13" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>81</v>
@@ -2870,19 +2864,19 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>351</v>
@@ -2923,28 +2917,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H14" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="J14" t="n">
         <v>3.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.25</v>
       </c>
       <c r="K14" t="n">
         <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2953,10 +2947,10 @@
         <v>2.75</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R14" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S14" t="n">
         <v>1.5</v>
@@ -2971,25 +2965,25 @@
         <v>1.8</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>10</v>
       </c>
       <c r="Z14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA14" t="n">
         <v>23</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD14" t="n">
         <v>6.5</v>
@@ -3007,16 +3001,16 @@
         <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
         <v>34</v>
@@ -3028,7 +3022,7 @@
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>51</v>
@@ -3037,7 +3031,7 @@
         <v>81</v>
       </c>
       <c r="AS14" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT14" t="n">
         <v>2.5</v>
@@ -3052,7 +3046,7 @@
         <v>126</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
@@ -3301,10 +3295,10 @@
         <v>3.5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O16" t="n">
         <v>1.29</v>
@@ -3821,22 +3815,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I19" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L19" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3863,22 +3857,22 @@
         <v>3.4</v>
       </c>
       <c r="U19" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V19" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W19" t="n">
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y19" t="n">
         <v>8.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA19" t="n">
         <v>12</v>
@@ -3899,7 +3893,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH19" t="n">
         <v>19</v>
@@ -3908,10 +3902,10 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK19" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL19" t="n">
         <v>41</v>
@@ -3950,13 +3944,13 @@
         <v>501</v>
       </c>
       <c r="AX19" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY19" t="n">
         <v>29</v>
       </c>
       <c r="AZ19" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA19" t="n">
         <v>101</v>
@@ -3965,7 +3959,7 @@
         <v>101</v>
       </c>
       <c r="BC19" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD19" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-24.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
         <v>3.75</v>
       </c>
       <c r="I2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -762,7 +762,7 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.67</v>
@@ -789,22 +789,22 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
         <v>13</v>
@@ -831,13 +831,13 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
         <v>15</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="n">
         <v>34</v>
@@ -846,7 +846,7 @@
         <v>34</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO2" t="n">
         <v>9</v>
@@ -855,7 +855,7 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
@@ -870,22 +870,22 @@
         <v>7.5</v>
       </c>
       <c r="AV2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AX2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB2" t="n">
         <v>81</v>
@@ -938,13 +938,13 @@
         <v>4.5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
       </c>
       <c r="L3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -953,22 +953,22 @@
         <v>10</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
         <v>1.95</v>
@@ -995,10 +995,10 @@
         <v>29</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE3" t="n">
         <v>17</v>
@@ -1010,7 +1010,7 @@
         <v>301</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="n">
         <v>41</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
         <v>8.5</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H4" t="n">
         <v>2.9</v>
       </c>
       <c r="I4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
         <v>1.91</v>
@@ -1168,7 +1168,7 @@
         <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA4" t="n">
         <v>23</v>
@@ -1177,13 +1177,13 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD4" t="n">
         <v>6</v>
       </c>
-      <c r="AD4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>67</v>
@@ -1192,7 +1192,7 @@
         <v>501</v>
       </c>
       <c r="AH4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>15</v>
@@ -1252,13 +1252,13 @@
         <v>67</v>
       </c>
       <c r="BB4" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC4" t="n">
         <v>351</v>
       </c>
       <c r="BD4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
@@ -1308,7 +1308,7 @@
         <v>1.91</v>
       </c>
       <c r="L5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M5" t="n">
         <v>1.13</v>
@@ -1344,13 +1344,13 @@
         <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y5" t="n">
         <v>10</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
@@ -1374,16 +1374,16 @@
         <v>501</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL5" t="n">
         <v>41</v>
@@ -1493,16 +1493,16 @@
         <v>3.75</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
       